--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="172">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Journal of Experimental Psychology:  Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>Template_1</t>
   </si>
   <si>
     <t>Sticking together? Re-binding previous other-associated stimuli interferes with self-verification but not partner-verification</t>
@@ -282,7 +285,7 @@
     <t>The oscillatory fingerprints of self-prioritization: Novel markers in spectral EEG for self-relevant processing</t>
   </si>
   <si>
-    <t>Bernhard Pastötter,</t>
+    <t>Bernhard Pastötter</t>
   </si>
   <si>
     <t>pastoetter@uni-trier.de</t>
@@ -337,6 +340,9 @@
     <t>No Trial-leve data</t>
   </si>
   <si>
+    <t>Perceiving the Self and Emotions with an Anxious Mind:Evidence from an Implicit Perceptual Task</t>
+  </si>
+  <si>
     <t>Michele Vicovaro</t>
   </si>
   <si>
@@ -349,6 +355,9 @@
     <t>Journal of Experimental Psychology: Human Perception and Performance</t>
   </si>
   <si>
+    <t>How selves difer within and across cognitive domains: self-prioritisation, self-concept, and psychiatric traits</t>
+  </si>
+  <si>
     <t>Kelsey Perrykkad</t>
   </si>
   <si>
@@ -361,9 +370,15 @@
     <t>BMC Psychology</t>
   </si>
   <si>
+    <t>Self‑prioritization depends on assumed task‑relevance of self‑association</t>
+  </si>
+  <si>
     <t>mgwozniak@gmail.com</t>
   </si>
   <si>
+    <t>Decoding individual differences in self-prioritization from the resting-state functional connectome</t>
+  </si>
+  <si>
     <t>Yongfa Zhang et al.</t>
   </si>
   <si>
@@ -382,6 +397,9 @@
     <t>International Journal of Environmental Research and Public Health</t>
   </si>
   <si>
+    <t>Electrophysiological correlates of self-prioritization</t>
+  </si>
+  <si>
     <t>Jie Sui</t>
   </si>
   <si>
@@ -394,6 +412,9 @@
     <t>Consciousness and Cognition</t>
   </si>
   <si>
+    <t>Self-prioritization effect in the attentional blink paradigm: Attention-based or familiarity-based effect?</t>
+  </si>
+  <si>
     <t>Luis J. Fuentes</t>
   </si>
   <si>
@@ -403,6 +424,9 @@
     <t>V Martínez-Pérez et al.</t>
   </si>
   <si>
+    <t>Electrophysiological correlates of self‑related processing in adults with autism</t>
+  </si>
+  <si>
     <t>Letizia Amodeo</t>
   </si>
   <si>
@@ -413,6 +437,9 @@
   </si>
   <si>
     <t>Cognitive, Affective, &amp; Behavioral Neuroscience</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Saliency at first sight: instant identity referential advantage toward a newly met partner</t>
@@ -585,18 +612,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1043,7 +1070,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1170,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,13 +1228,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1593,17 +1617,17 @@
   <sheetPr/>
   <dimension ref="A1:JI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+      <selection pane="topRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="52.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="24.5833333333333" customWidth="1"/>
     <col min="5" max="5" width="40.0833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
@@ -1637,7 +1661,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1666,7 +1690,9 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1936,7 +1962,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1945,16 +1971,16 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1">
         <v>2020</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2225,24 +2251,26 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1">
         <v>2020</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2512,24 +2540,26 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>2020</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2799,24 +2829,26 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1">
         <v>2021</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3086,10 +3118,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -3101,9 +3133,11 @@
         <v>2020</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3373,24 +3407,26 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1">
         <v>2020</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3660,24 +3696,26 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1">
         <v>2019</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3947,24 +3985,26 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>2018</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -4234,24 +4274,26 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1">
         <v>2021</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -4521,22 +4563,24 @@
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1">
         <v>2021</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -4806,24 +4850,26 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1">
         <v>2020</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -5093,24 +5139,26 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1">
         <v>2022</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -5380,24 +5428,26 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1">
         <v>2021</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -5667,24 +5717,26 @@
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="1">
         <v>2023</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -5954,22 +6006,24 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
         <v>2023</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -6239,24 +6293,26 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1">
         <v>2023</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -6526,24 +6582,26 @@
         <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="1">
         <v>2023</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -6813,24 +6871,26 @@
         <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1">
         <v>2021</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -7100,25 +7160,25 @@
         <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="1">
         <v>2023</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -7381,30 +7441,34 @@
       <c r="JH21" s="1"/>
       <c r="JI21" s="1"/>
     </row>
-    <row r="22" ht="15.5" spans="1:269">
+    <row r="22" ht="31" spans="1:269">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G22" s="1">
         <v>2022</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -7666,30 +7730,34 @@
       <c r="JH22" s="1"/>
       <c r="JI22" s="1"/>
     </row>
-    <row r="23" ht="15.5" spans="1:269">
+    <row r="23" ht="31" spans="1:269">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D23" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G23" s="1">
         <v>2022</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -7951,30 +8019,34 @@
       <c r="JH23" s="1"/>
       <c r="JI23" s="1"/>
     </row>
-    <row r="24" ht="15.5" spans="1:269">
+    <row r="24" ht="31" spans="1:269">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" s="1">
         <v>2020</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -8236,30 +8308,34 @@
       <c r="JH24" s="1"/>
       <c r="JI24" s="1"/>
     </row>
-    <row r="25" ht="15.5" spans="1:269">
+    <row r="25" ht="31" spans="1:269">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D25" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G25" s="1">
         <v>2023</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -8521,30 +8597,34 @@
       <c r="JH25" s="1"/>
       <c r="JI25" s="1"/>
     </row>
-    <row r="26" ht="15.5" spans="1:269">
+    <row r="26" ht="31" spans="1:269">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1">
         <v>2021</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -8813,23 +8893,27 @@
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="D27" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G27" s="1">
         <v>2023</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -9091,30 +9175,34 @@
       <c r="JH27" s="1"/>
       <c r="JI27" s="1"/>
     </row>
-    <row r="28" ht="15.5" spans="1:269">
+    <row r="28" ht="31" spans="1:269">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D28" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G28" s="1">
         <v>2024</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -9376,30 +9464,34 @@
       <c r="JH28" s="1"/>
       <c r="JI28" s="1"/>
     </row>
-    <row r="29" ht="15.5" spans="1:269">
+    <row r="29" ht="31" spans="1:269">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G29" s="1">
         <v>2024</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -9670,7 +9762,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -9934,19 +10028,21 @@
     </row>
     <row r="31" ht="31" spans="1:269">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -13793,19 +13889,19 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -13813,19 +13909,19 @@
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H2" s="1">
         <v>2019</v>
@@ -13833,19 +13929,19 @@
     </row>
     <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3">
         <v>2020</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1">
         <v>2019</v>
@@ -13853,19 +13949,19 @@
     </row>
     <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1">
         <v>2019</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E4" s="3">
         <v>2020</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H4" s="1">
         <v>2019</v>
@@ -13873,19 +13969,19 @@
     </row>
     <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H5" s="1">
         <v>2019</v>
@@ -13893,19 +13989,19 @@
     </row>
     <row r="6" ht="15.5" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H6" s="1">
         <v>2020</v>
@@ -13913,19 +14009,19 @@
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1">
         <v>2020</v>
@@ -13933,19 +14029,19 @@
     </row>
     <row r="8" ht="15.5" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H8" s="1">
         <v>2020</v>
@@ -13953,19 +14049,19 @@
     </row>
     <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
@@ -13973,19 +14069,19 @@
     </row>
     <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
@@ -13993,19 +14089,19 @@
     </row>
     <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
@@ -14013,19 +14109,19 @@
     </row>
     <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
@@ -14033,19 +14129,19 @@
     </row>
     <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
@@ -14053,19 +14149,19 @@
     </row>
     <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
@@ -14073,19 +14169,19 @@
     </row>
     <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
@@ -14093,19 +14189,19 @@
     </row>
     <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
@@ -14113,19 +14209,19 @@
     </row>
     <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
@@ -14133,19 +14229,19 @@
     </row>
     <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
@@ -14153,19 +14249,19 @@
     </row>
     <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
@@ -14173,19 +14269,19 @@
     </row>
     <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
@@ -14193,19 +14289,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -14213,19 +14309,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -14233,19 +14329,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -14253,19 +14349,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -14273,19 +14369,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -14293,19 +14389,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -14313,13 +14409,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -14327,13 +14423,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -14341,13 +14437,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -14355,13 +14451,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -14369,13 +14465,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -14383,13 +14479,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -14397,13 +14493,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -14411,13 +14507,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -14425,13 +14521,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -14439,13 +14535,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -14453,13 +14549,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -14467,13 +14563,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -14481,13 +14577,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -14495,13 +14591,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -14509,13 +14605,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -14523,13 +14619,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -14537,13 +14633,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -14551,13 +14647,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -14565,13 +14661,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -14579,13 +14675,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -14593,13 +14689,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -14607,13 +14703,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -14621,13 +14717,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -14635,13 +14731,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -14649,13 +14745,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -14663,13 +14759,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>
@@ -14801,13 +14897,13 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -14815,7 +14911,7 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1">
         <v>96</v>
@@ -14829,7 +14925,7 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1">
         <v>96</v>
@@ -14843,7 +14939,7 @@
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1">
         <v>96</v>
@@ -14857,7 +14953,7 @@
     </row>
     <row r="5" ht="15.5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
@@ -14871,7 +14967,7 @@
     </row>
     <row r="6" ht="15.5" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1">
         <v>240</v>
@@ -14885,7 +14981,7 @@
     </row>
     <row r="7" ht="15.5" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1">
         <v>312</v>
@@ -14899,7 +14995,7 @@
     </row>
     <row r="8" ht="15.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -14913,7 +15009,7 @@
     </row>
     <row r="9" ht="15.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
@@ -14927,7 +15023,7 @@
     </row>
     <row r="10" ht="15.5" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1">
         <v>192</v>
@@ -14941,7 +15037,7 @@
     </row>
     <row r="11" ht="15.5" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1">
         <v>144</v>
@@ -14955,7 +15051,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -14969,7 +15065,7 @@
     </row>
     <row r="13" ht="15.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -14983,7 +15079,7 @@
     </row>
     <row r="14" ht="15.5" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1">
         <v>672</v>
@@ -14997,7 +15093,7 @@
     </row>
     <row r="15" ht="15.5" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1">
         <v>672</v>
@@ -15011,7 +15107,7 @@
     </row>
     <row r="16" ht="15.5" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -15025,7 +15121,7 @@
     </row>
     <row r="17" ht="15.5" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1">
         <v>360</v>
@@ -15039,7 +15135,7 @@
     </row>
     <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1">
         <v>360</v>
@@ -15053,7 +15149,7 @@
     </row>
     <row r="19" ht="15.5" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B19" s="1">
         <v>360</v>
@@ -15067,7 +15163,7 @@
     </row>
     <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
@@ -15081,7 +15177,7 @@
     </row>
     <row r="21" ht="15.5" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1">
         <v>360</v>
@@ -15095,7 +15191,7 @@
     </row>
     <row r="22" ht="15.5" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B22" s="1">
         <v>128</v>
@@ -15109,7 +15205,7 @@
     </row>
     <row r="23" ht="15.5" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B23" s="1">
         <v>240</v>
@@ -15123,7 +15219,7 @@
     </row>
     <row r="24" ht="15.5" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1">
         <v>240</v>
@@ -15137,7 +15233,7 @@
     </row>
     <row r="25" ht="15.5" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1">
         <v>200</v>
@@ -15151,7 +15247,7 @@
     </row>
     <row r="26" ht="15.5" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1">
         <v>400</v>
@@ -15165,7 +15261,7 @@
     </row>
     <row r="27" ht="15.5" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B27" s="1">
         <v>400</v>
@@ -15179,7 +15275,7 @@
     </row>
     <row r="28" ht="15.5" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B28" s="1">
         <v>360</v>
@@ -15193,7 +15289,7 @@
     </row>
     <row r="29" ht="15.5" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1">
         <v>64</v>
@@ -15207,7 +15303,7 @@
     </row>
     <row r="30" ht="15.5" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1">
         <v>90</v>
@@ -15221,7 +15317,7 @@
     </row>
     <row r="31" ht="15.5" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1">
         <v>40</v>
@@ -15235,7 +15331,7 @@
     </row>
     <row r="32" ht="15.5" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1">
         <v>40</v>
@@ -15249,7 +15345,7 @@
     </row>
     <row r="33" ht="15.5" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1">
         <v>40</v>
@@ -15263,7 +15359,7 @@
     </row>
     <row r="34" ht="15.5" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B34" s="1">
         <v>60</v>
@@ -15277,7 +15373,7 @@
     </row>
     <row r="35" ht="15.5" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1">
         <v>60</v>
@@ -15291,7 +15387,7 @@
     </row>
     <row r="36" ht="15.5" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B36" s="1">
         <v>60</v>
@@ -15305,7 +15401,7 @@
     </row>
     <row r="37" ht="15.5" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B37" s="1">
         <v>60</v>
@@ -15319,7 +15415,7 @@
     </row>
     <row r="38" ht="15.5" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1">
         <v>240</v>
@@ -15333,7 +15429,7 @@
     </row>
     <row r="39" ht="15.5" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B39" s="1">
         <v>60</v>
@@ -15347,7 +15443,7 @@
     </row>
     <row r="40" ht="15.5" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1">
         <v>360</v>
@@ -15361,7 +15457,7 @@
     </row>
     <row r="41" ht="15.5" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B41" s="1">
         <v>300</v>
@@ -15375,7 +15471,7 @@
     </row>
     <row r="42" ht="15.5" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B42" s="1">
         <v>240</v>
@@ -15389,7 +15485,7 @@
     </row>
     <row r="43" ht="15.5" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B43" s="1">
         <v>240</v>
@@ -15403,7 +15499,7 @@
     </row>
     <row r="44" ht="15.5" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B44" s="1">
         <v>360</v>
@@ -15417,7 +15513,7 @@
     </row>
     <row r="45" ht="15.5" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1">
         <v>360</v>
@@ -15431,7 +15527,7 @@
     </row>
     <row r="46" ht="15.5" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B46" s="1">
         <v>360</v>
@@ -15445,7 +15541,7 @@
     </row>
     <row r="47" ht="15.5" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1">
         <v>360</v>
@@ -15459,7 +15555,7 @@
     </row>
     <row r="48" ht="15.5" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B48" s="1">
         <v>96</v>
@@ -15473,7 +15569,7 @@
     </row>
     <row r="49" ht="15.5" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1">
         <v>320</v>
@@ -15487,7 +15583,7 @@
     </row>
     <row r="50" ht="15.5" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B50" s="1">
         <v>960</v>
@@ -15501,7 +15597,7 @@
     </row>
     <row r="51" ht="15.5" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B51" s="1">
         <v>240</v>
@@ -15515,7 +15611,7 @@
     </row>
     <row r="52" ht="15.5" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B52" s="1">
         <v>360</v>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Journal of Experimental Psychology:  Human Perception and Performance</t>
   </si>
   <si>
-    <t>Template_1</t>
+    <t>Template_2</t>
   </si>
   <si>
     <t>Sticking together? Re-binding previous other-associated stimuli interferes with self-verification but not partner-verification</t>
@@ -446,6 +446,30 @@
   </si>
   <si>
     <t>tseng@riec.tohoku.ac.jp</t>
+  </si>
+  <si>
+    <t>The self-relevant spotlight metaphor: Self-relevant targets diminish distractor–response-binding effects</t>
+  </si>
+  <si>
+    <t>Marcel Pauly</t>
+  </si>
+  <si>
+    <t>marcel.pauly@uni-saarlande.de</t>
+  </si>
+  <si>
+    <t>Psychonomic Bulletin &amp; Review</t>
+  </si>
+  <si>
+    <t>Template_1</t>
+  </si>
+  <si>
+    <t>The self can be associated with novel faces of in-group and out-group members: A cross-cultural study</t>
+  </si>
+  <si>
+    <t>Mario Dalmaso</t>
+  </si>
+  <si>
+    <t>mario.dalmaso@unipd.it</t>
   </si>
   <si>
     <t>Paper</t>
@@ -1615,12 +1639,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:JI45"/>
+  <dimension ref="A1:JI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I21" sqref="I21"/>
+      <selection pane="topRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -10307,10 +10331,10 @@
     </row>
     <row r="32" ht="15.5" spans="1:269">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -10576,16 +10600,30 @@
       <c r="JH32" s="1"/>
       <c r="JI32" s="1"/>
     </row>
-    <row r="33" ht="15.5" spans="1:269">
+    <row r="33" ht="31" spans="1:269">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="C33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -10847,16 +10885,30 @@
       <c r="JH33" s="1"/>
       <c r="JI33" s="1"/>
     </row>
-    <row r="34" ht="15.5" spans="1:269">
+    <row r="34" ht="31" spans="1:269">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="C34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -11121,7 +11173,7 @@
     <row r="35" ht="15.5" spans="1:269">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -11392,7 +11444,7 @@
     <row r="36" ht="15.5" spans="1:269">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -11663,7 +11715,7 @@
     <row r="37" ht="15.5" spans="1:269">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11934,7 +11986,7 @@
     <row r="38" ht="15.5" spans="1:269">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -12205,7 +12257,7 @@
     <row r="39" ht="15.5" spans="1:269">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -12476,7 +12528,7 @@
     <row r="40" ht="15.5" spans="1:269">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -12747,7 +12799,7 @@
     <row r="41" ht="15.5" spans="1:269">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -13018,7 +13070,7 @@
     <row r="42" ht="15.5" spans="1:269">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -13289,7 +13341,7 @@
     <row r="43" ht="15.5" spans="1:269">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -13560,7 +13612,7 @@
     <row r="44" ht="15.5" spans="1:269">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -13828,15 +13880,286 @@
       <c r="JH44" s="1"/>
       <c r="JI44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:8">
+    <row r="45" ht="15.5" spans="1:269">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
+      <c r="CW45" s="1"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="1"/>
+      <c r="CZ45" s="1"/>
+      <c r="DA45" s="1"/>
+      <c r="DB45" s="1"/>
+      <c r="DC45" s="1"/>
+      <c r="DD45" s="1"/>
+      <c r="DE45" s="1"/>
+      <c r="DF45" s="1"/>
+      <c r="DG45" s="1"/>
+      <c r="DH45" s="1"/>
+      <c r="DI45" s="1"/>
+      <c r="DJ45" s="1"/>
+      <c r="DK45" s="1"/>
+      <c r="DL45" s="1"/>
+      <c r="DM45" s="1"/>
+      <c r="DN45" s="1"/>
+      <c r="DO45" s="1"/>
+      <c r="DP45" s="1"/>
+      <c r="DQ45" s="1"/>
+      <c r="DR45" s="1"/>
+      <c r="DS45" s="1"/>
+      <c r="DT45" s="1"/>
+      <c r="DU45" s="1"/>
+      <c r="DV45" s="1"/>
+      <c r="DW45" s="1"/>
+      <c r="DX45" s="1"/>
+      <c r="DY45" s="1"/>
+      <c r="DZ45" s="1"/>
+      <c r="EA45" s="1"/>
+      <c r="EB45" s="1"/>
+      <c r="EC45" s="1"/>
+      <c r="ED45" s="1"/>
+      <c r="EE45" s="1"/>
+      <c r="EF45" s="1"/>
+      <c r="EG45" s="1"/>
+      <c r="EH45" s="1"/>
+      <c r="EI45" s="1"/>
+      <c r="EJ45" s="1"/>
+      <c r="EK45" s="1"/>
+      <c r="EL45" s="1"/>
+      <c r="EM45" s="1"/>
+      <c r="EN45" s="1"/>
+      <c r="EO45" s="1"/>
+      <c r="EP45" s="1"/>
+      <c r="EQ45" s="1"/>
+      <c r="ER45" s="1"/>
+      <c r="ES45" s="1"/>
+      <c r="ET45" s="1"/>
+      <c r="EU45" s="1"/>
+      <c r="EV45" s="1"/>
+      <c r="EW45" s="1"/>
+      <c r="EX45" s="1"/>
+      <c r="EY45" s="1"/>
+      <c r="EZ45" s="1"/>
+      <c r="FA45" s="1"/>
+      <c r="FB45" s="1"/>
+      <c r="FC45" s="1"/>
+      <c r="FD45" s="1"/>
+      <c r="FE45" s="1"/>
+      <c r="FF45" s="1"/>
+      <c r="FG45" s="1"/>
+      <c r="FH45" s="1"/>
+      <c r="FI45" s="1"/>
+      <c r="FJ45" s="1"/>
+      <c r="FK45" s="1"/>
+      <c r="FL45" s="1"/>
+      <c r="FM45" s="1"/>
+      <c r="FN45" s="1"/>
+      <c r="FO45" s="1"/>
+      <c r="FP45" s="1"/>
+      <c r="FQ45" s="1"/>
+      <c r="FR45" s="1"/>
+      <c r="FS45" s="1"/>
+      <c r="FT45" s="1"/>
+      <c r="FU45" s="1"/>
+      <c r="FV45" s="1"/>
+      <c r="FW45" s="1"/>
+      <c r="FX45" s="1"/>
+      <c r="FY45" s="1"/>
+      <c r="FZ45" s="1"/>
+      <c r="GA45" s="1"/>
+      <c r="GB45" s="1"/>
+      <c r="GC45" s="1"/>
+      <c r="GD45" s="1"/>
+      <c r="GE45" s="1"/>
+      <c r="GF45" s="1"/>
+      <c r="GG45" s="1"/>
+      <c r="GH45" s="1"/>
+      <c r="GI45" s="1"/>
+      <c r="GJ45" s="1"/>
+      <c r="GK45" s="1"/>
+      <c r="GL45" s="1"/>
+      <c r="GM45" s="1"/>
+      <c r="GN45" s="1"/>
+      <c r="GO45" s="1"/>
+      <c r="GP45" s="1"/>
+      <c r="GQ45" s="1"/>
+      <c r="GR45" s="1"/>
+      <c r="GS45" s="1"/>
+      <c r="GT45" s="1"/>
+      <c r="GU45" s="1"/>
+      <c r="GV45" s="1"/>
+      <c r="GW45" s="1"/>
+      <c r="GX45" s="1"/>
+      <c r="GY45" s="1"/>
+      <c r="GZ45" s="1"/>
+      <c r="HA45" s="1"/>
+      <c r="HB45" s="1"/>
+      <c r="HC45" s="1"/>
+      <c r="HD45" s="1"/>
+      <c r="HE45" s="1"/>
+      <c r="HF45" s="1"/>
+      <c r="HG45" s="1"/>
+      <c r="HH45" s="1"/>
+      <c r="HI45" s="1"/>
+      <c r="HJ45" s="1"/>
+      <c r="HK45" s="1"/>
+      <c r="HL45" s="1"/>
+      <c r="HM45" s="1"/>
+      <c r="HN45" s="1"/>
+      <c r="HO45" s="1"/>
+      <c r="HP45" s="1"/>
+      <c r="HQ45" s="1"/>
+      <c r="HR45" s="1"/>
+      <c r="HS45" s="1"/>
+      <c r="HT45" s="1"/>
+      <c r="HU45" s="1"/>
+      <c r="HV45" s="1"/>
+      <c r="HW45" s="1"/>
+      <c r="HX45" s="1"/>
+      <c r="HY45" s="1"/>
+      <c r="HZ45" s="1"/>
+      <c r="IA45" s="1"/>
+      <c r="IB45" s="1"/>
+      <c r="IC45" s="1"/>
+      <c r="ID45" s="1"/>
+      <c r="IE45" s="1"/>
+      <c r="IF45" s="1"/>
+      <c r="IG45" s="1"/>
+      <c r="IH45" s="1"/>
+      <c r="II45" s="1"/>
+      <c r="IJ45" s="1"/>
+      <c r="IK45" s="1"/>
+      <c r="IL45" s="1"/>
+      <c r="IM45" s="1"/>
+      <c r="IN45" s="1"/>
+      <c r="IO45" s="1"/>
+      <c r="IP45" s="1"/>
+      <c r="IQ45" s="1"/>
+      <c r="IR45" s="1"/>
+      <c r="IS45" s="1"/>
+      <c r="IT45" s="1"/>
+      <c r="IU45" s="1"/>
+      <c r="IV45" s="1"/>
+      <c r="IW45" s="1"/>
+      <c r="IX45" s="1"/>
+      <c r="IY45" s="1"/>
+      <c r="IZ45" s="1"/>
+      <c r="JA45" s="1"/>
+      <c r="JB45" s="1"/>
+      <c r="JC45" s="1"/>
+      <c r="JD45" s="1"/>
+      <c r="JE45" s="1"/>
+      <c r="JF45" s="1"/>
+      <c r="JG45" s="1"/>
+      <c r="JH45" s="1"/>
+      <c r="JI45" s="1"/>
+    </row>
+    <row r="46" ht="15.5" spans="1:8">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H29" etc:filterBottomFollowUsedRange="0">
@@ -13863,6 +14186,8 @@
     <hyperlink ref="E28" r:id="rId13" display="lfuentes@um.es"/>
     <hyperlink ref="E31" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
     <hyperlink ref="E21" r:id="rId15" display="wentura@mx.uni-saarland.de"/>
+    <hyperlink ref="E33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
+    <hyperlink ref="E34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -13889,19 +14214,19 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -13909,19 +14234,19 @@
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H2" s="1">
         <v>2019</v>
@@ -13929,19 +14254,19 @@
     </row>
     <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E3" s="3">
         <v>2020</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H3" s="1">
         <v>2019</v>
@@ -13949,19 +14274,19 @@
     </row>
     <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1">
         <v>2019</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E4" s="3">
         <v>2020</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H4" s="1">
         <v>2019</v>
@@ -13969,19 +14294,19 @@
     </row>
     <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H5" s="1">
         <v>2019</v>
@@ -13989,19 +14314,19 @@
     </row>
     <row r="6" ht="15.5" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H6" s="1">
         <v>2020</v>
@@ -14009,19 +14334,19 @@
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H7" s="1">
         <v>2020</v>
@@ -14029,19 +14354,19 @@
     </row>
     <row r="8" ht="15.5" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H8" s="1">
         <v>2020</v>
@@ -14049,19 +14374,19 @@
     </row>
     <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
@@ -14069,19 +14394,19 @@
     </row>
     <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
@@ -14089,19 +14414,19 @@
     </row>
     <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
@@ -14109,19 +14434,19 @@
     </row>
     <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
@@ -14129,19 +14454,19 @@
     </row>
     <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
@@ -14149,19 +14474,19 @@
     </row>
     <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
@@ -14169,19 +14494,19 @@
     </row>
     <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
@@ -14189,19 +14514,19 @@
     </row>
     <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
@@ -14209,19 +14534,19 @@
     </row>
     <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
@@ -14229,19 +14554,19 @@
     </row>
     <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
@@ -14249,19 +14574,19 @@
     </row>
     <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
@@ -14269,19 +14594,19 @@
     </row>
     <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
@@ -14289,19 +14614,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -14309,19 +14634,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -14329,19 +14654,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -14349,19 +14674,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -14369,19 +14694,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -14389,19 +14714,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -14409,13 +14734,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -14423,13 +14748,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -14437,13 +14762,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -14451,13 +14776,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -14465,13 +14790,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -14479,13 +14804,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -14493,13 +14818,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -14507,13 +14832,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -14521,13 +14846,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -14535,13 +14860,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -14549,13 +14874,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -14563,13 +14888,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -14577,13 +14902,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -14591,13 +14916,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -14605,13 +14930,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -14619,13 +14944,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -14633,13 +14958,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -14647,13 +14972,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -14661,13 +14986,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -14675,13 +15000,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -14689,13 +15014,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -14703,13 +15028,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -14717,13 +15042,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -14731,13 +15056,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -14745,13 +15070,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -14759,13 +15084,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>
@@ -14897,13 +15222,13 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -14911,7 +15236,7 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1">
         <v>96</v>
@@ -14925,7 +15250,7 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1">
         <v>96</v>
@@ -14939,7 +15264,7 @@
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1">
         <v>96</v>
@@ -14953,7 +15278,7 @@
     </row>
     <row r="5" ht="15.5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
@@ -14967,7 +15292,7 @@
     </row>
     <row r="6" ht="15.5" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1">
         <v>240</v>
@@ -14981,7 +15306,7 @@
     </row>
     <row r="7" ht="15.5" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1">
         <v>312</v>
@@ -14995,7 +15320,7 @@
     </row>
     <row r="8" ht="15.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -15009,7 +15334,7 @@
     </row>
     <row r="9" ht="15.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
@@ -15023,7 +15348,7 @@
     </row>
     <row r="10" ht="15.5" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B10" s="1">
         <v>192</v>
@@ -15037,7 +15362,7 @@
     </row>
     <row r="11" ht="15.5" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B11" s="1">
         <v>144</v>
@@ -15051,7 +15376,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -15065,7 +15390,7 @@
     </row>
     <row r="13" ht="15.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -15079,7 +15404,7 @@
     </row>
     <row r="14" ht="15.5" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B14" s="1">
         <v>672</v>
@@ -15093,7 +15418,7 @@
     </row>
     <row r="15" ht="15.5" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1">
         <v>672</v>
@@ -15107,7 +15432,7 @@
     </row>
     <row r="16" ht="15.5" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -15121,7 +15446,7 @@
     </row>
     <row r="17" ht="15.5" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B17" s="1">
         <v>360</v>
@@ -15135,7 +15460,7 @@
     </row>
     <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B18" s="1">
         <v>360</v>
@@ -15149,7 +15474,7 @@
     </row>
     <row r="19" ht="15.5" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B19" s="1">
         <v>360</v>
@@ -15163,7 +15488,7 @@
     </row>
     <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
@@ -15177,7 +15502,7 @@
     </row>
     <row r="21" ht="15.5" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1">
         <v>360</v>
@@ -15191,7 +15516,7 @@
     </row>
     <row r="22" ht="15.5" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B22" s="1">
         <v>128</v>
@@ -15205,7 +15530,7 @@
     </row>
     <row r="23" ht="15.5" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B23" s="1">
         <v>240</v>
@@ -15219,7 +15544,7 @@
     </row>
     <row r="24" ht="15.5" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B24" s="1">
         <v>240</v>
@@ -15233,7 +15558,7 @@
     </row>
     <row r="25" ht="15.5" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1">
         <v>200</v>
@@ -15247,7 +15572,7 @@
     </row>
     <row r="26" ht="15.5" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1">
         <v>400</v>
@@ -15261,7 +15586,7 @@
     </row>
     <row r="27" ht="15.5" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1">
         <v>400</v>
@@ -15275,7 +15600,7 @@
     </row>
     <row r="28" ht="15.5" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1">
         <v>360</v>
@@ -15289,7 +15614,7 @@
     </row>
     <row r="29" ht="15.5" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B29" s="1">
         <v>64</v>
@@ -15303,7 +15628,7 @@
     </row>
     <row r="30" ht="15.5" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B30" s="1">
         <v>90</v>
@@ -15317,7 +15642,7 @@
     </row>
     <row r="31" ht="15.5" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B31" s="1">
         <v>40</v>
@@ -15331,7 +15656,7 @@
     </row>
     <row r="32" ht="15.5" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1">
         <v>40</v>
@@ -15345,7 +15670,7 @@
     </row>
     <row r="33" ht="15.5" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1">
         <v>40</v>
@@ -15359,7 +15684,7 @@
     </row>
     <row r="34" ht="15.5" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1">
         <v>60</v>
@@ -15373,7 +15698,7 @@
     </row>
     <row r="35" ht="15.5" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1">
         <v>60</v>
@@ -15387,7 +15712,7 @@
     </row>
     <row r="36" ht="15.5" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B36" s="1">
         <v>60</v>
@@ -15401,7 +15726,7 @@
     </row>
     <row r="37" ht="15.5" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1">
         <v>60</v>
@@ -15415,7 +15740,7 @@
     </row>
     <row r="38" ht="15.5" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1">
         <v>240</v>
@@ -15429,7 +15754,7 @@
     </row>
     <row r="39" ht="15.5" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1">
         <v>60</v>
@@ -15443,7 +15768,7 @@
     </row>
     <row r="40" ht="15.5" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1">
         <v>360</v>
@@ -15457,7 +15782,7 @@
     </row>
     <row r="41" ht="15.5" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B41" s="1">
         <v>300</v>
@@ -15471,7 +15796,7 @@
     </row>
     <row r="42" ht="15.5" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1">
         <v>240</v>
@@ -15485,7 +15810,7 @@
     </row>
     <row r="43" ht="15.5" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1">
         <v>240</v>
@@ -15499,7 +15824,7 @@
     </row>
     <row r="44" ht="15.5" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B44" s="1">
         <v>360</v>
@@ -15513,7 +15838,7 @@
     </row>
     <row r="45" ht="15.5" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1">
         <v>360</v>
@@ -15527,7 +15852,7 @@
     </row>
     <row r="46" ht="15.5" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B46" s="1">
         <v>360</v>
@@ -15541,7 +15866,7 @@
     </row>
     <row r="47" ht="15.5" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B47" s="1">
         <v>360</v>
@@ -15555,7 +15880,7 @@
     </row>
     <row r="48" ht="15.5" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B48" s="1">
         <v>96</v>
@@ -15569,7 +15894,7 @@
     </row>
     <row r="49" ht="15.5" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B49" s="1">
         <v>320</v>
@@ -15583,7 +15908,7 @@
     </row>
     <row r="50" ht="15.5" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B50" s="1">
         <v>960</v>
@@ -15597,7 +15922,7 @@
     </row>
     <row r="51" ht="15.5" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B51" s="1">
         <v>240</v>
@@ -15611,7 +15936,7 @@
     </row>
     <row r="52" ht="15.5" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B52" s="1">
         <v>360</v>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="19490" windowHeight="10510"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$I$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="181">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
   <si>
     <t>Contain</t>
@@ -1639,28 +1642,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:JI46"/>
+  <dimension ref="A1:JJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="A23" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H35" sqref="H35"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="52.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="40.0833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="67.0833333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="52.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="40.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="67.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:9">
+    <row r="1" ht="15.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,39 +1689,42 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:269">
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:270">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
         <v>2019</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1977,36 +1984,37 @@
       <c r="JG2" s="1"/>
       <c r="JH2" s="1"/>
       <c r="JI2" s="1"/>
-    </row>
-    <row r="3" ht="31" spans="1:269">
+      <c r="JJ2" s="1"/>
+    </row>
+    <row r="3" ht="31" spans="1:270">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1">
         <v>2020</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2266,36 +2274,37 @@
       <c r="JG3" s="1"/>
       <c r="JH3" s="1"/>
       <c r="JI3" s="1"/>
-    </row>
-    <row r="4" ht="31" spans="1:269">
+      <c r="JJ3" s="1"/>
+    </row>
+    <row r="4" ht="31" spans="1:270">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2555,36 +2564,37 @@
       <c r="JG4" s="1"/>
       <c r="JH4" s="1"/>
       <c r="JI4" s="1"/>
-    </row>
-    <row r="5" ht="46.5" spans="1:269">
+      <c r="JJ4" s="1"/>
+    </row>
+    <row r="5" ht="46.5" spans="1:270">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
         <v>2020</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2844,36 +2854,37 @@
       <c r="JG5" s="1"/>
       <c r="JH5" s="1"/>
       <c r="JI5" s="1"/>
-    </row>
-    <row r="6" ht="31" spans="1:269">
+      <c r="JJ5" s="1"/>
+    </row>
+    <row r="6" ht="31" spans="1:270">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1">
         <v>2021</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3133,36 +3144,37 @@
       <c r="JG6" s="1"/>
       <c r="JH6" s="1"/>
       <c r="JI6" s="1"/>
-    </row>
-    <row r="7" ht="31" spans="1:269">
+      <c r="JJ6" s="1"/>
+    </row>
+    <row r="7" ht="31" spans="1:270">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
         <v>2020</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3422,36 +3434,37 @@
       <c r="JG7" s="1"/>
       <c r="JH7" s="1"/>
       <c r="JI7" s="1"/>
-    </row>
-    <row r="8" ht="31" spans="1:269">
+      <c r="JJ7" s="1"/>
+    </row>
+    <row r="8" ht="31" spans="1:270">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1">
         <v>2020</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3711,36 +3724,37 @@
       <c r="JG8" s="1"/>
       <c r="JH8" s="1"/>
       <c r="JI8" s="1"/>
-    </row>
-    <row r="9" ht="31" spans="1:269">
+      <c r="JJ8" s="1"/>
+    </row>
+    <row r="9" ht="31" spans="1:270">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1">
         <v>2019</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4000,36 +4014,37 @@
       <c r="JG9" s="1"/>
       <c r="JH9" s="1"/>
       <c r="JI9" s="1"/>
-    </row>
-    <row r="10" ht="15.5" spans="1:269">
+      <c r="JJ9" s="1"/>
+    </row>
+    <row r="10" ht="15.5" spans="1:270">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1">
         <v>2018</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -4289,36 +4304,37 @@
       <c r="JG10" s="1"/>
       <c r="JH10" s="1"/>
       <c r="JI10" s="1"/>
-    </row>
-    <row r="11" ht="15.5" spans="1:269">
+      <c r="JJ10" s="1"/>
+    </row>
+    <row r="11" ht="15.5" spans="1:270">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1">
         <v>2021</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4578,34 +4594,35 @@
       <c r="JG11" s="1"/>
       <c r="JH11" s="1"/>
       <c r="JI11" s="1"/>
-    </row>
-    <row r="12" ht="31" spans="1:269">
+      <c r="JJ11" s="1"/>
+    </row>
+    <row r="12" ht="31" spans="1:270">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1">
         <v>2021</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -4865,36 +4882,37 @@
       <c r="JG12" s="1"/>
       <c r="JH12" s="1"/>
       <c r="JI12" s="1"/>
-    </row>
-    <row r="13" ht="31" spans="1:269">
+      <c r="JJ12" s="1"/>
+    </row>
+    <row r="13" ht="31" spans="1:270">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1">
         <v>2020</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -5154,36 +5172,37 @@
       <c r="JG13" s="1"/>
       <c r="JH13" s="1"/>
       <c r="JI13" s="1"/>
-    </row>
-    <row r="14" ht="31" spans="1:269">
+      <c r="JJ13" s="1"/>
+    </row>
+    <row r="14" ht="31" spans="1:270">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1">
         <v>2022</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -5443,36 +5462,37 @@
       <c r="JG14" s="1"/>
       <c r="JH14" s="1"/>
       <c r="JI14" s="1"/>
-    </row>
-    <row r="15" ht="31" spans="1:269">
+      <c r="JJ14" s="1"/>
+    </row>
+    <row r="15" ht="31" spans="1:270">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1">
         <v>2021</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -5732,36 +5752,37 @@
       <c r="JG15" s="1"/>
       <c r="JH15" s="1"/>
       <c r="JI15" s="1"/>
-    </row>
-    <row r="16" ht="31" spans="1:269">
+      <c r="JJ15" s="1"/>
+    </row>
+    <row r="16" ht="31" spans="1:270">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1">
         <v>2023</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6021,34 +6042,35 @@
       <c r="JG16" s="1"/>
       <c r="JH16" s="1"/>
       <c r="JI16" s="1"/>
-    </row>
-    <row r="17" ht="31" spans="1:269">
+      <c r="JJ16" s="1"/>
+    </row>
+    <row r="17" ht="31" spans="1:270">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
         <v>2023</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6308,36 +6330,37 @@
       <c r="JG17" s="1"/>
       <c r="JH17" s="1"/>
       <c r="JI17" s="1"/>
-    </row>
-    <row r="18" ht="31" spans="1:269">
+      <c r="JJ17" s="1"/>
+    </row>
+    <row r="18" ht="31" spans="1:270">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="1">
         <v>2023</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -6597,36 +6620,37 @@
       <c r="JG18" s="1"/>
       <c r="JH18" s="1"/>
       <c r="JI18" s="1"/>
-    </row>
-    <row r="19" ht="31" spans="1:269">
+      <c r="JJ18" s="1"/>
+    </row>
+    <row r="19" ht="31" spans="1:270">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="1">
         <v>2023</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -6886,36 +6910,37 @@
       <c r="JG19" s="1"/>
       <c r="JH19" s="1"/>
       <c r="JI19" s="1"/>
-    </row>
-    <row r="20" ht="31" spans="1:269">
+      <c r="JJ19" s="1"/>
+    </row>
+    <row r="20" ht="31" spans="1:270">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="1">
         <v>2021</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -7175,36 +7200,37 @@
       <c r="JG20" s="1"/>
       <c r="JH20" s="1"/>
       <c r="JI20" s="1"/>
-    </row>
-    <row r="21" ht="31" spans="1:269">
+      <c r="JJ20" s="1"/>
+    </row>
+    <row r="21" ht="31" spans="1:270">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
         <v>2023</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -7464,36 +7490,37 @@
       <c r="JG21" s="1"/>
       <c r="JH21" s="1"/>
       <c r="JI21" s="1"/>
-    </row>
-    <row r="22" ht="31" spans="1:269">
+      <c r="JJ21" s="1"/>
+    </row>
+    <row r="22" ht="31" spans="1:270">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="1">
         <v>2022</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -7753,36 +7780,37 @@
       <c r="JG22" s="1"/>
       <c r="JH22" s="1"/>
       <c r="JI22" s="1"/>
-    </row>
-    <row r="23" ht="31" spans="1:269">
+      <c r="JJ22" s="1"/>
+    </row>
+    <row r="23" ht="31" spans="1:270">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="1">
         <v>2022</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -8042,36 +8070,37 @@
       <c r="JG23" s="1"/>
       <c r="JH23" s="1"/>
       <c r="JI23" s="1"/>
-    </row>
-    <row r="24" ht="31" spans="1:269">
+      <c r="JJ23" s="1"/>
+    </row>
+    <row r="24" ht="31" spans="1:270">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1">
         <v>2020</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -8331,36 +8360,37 @@
       <c r="JG24" s="1"/>
       <c r="JH24" s="1"/>
       <c r="JI24" s="1"/>
-    </row>
-    <row r="25" ht="31" spans="1:269">
+      <c r="JJ24" s="1"/>
+    </row>
+    <row r="25" ht="31" spans="1:270">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="1">
         <v>2023</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -8620,36 +8650,37 @@
       <c r="JG25" s="1"/>
       <c r="JH25" s="1"/>
       <c r="JI25" s="1"/>
-    </row>
-    <row r="26" ht="31" spans="1:269">
+      <c r="JJ25" s="1"/>
+    </row>
+    <row r="26" ht="31" spans="1:270">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="1">
         <v>2021</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -8909,36 +8940,37 @@
       <c r="JG26" s="1"/>
       <c r="JH26" s="1"/>
       <c r="JI26" s="1"/>
-    </row>
-    <row r="27" ht="15.5" spans="1:269">
+      <c r="JJ26" s="1"/>
+    </row>
+    <row r="27" ht="15.5" spans="1:270">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="1">
         <v>2023</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -9198,36 +9230,37 @@
       <c r="JG27" s="1"/>
       <c r="JH27" s="1"/>
       <c r="JI27" s="1"/>
-    </row>
-    <row r="28" ht="31" spans="1:269">
+      <c r="JJ27" s="1"/>
+    </row>
+    <row r="28" ht="31" spans="1:270">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2024</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -9487,36 +9520,37 @@
       <c r="JG28" s="1"/>
       <c r="JH28" s="1"/>
       <c r="JI28" s="1"/>
-    </row>
-    <row r="29" ht="31" spans="1:269">
+      <c r="JJ28" s="1"/>
+    </row>
+    <row r="29" ht="31" spans="1:270">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="1">
         <v>2024</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -9776,20 +9810,21 @@
       <c r="JG29" s="1"/>
       <c r="JH29" s="1"/>
       <c r="JI29" s="1"/>
-    </row>
-    <row r="30" ht="15.5" spans="1:269">
+      <c r="JJ29" s="1"/>
+    </row>
+    <row r="30" ht="15.5" spans="1:270">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -10049,26 +10084,27 @@
       <c r="JG30" s="1"/>
       <c r="JH30" s="1"/>
       <c r="JI30" s="1"/>
-    </row>
-    <row r="31" ht="31" spans="1:269">
+      <c r="JJ30" s="1"/>
+    </row>
+    <row r="31" ht="31" spans="1:270">
       <c r="A31" s="1"/>
-      <c r="B31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -10328,14 +10364,15 @@
       <c r="JG31" s="1"/>
       <c r="JH31" s="1"/>
       <c r="JI31" s="1"/>
-    </row>
-    <row r="32" ht="15.5" spans="1:269">
+      <c r="JJ31" s="1"/>
+    </row>
+    <row r="32" ht="15.5" spans="1:270">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10599,32 +10636,33 @@
       <c r="JG32" s="1"/>
       <c r="JH32" s="1"/>
       <c r="JI32" s="1"/>
-    </row>
-    <row r="33" ht="31" spans="1:269">
+      <c r="JJ32" s="1"/>
+    </row>
+    <row r="33" ht="31" spans="1:270">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="F33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="1">
         <v>2024</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -10884,32 +10922,33 @@
       <c r="JG33" s="1"/>
       <c r="JH33" s="1"/>
       <c r="JI33" s="1"/>
-    </row>
-    <row r="34" ht="31" spans="1:269">
+      <c r="JJ33" s="1"/>
+    </row>
+    <row r="34" ht="31" spans="1:270">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2024</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2024</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -11169,12 +11208,13 @@
       <c r="JG34" s="1"/>
       <c r="JH34" s="1"/>
       <c r="JI34" s="1"/>
-    </row>
-    <row r="35" ht="15.5" spans="1:269">
+      <c r="JJ34" s="1"/>
+    </row>
+    <row r="35" ht="15.5" spans="1:270">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -11440,12 +11480,13 @@
       <c r="JG35" s="1"/>
       <c r="JH35" s="1"/>
       <c r="JI35" s="1"/>
-    </row>
-    <row r="36" ht="15.5" spans="1:269">
+      <c r="JJ35" s="1"/>
+    </row>
+    <row r="36" ht="15.5" spans="1:270">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -11711,12 +11752,13 @@
       <c r="JG36" s="1"/>
       <c r="JH36" s="1"/>
       <c r="JI36" s="1"/>
-    </row>
-    <row r="37" ht="15.5" spans="1:269">
+      <c r="JJ36" s="1"/>
+    </row>
+    <row r="37" ht="15.5" spans="1:270">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -11982,12 +12024,13 @@
       <c r="JG37" s="1"/>
       <c r="JH37" s="1"/>
       <c r="JI37" s="1"/>
-    </row>
-    <row r="38" ht="15.5" spans="1:269">
+      <c r="JJ37" s="1"/>
+    </row>
+    <row r="38" ht="15.5" spans="1:270">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -12253,12 +12296,13 @@
       <c r="JG38" s="1"/>
       <c r="JH38" s="1"/>
       <c r="JI38" s="1"/>
-    </row>
-    <row r="39" ht="15.5" spans="1:269">
+      <c r="JJ38" s="1"/>
+    </row>
+    <row r="39" ht="15.5" spans="1:270">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -12524,12 +12568,13 @@
       <c r="JG39" s="1"/>
       <c r="JH39" s="1"/>
       <c r="JI39" s="1"/>
-    </row>
-    <row r="40" ht="15.5" spans="1:269">
+      <c r="JJ39" s="1"/>
+    </row>
+    <row r="40" ht="15.5" spans="1:270">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -12795,12 +12840,13 @@
       <c r="JG40" s="1"/>
       <c r="JH40" s="1"/>
       <c r="JI40" s="1"/>
-    </row>
-    <row r="41" ht="15.5" spans="1:269">
+      <c r="JJ40" s="1"/>
+    </row>
+    <row r="41" ht="15.5" spans="1:270">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -13066,12 +13112,13 @@
       <c r="JG41" s="1"/>
       <c r="JH41" s="1"/>
       <c r="JI41" s="1"/>
-    </row>
-    <row r="42" ht="15.5" spans="1:269">
+      <c r="JJ41" s="1"/>
+    </row>
+    <row r="42" ht="15.5" spans="1:270">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -13337,12 +13384,13 @@
       <c r="JG42" s="1"/>
       <c r="JH42" s="1"/>
       <c r="JI42" s="1"/>
-    </row>
-    <row r="43" ht="15.5" spans="1:269">
+      <c r="JJ42" s="1"/>
+    </row>
+    <row r="43" ht="15.5" spans="1:270">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -13608,12 +13656,13 @@
       <c r="JG43" s="1"/>
       <c r="JH43" s="1"/>
       <c r="JI43" s="1"/>
-    </row>
-    <row r="44" ht="15.5" spans="1:269">
+      <c r="JJ43" s="1"/>
+    </row>
+    <row r="44" ht="15.5" spans="1:270">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -13879,12 +13928,13 @@
       <c r="JG44" s="1"/>
       <c r="JH44" s="1"/>
       <c r="JI44" s="1"/>
-    </row>
-    <row r="45" ht="15.5" spans="1:269">
+      <c r="JJ44" s="1"/>
+    </row>
+    <row r="45" ht="15.5" spans="1:270">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -14150,8 +14200,9 @@
       <c r="JG45" s="1"/>
       <c r="JH45" s="1"/>
       <c r="JI45" s="1"/>
-    </row>
-    <row r="46" ht="15.5" spans="1:8">
+      <c r="JJ45" s="1"/>
+    </row>
+    <row r="46" ht="15.5" spans="1:9">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -14160,34 +14211,35 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H29" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I29" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
-    <hyperlink ref="E2" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId4" display="gaoxp@shnu.edu.cn."/>
-    <hyperlink ref="E9" r:id="rId5" display="schaefers@uni-trier.de"/>
-    <hyperlink ref="E10" r:id="rId6" display="mateusz.wozniak@monash.edu"/>
-    <hyperlink ref="E6" r:id="rId7" display="skumar@brookes.ac.uk"/>
-    <hyperlink ref="E11" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
-    <hyperlink ref="E12" r:id="rId9" display="mayanna@post.bgu.ac.il"/>
-    <hyperlink ref="E13" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de"/>
-    <hyperlink ref="E17" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="E25" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
-    <hyperlink ref="E27" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
-    <hyperlink ref="E28" r:id="rId13" display="lfuentes@um.es"/>
-    <hyperlink ref="E31" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
-    <hyperlink ref="E21" r:id="rId15" display="wentura@mx.uni-saarland.de"/>
-    <hyperlink ref="E33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
-    <hyperlink ref="E34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
+    <hyperlink ref="I29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="F2" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="F7" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="F8" r:id="rId4" display="gaoxp@shnu.edu.cn."/>
+    <hyperlink ref="F9" r:id="rId5" display="schaefers@uni-trier.de"/>
+    <hyperlink ref="F10" r:id="rId6" display="mateusz.wozniak@monash.edu"/>
+    <hyperlink ref="F6" r:id="rId7" display="skumar@brookes.ac.uk"/>
+    <hyperlink ref="F11" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
+    <hyperlink ref="F12" r:id="rId9" display="mayanna@post.bgu.ac.il"/>
+    <hyperlink ref="F13" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de"/>
+    <hyperlink ref="F17" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="F25" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
+    <hyperlink ref="F27" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
+    <hyperlink ref="F28" r:id="rId13" display="lfuentes@um.es"/>
+    <hyperlink ref="F31" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
+    <hyperlink ref="F21" r:id="rId15" display="wentura@mx.uni-saarland.de"/>
+    <hyperlink ref="F33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
+    <hyperlink ref="F34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14214,39 +14266,39 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H2" s="1">
         <v>2019</v>
@@ -14254,19 +14306,19 @@
     </row>
     <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3">
         <v>2020</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1">
         <v>2019</v>
@@ -14274,19 +14326,19 @@
     </row>
     <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1">
         <v>2019</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E4" s="3">
         <v>2020</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H4" s="1">
         <v>2019</v>
@@ -14294,19 +14346,19 @@
     </row>
     <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H5" s="1">
         <v>2019</v>
@@ -14314,19 +14366,19 @@
     </row>
     <row r="6" ht="15.5" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H6" s="1">
         <v>2020</v>
@@ -14334,19 +14386,19 @@
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H7" s="1">
         <v>2020</v>
@@ -14354,19 +14406,19 @@
     </row>
     <row r="8" ht="15.5" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H8" s="1">
         <v>2020</v>
@@ -14374,19 +14426,19 @@
     </row>
     <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
@@ -14394,19 +14446,19 @@
     </row>
     <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
@@ -14414,19 +14466,19 @@
     </row>
     <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
@@ -14434,19 +14486,19 @@
     </row>
     <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
@@ -14454,19 +14506,19 @@
     </row>
     <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
@@ -14474,19 +14526,19 @@
     </row>
     <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
@@ -14494,19 +14546,19 @@
     </row>
     <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
@@ -14514,19 +14566,19 @@
     </row>
     <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
@@ -14534,19 +14586,19 @@
     </row>
     <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
@@ -14554,19 +14606,19 @@
     </row>
     <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
@@ -14574,19 +14626,19 @@
     </row>
     <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
@@ -14594,19 +14646,19 @@
     </row>
     <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
@@ -14614,19 +14666,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -14634,19 +14686,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -14654,19 +14706,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -14674,19 +14726,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -14694,19 +14746,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -14714,19 +14766,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -14734,13 +14786,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -14748,13 +14800,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -14762,13 +14814,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -14776,13 +14828,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -14790,13 +14842,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -14804,13 +14856,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -14818,13 +14870,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -14832,13 +14884,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -14846,13 +14898,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -14860,13 +14912,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -14874,13 +14926,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -14888,13 +14940,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -14902,13 +14954,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -14916,13 +14968,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -14930,13 +14982,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -14944,13 +14996,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -14958,13 +15010,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -14972,13 +15024,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -14986,13 +15038,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -15000,13 +15052,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -15014,13 +15066,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -15028,13 +15080,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -15042,13 +15094,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -15056,13 +15108,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -15070,13 +15122,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -15084,13 +15136,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>
@@ -15222,21 +15274,21 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1">
         <v>96</v>
@@ -15250,7 +15302,7 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1">
         <v>96</v>
@@ -15264,7 +15316,7 @@
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1">
         <v>96</v>
@@ -15278,7 +15330,7 @@
     </row>
     <row r="5" ht="15.5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
@@ -15292,7 +15344,7 @@
     </row>
     <row r="6" ht="15.5" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1">
         <v>240</v>
@@ -15306,7 +15358,7 @@
     </row>
     <row r="7" ht="15.5" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1">
         <v>312</v>
@@ -15320,7 +15372,7 @@
     </row>
     <row r="8" ht="15.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -15334,7 +15386,7 @@
     </row>
     <row r="9" ht="15.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
@@ -15348,7 +15400,7 @@
     </row>
     <row r="10" ht="15.5" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1">
         <v>192</v>
@@ -15362,7 +15414,7 @@
     </row>
     <row r="11" ht="15.5" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1">
         <v>144</v>
@@ -15376,7 +15428,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -15390,7 +15442,7 @@
     </row>
     <row r="13" ht="15.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -15404,7 +15456,7 @@
     </row>
     <row r="14" ht="15.5" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1">
         <v>672</v>
@@ -15418,7 +15470,7 @@
     </row>
     <row r="15" ht="15.5" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" s="1">
         <v>672</v>
@@ -15432,7 +15484,7 @@
     </row>
     <row r="16" ht="15.5" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -15446,7 +15498,7 @@
     </row>
     <row r="17" ht="15.5" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" s="1">
         <v>360</v>
@@ -15460,7 +15512,7 @@
     </row>
     <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" s="1">
         <v>360</v>
@@ -15474,7 +15526,7 @@
     </row>
     <row r="19" ht="15.5" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1">
         <v>360</v>
@@ -15488,7 +15540,7 @@
     </row>
     <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
@@ -15502,7 +15554,7 @@
     </row>
     <row r="21" ht="15.5" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1">
         <v>360</v>
@@ -15516,7 +15568,7 @@
     </row>
     <row r="22" ht="15.5" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" s="1">
         <v>128</v>
@@ -15530,7 +15582,7 @@
     </row>
     <row r="23" ht="15.5" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="1">
         <v>240</v>
@@ -15544,7 +15596,7 @@
     </row>
     <row r="24" ht="15.5" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" s="1">
         <v>240</v>
@@ -15558,7 +15610,7 @@
     </row>
     <row r="25" ht="15.5" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" s="1">
         <v>200</v>
@@ -15572,7 +15624,7 @@
     </row>
     <row r="26" ht="15.5" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1">
         <v>400</v>
@@ -15586,7 +15638,7 @@
     </row>
     <row r="27" ht="15.5" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1">
         <v>400</v>
@@ -15600,7 +15652,7 @@
     </row>
     <row r="28" ht="15.5" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" s="1">
         <v>360</v>
@@ -15614,7 +15666,7 @@
     </row>
     <row r="29" ht="15.5" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" s="1">
         <v>64</v>
@@ -15628,7 +15680,7 @@
     </row>
     <row r="30" ht="15.5" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" s="1">
         <v>90</v>
@@ -15642,7 +15694,7 @@
     </row>
     <row r="31" ht="15.5" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31" s="1">
         <v>40</v>
@@ -15656,7 +15708,7 @@
     </row>
     <row r="32" ht="15.5" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" s="1">
         <v>40</v>
@@ -15670,7 +15722,7 @@
     </row>
     <row r="33" ht="15.5" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" s="1">
         <v>40</v>
@@ -15684,7 +15736,7 @@
     </row>
     <row r="34" ht="15.5" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1">
         <v>60</v>
@@ -15698,7 +15750,7 @@
     </row>
     <row r="35" ht="15.5" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" s="1">
         <v>60</v>
@@ -15712,7 +15764,7 @@
     </row>
     <row r="36" ht="15.5" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B36" s="1">
         <v>60</v>
@@ -15726,7 +15778,7 @@
     </row>
     <row r="37" ht="15.5" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" s="1">
         <v>60</v>
@@ -15740,7 +15792,7 @@
     </row>
     <row r="38" ht="15.5" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1">
         <v>240</v>
@@ -15754,7 +15806,7 @@
     </row>
     <row r="39" ht="15.5" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" s="1">
         <v>60</v>
@@ -15768,7 +15820,7 @@
     </row>
     <row r="40" ht="15.5" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" s="1">
         <v>360</v>
@@ -15782,7 +15834,7 @@
     </row>
     <row r="41" ht="15.5" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" s="1">
         <v>300</v>
@@ -15796,7 +15848,7 @@
     </row>
     <row r="42" ht="15.5" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" s="1">
         <v>240</v>
@@ -15810,7 +15862,7 @@
     </row>
     <row r="43" ht="15.5" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1">
         <v>240</v>
@@ -15824,7 +15876,7 @@
     </row>
     <row r="44" ht="15.5" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B44" s="1">
         <v>360</v>
@@ -15838,7 +15890,7 @@
     </row>
     <row r="45" ht="15.5" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B45" s="1">
         <v>360</v>
@@ -15852,7 +15904,7 @@
     </row>
     <row r="46" ht="15.5" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1">
         <v>360</v>
@@ -15866,7 +15918,7 @@
     </row>
     <row r="47" ht="15.5" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1">
         <v>360</v>
@@ -15880,7 +15932,7 @@
     </row>
     <row r="48" ht="15.5" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1">
         <v>96</v>
@@ -15894,7 +15946,7 @@
     </row>
     <row r="49" ht="15.5" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49" s="1">
         <v>320</v>
@@ -15908,7 +15960,7 @@
     </row>
     <row r="50" ht="15.5" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="1">
         <v>960</v>
@@ -15922,7 +15974,7 @@
     </row>
     <row r="51" ht="15.5" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" s="1">
         <v>240</v>
@@ -15936,7 +15988,7 @@
     </row>
     <row r="52" ht="15.5" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" s="1">
         <v>360</v>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19490" windowHeight="10510"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="185">
   <si>
     <t>ID</t>
   </si>
@@ -473,6 +473,18 @@
   </si>
   <si>
     <t>mario.dalmaso@unipd.it</t>
+  </si>
+  <si>
+    <t>Expanding and Retracting From the Self: Gains and Costs in Switching Self-Associations</t>
+  </si>
+  <si>
+    <t>jie.sui@psy.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>Haixu Wang</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Psychology:Human Perception and Performance</t>
   </si>
   <si>
     <t>Paper</t>
@@ -1644,10 +1656,10 @@
   <sheetPr/>
   <dimension ref="A1:JJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -11210,17 +11222,31 @@
       <c r="JI34" s="1"/>
       <c r="JJ34" s="1"/>
     </row>
-    <row r="35" ht="15.5" spans="1:270">
+    <row r="35" ht="31" spans="1:270">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="D35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -14240,6 +14266,7 @@
     <hyperlink ref="F21" r:id="rId15" display="wentura@mx.uni-saarland.de"/>
     <hyperlink ref="F33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
     <hyperlink ref="F34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
+    <hyperlink ref="F35" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14266,19 +14293,19 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -14286,19 +14313,19 @@
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H2" s="1">
         <v>2019</v>
@@ -14306,19 +14333,19 @@
     </row>
     <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E3" s="3">
         <v>2020</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H3" s="1">
         <v>2019</v>
@@ -14326,19 +14353,19 @@
     </row>
     <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1">
         <v>2019</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3">
         <v>2020</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H4" s="1">
         <v>2019</v>
@@ -14346,19 +14373,19 @@
     </row>
     <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H5" s="1">
         <v>2019</v>
@@ -14366,19 +14393,19 @@
     </row>
     <row r="6" ht="15.5" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E6" s="3">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H6" s="1">
         <v>2020</v>
@@ -14386,19 +14413,19 @@
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1">
         <v>2020</v>
@@ -14406,19 +14433,19 @@
     </row>
     <row r="8" ht="15.5" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E8" s="3">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H8" s="1">
         <v>2020</v>
@@ -14426,19 +14453,19 @@
     </row>
     <row r="9" ht="15.5" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H9" s="1">
         <v>2021</v>
@@ -14446,19 +14473,19 @@
     </row>
     <row r="10" ht="15.5" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3">
         <v>2021</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H10" s="1">
         <v>2020</v>
@@ -14466,19 +14493,19 @@
     </row>
     <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E11" s="3">
         <v>2022</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H11" s="1">
         <v>2020</v>
@@ -14486,19 +14513,19 @@
     </row>
     <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E12" s="3">
         <v>2021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H12" s="1">
         <v>2020</v>
@@ -14506,19 +14533,19 @@
     </row>
     <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1">
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E13" s="3">
         <v>2023</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H13" s="1">
         <v>2019</v>
@@ -14526,19 +14553,19 @@
     </row>
     <row r="14" ht="15.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B14" s="1">
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E14" s="3">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H14" s="1">
         <v>2019</v>
@@ -14546,19 +14573,19 @@
     </row>
     <row r="15" ht="15.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E15" s="3">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H15" s="1">
         <v>2018</v>
@@ -14566,19 +14593,19 @@
     </row>
     <row r="16" ht="15.5" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E16" s="3">
         <v>2015</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H16" s="1">
         <v>2018</v>
@@ -14586,19 +14613,19 @@
     </row>
     <row r="17" ht="15.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1">
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E17" s="3">
         <v>2014</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H17" s="1">
         <v>2021</v>
@@ -14606,19 +14633,19 @@
     </row>
     <row r="18" ht="15.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E18" s="3">
         <v>2023</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H18" s="1">
         <v>2021</v>
@@ -14626,19 +14653,19 @@
     </row>
     <row r="19" ht="15.5" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E19" s="3">
         <v>2023</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H19" s="1">
         <v>2021</v>
@@ -14646,19 +14673,19 @@
     </row>
     <row r="20" ht="15.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E20" s="3">
         <v>2021</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H20" s="1">
         <v>2021</v>
@@ -14666,19 +14693,19 @@
     </row>
     <row r="21" ht="15.5" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E21" s="3">
         <v>2023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -14686,19 +14713,19 @@
     </row>
     <row r="22" ht="15.5" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E22" s="3">
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H22" s="1">
         <v>2022</v>
@@ -14706,19 +14733,19 @@
     </row>
     <row r="23" ht="15.5" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B23" s="1">
         <v>2022</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E23" s="3">
         <v>2022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H23" s="1">
         <v>2022</v>
@@ -14726,19 +14753,19 @@
     </row>
     <row r="24" ht="15.5" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E24" s="3">
         <v>2020</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H24" s="1">
         <v>2021</v>
@@ -14746,19 +14773,19 @@
     </row>
     <row r="25" ht="15.5" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E25" s="3">
         <v>2023</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H25" s="1">
         <v>2023</v>
@@ -14766,19 +14793,19 @@
     </row>
     <row r="26" ht="15.5" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H26" s="1">
         <v>2023</v>
@@ -14786,13 +14813,13 @@
     </row>
     <row r="27" ht="15.5" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1">
         <v>2014</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H27" s="1">
         <v>2014</v>
@@ -14800,13 +14827,13 @@
     </row>
     <row r="28" ht="15.5" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1">
         <v>2015</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H28" s="1">
         <v>2015</v>
@@ -14814,13 +14841,13 @@
     </row>
     <row r="29" ht="15.5" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B29" s="1">
         <v>2015</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H29" s="1">
         <v>2015</v>
@@ -14828,13 +14855,13 @@
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B30" s="1">
         <v>2014</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H30" s="1">
         <v>2014</v>
@@ -14842,13 +14869,13 @@
     </row>
     <row r="31" ht="15.5" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B31" s="1">
         <v>2014</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H31" s="1">
         <v>2014</v>
@@ -14856,13 +14883,13 @@
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B32" s="1">
         <v>2014</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H32" s="1">
         <v>2014</v>
@@ -14870,13 +14897,13 @@
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H33" s="1">
         <v>2014</v>
@@ -14884,13 +14911,13 @@
     </row>
     <row r="34" ht="15.5" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H34" s="1">
         <v>2023</v>
@@ -14898,13 +14925,13 @@
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H35" s="1">
         <v>2023</v>
@@ -14912,13 +14939,13 @@
     </row>
     <row r="36" ht="15.5" hidden="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H36" s="1">
         <v>2021</v>
@@ -14926,13 +14953,13 @@
     </row>
     <row r="37" ht="15.5" hidden="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H37" s="1">
         <v>2023</v>
@@ -14940,13 +14967,13 @@
     </row>
     <row r="38" ht="15.5" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1">
         <v>2022</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H38" s="1">
         <v>2022</v>
@@ -14954,13 +14981,13 @@
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B39" s="1">
         <v>2022</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H39" s="1">
         <v>2022</v>
@@ -14968,13 +14995,13 @@
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B40" s="1">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H40" s="1">
         <v>2022</v>
@@ -14982,13 +15009,13 @@
     </row>
     <row r="41" ht="15.5" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H41" s="1">
         <v>2020</v>
@@ -14996,13 +15023,13 @@
     </row>
     <row r="42" ht="15.5" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B42" s="1">
         <v>2020</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H42" s="1">
         <v>2020</v>
@@ -15010,13 +15037,13 @@
     </row>
     <row r="43" ht="15.5" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1">
         <v>2020</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H43" s="1">
         <v>2020</v>
@@ -15024,13 +15051,13 @@
     </row>
     <row r="44" ht="15.5" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1">
         <v>2023</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H44" s="1">
         <v>2023</v>
@@ -15038,13 +15065,13 @@
     </row>
     <row r="45" ht="15.5" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H45" s="1">
         <v>2023</v>
@@ -15052,13 +15079,13 @@
     </row>
     <row r="46" ht="15.5" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B46" s="1">
         <v>2023</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H46" s="1">
         <v>2023</v>
@@ -15066,13 +15093,13 @@
     </row>
     <row r="47" ht="15.5" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H47" s="1">
         <v>2021</v>
@@ -15080,13 +15107,13 @@
     </row>
     <row r="48" ht="15.5" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H48" s="1">
         <v>2021</v>
@@ -15094,13 +15121,13 @@
     </row>
     <row r="49" ht="15.5" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H49" s="1">
         <v>2021</v>
@@ -15108,13 +15135,13 @@
     </row>
     <row r="50" ht="15.5" hidden="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B50" s="1">
         <v>2023</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H50" s="1">
         <v>2023</v>
@@ -15122,13 +15149,13 @@
     </row>
     <row r="51" ht="15.5" hidden="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B51" s="1">
         <v>2024</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H51" s="1">
         <v>2024</v>
@@ -15136,13 +15163,13 @@
     </row>
     <row r="52" ht="15.5" hidden="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B52" s="1">
         <v>2024</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H52" s="1">
         <v>2024</v>
@@ -15274,13 +15301,13 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -15288,7 +15315,7 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1">
         <v>96</v>
@@ -15302,7 +15329,7 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1">
         <v>96</v>
@@ -15316,7 +15343,7 @@
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1">
         <v>96</v>
@@ -15330,7 +15357,7 @@
     </row>
     <row r="5" ht="15.5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
@@ -15344,7 +15371,7 @@
     </row>
     <row r="6" ht="15.5" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>240</v>
@@ -15358,7 +15385,7 @@
     </row>
     <row r="7" ht="15.5" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1">
         <v>312</v>
@@ -15372,7 +15399,7 @@
     </row>
     <row r="8" ht="15.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -15386,7 +15413,7 @@
     </row>
     <row r="9" ht="15.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
@@ -15400,7 +15427,7 @@
     </row>
     <row r="10" ht="15.5" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1">
         <v>192</v>
@@ -15414,7 +15441,7 @@
     </row>
     <row r="11" ht="15.5" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1">
         <v>144</v>
@@ -15428,7 +15455,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -15442,7 +15469,7 @@
     </row>
     <row r="13" ht="15.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1">
         <v>144</v>
@@ -15456,7 +15483,7 @@
     </row>
     <row r="14" ht="15.5" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1">
         <v>672</v>
@@ -15470,7 +15497,7 @@
     </row>
     <row r="15" ht="15.5" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1">
         <v>672</v>
@@ -15484,7 +15511,7 @@
     </row>
     <row r="16" ht="15.5" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -15498,7 +15525,7 @@
     </row>
     <row r="17" ht="15.5" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1">
         <v>360</v>
@@ -15512,7 +15539,7 @@
     </row>
     <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B18" s="1">
         <v>360</v>
@@ -15526,7 +15553,7 @@
     </row>
     <row r="19" ht="15.5" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1">
         <v>360</v>
@@ -15540,7 +15567,7 @@
     </row>
     <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
@@ -15554,7 +15581,7 @@
     </row>
     <row r="21" ht="15.5" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B21" s="1">
         <v>360</v>
@@ -15568,7 +15595,7 @@
     </row>
     <row r="22" ht="15.5" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B22" s="1">
         <v>128</v>
@@ -15582,7 +15609,7 @@
     </row>
     <row r="23" ht="15.5" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B23" s="1">
         <v>240</v>
@@ -15596,7 +15623,7 @@
     </row>
     <row r="24" ht="15.5" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B24" s="1">
         <v>240</v>
@@ -15610,7 +15637,7 @@
     </row>
     <row r="25" ht="15.5" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B25" s="1">
         <v>200</v>
@@ -15624,7 +15651,7 @@
     </row>
     <row r="26" ht="15.5" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1">
         <v>400</v>
@@ -15638,7 +15665,7 @@
     </row>
     <row r="27" ht="15.5" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1">
         <v>400</v>
@@ -15652,7 +15679,7 @@
     </row>
     <row r="28" ht="15.5" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B28" s="1">
         <v>360</v>
@@ -15666,7 +15693,7 @@
     </row>
     <row r="29" ht="15.5" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1">
         <v>64</v>
@@ -15680,7 +15707,7 @@
     </row>
     <row r="30" ht="15.5" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1">
         <v>90</v>
@@ -15694,7 +15721,7 @@
     </row>
     <row r="31" ht="15.5" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1">
         <v>40</v>
@@ -15708,7 +15735,7 @@
     </row>
     <row r="32" ht="15.5" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1">
         <v>40</v>
@@ -15722,7 +15749,7 @@
     </row>
     <row r="33" ht="15.5" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B33" s="1">
         <v>40</v>
@@ -15736,7 +15763,7 @@
     </row>
     <row r="34" ht="15.5" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1">
         <v>60</v>
@@ -15750,7 +15777,7 @@
     </row>
     <row r="35" ht="15.5" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B35" s="1">
         <v>60</v>
@@ -15764,7 +15791,7 @@
     </row>
     <row r="36" ht="15.5" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B36" s="1">
         <v>60</v>
@@ -15778,7 +15805,7 @@
     </row>
     <row r="37" ht="15.5" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B37" s="1">
         <v>60</v>
@@ -15792,7 +15819,7 @@
     </row>
     <row r="38" ht="15.5" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1">
         <v>240</v>
@@ -15806,7 +15833,7 @@
     </row>
     <row r="39" ht="15.5" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B39" s="1">
         <v>60</v>
@@ -15820,7 +15847,7 @@
     </row>
     <row r="40" ht="15.5" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B40" s="1">
         <v>360</v>
@@ -15834,7 +15861,7 @@
     </row>
     <row r="41" ht="15.5" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B41" s="1">
         <v>300</v>
@@ -15848,7 +15875,7 @@
     </row>
     <row r="42" ht="15.5" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1">
         <v>240</v>
@@ -15862,7 +15889,7 @@
     </row>
     <row r="43" ht="15.5" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1">
         <v>240</v>
@@ -15876,7 +15903,7 @@
     </row>
     <row r="44" ht="15.5" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B44" s="1">
         <v>360</v>
@@ -15890,7 +15917,7 @@
     </row>
     <row r="45" ht="15.5" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B45" s="1">
         <v>360</v>
@@ -15904,7 +15931,7 @@
     </row>
     <row r="46" ht="15.5" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B46" s="1">
         <v>360</v>
@@ -15918,7 +15945,7 @@
     </row>
     <row r="47" ht="15.5" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B47" s="1">
         <v>360</v>
@@ -15932,7 +15959,7 @@
     </row>
     <row r="48" ht="15.5" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B48" s="1">
         <v>96</v>
@@ -15946,7 +15973,7 @@
     </row>
     <row r="49" ht="15.5" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1">
         <v>320</v>
@@ -15960,7 +15987,7 @@
     </row>
     <row r="50" ht="15.5" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B50" s="1">
         <v>960</v>
@@ -15974,7 +16001,7 @@
     </row>
     <row r="51" ht="15.5" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B51" s="1">
         <v>240</v>
@@ -15988,7 +16015,7 @@
     </row>
     <row r="52" ht="15.5" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B52" s="1">
         <v>360</v>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T3/Dell5510/HCP_cloud/My_Lab/Projects/SPE_Database/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6EDE7E-F79B-F247-AC4C-0898EB5EA72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView xWindow="28800" yWindow="-1700" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -595,18 +601,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -614,29 +614,29 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -656,128 +656,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,192 +666,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -979,260 +679,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1267,63 +719,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1338,19 +743,22 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00CCE4F1"/>
+      <color rgb="FFCCE4F1"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -1366,13 +774,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1648,35 +1062,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="I36" sqref="I36"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="52.0833333333333" customWidth="1"/>
-    <col min="5" max="5" width="24.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="40.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4166666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="67.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="27.25" customWidth="1"/>
+    <col min="9" max="9" width="65.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:10">
+    <row r="1" spans="1:270" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,11 +1117,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:270">
+    <row r="2" spans="1:270" ht="17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1998,7 +1411,7 @@
       <c r="JI2" s="1"/>
       <c r="JJ2" s="1"/>
     </row>
-    <row r="3" ht="31" spans="1:270">
+    <row r="3" spans="1:270" ht="34">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2024,7 +1437,7 @@
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="1"/>
@@ -2288,7 +1701,7 @@
       <c r="JI3" s="1"/>
       <c r="JJ3" s="1"/>
     </row>
-    <row r="4" ht="31" spans="1:270">
+    <row r="4" spans="1:270" ht="34">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2296,7 +1709,7 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2578,7 +1991,7 @@
       <c r="JI4" s="1"/>
       <c r="JJ4" s="1"/>
     </row>
-    <row r="5" ht="46.5" spans="1:270">
+    <row r="5" spans="1:270" ht="51">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2868,7 +2281,7 @@
       <c r="JI5" s="1"/>
       <c r="JJ5" s="1"/>
     </row>
-    <row r="6" ht="31" spans="1:270">
+    <row r="6" spans="1:270" ht="34">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3158,7 +2571,7 @@
       <c r="JI6" s="1"/>
       <c r="JJ6" s="1"/>
     </row>
-    <row r="7" ht="31" spans="1:270">
+    <row r="7" spans="1:270" ht="34">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3448,7 +2861,7 @@
       <c r="JI7" s="1"/>
       <c r="JJ7" s="1"/>
     </row>
-    <row r="8" ht="31" spans="1:270">
+    <row r="8" spans="1:270" ht="34">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3738,7 +3151,7 @@
       <c r="JI8" s="1"/>
       <c r="JJ8" s="1"/>
     </row>
-    <row r="9" ht="31" spans="1:270">
+    <row r="9" spans="1:270" ht="34">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4028,7 +3441,7 @@
       <c r="JI9" s="1"/>
       <c r="JJ9" s="1"/>
     </row>
-    <row r="10" ht="15.5" spans="1:270">
+    <row r="10" spans="1:270" ht="17">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4318,7 +3731,7 @@
       <c r="JI10" s="1"/>
       <c r="JJ10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:270">
+    <row r="11" spans="1:270" ht="17">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4608,7 +4021,7 @@
       <c r="JI11" s="1"/>
       <c r="JJ11" s="1"/>
     </row>
-    <row r="12" ht="31" spans="1:270">
+    <row r="12" spans="1:270" ht="34">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4896,7 +4309,7 @@
       <c r="JI12" s="1"/>
       <c r="JJ12" s="1"/>
     </row>
-    <row r="13" ht="31" spans="1:270">
+    <row r="13" spans="1:270" ht="34">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5186,7 +4599,7 @@
       <c r="JI13" s="1"/>
       <c r="JJ13" s="1"/>
     </row>
-    <row r="14" ht="31" spans="1:270">
+    <row r="14" spans="1:270" ht="34">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5476,7 +4889,7 @@
       <c r="JI14" s="1"/>
       <c r="JJ14" s="1"/>
     </row>
-    <row r="15" ht="31" spans="1:270">
+    <row r="15" spans="1:270" ht="34">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5766,7 +5179,7 @@
       <c r="JI15" s="1"/>
       <c r="JJ15" s="1"/>
     </row>
-    <row r="16" ht="31" spans="1:270">
+    <row r="16" spans="1:270" ht="34">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6056,7 +5469,7 @@
       <c r="JI16" s="1"/>
       <c r="JJ16" s="1"/>
     </row>
-    <row r="17" ht="31" spans="1:270">
+    <row r="17" spans="1:270" ht="17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6064,7 +5477,7 @@
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -6344,7 +5757,7 @@
       <c r="JI17" s="1"/>
       <c r="JJ17" s="1"/>
     </row>
-    <row r="18" ht="31" spans="1:270">
+    <row r="18" spans="1:270" ht="34">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6634,7 +6047,7 @@
       <c r="JI18" s="1"/>
       <c r="JJ18" s="1"/>
     </row>
-    <row r="19" ht="31" spans="1:270">
+    <row r="19" spans="1:270" ht="34">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6924,7 +6337,7 @@
       <c r="JI19" s="1"/>
       <c r="JJ19" s="1"/>
     </row>
-    <row r="20" ht="31" spans="1:270">
+    <row r="20" spans="1:270" ht="34">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7214,7 +6627,7 @@
       <c r="JI20" s="1"/>
       <c r="JJ20" s="1"/>
     </row>
-    <row r="21" ht="31" spans="1:270">
+    <row r="21" spans="1:270" ht="34">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7504,7 +6917,7 @@
       <c r="JI21" s="1"/>
       <c r="JJ21" s="1"/>
     </row>
-    <row r="22" ht="31" spans="1:270">
+    <row r="22" spans="1:270" ht="34">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7794,7 +7207,7 @@
       <c r="JI22" s="1"/>
       <c r="JJ22" s="1"/>
     </row>
-    <row r="23" ht="31" spans="1:270">
+    <row r="23" spans="1:270" ht="34">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8084,7 +7497,7 @@
       <c r="JI23" s="1"/>
       <c r="JJ23" s="1"/>
     </row>
-    <row r="24" ht="31" spans="1:270">
+    <row r="24" spans="1:270" ht="34">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8374,7 +7787,7 @@
       <c r="JI24" s="1"/>
       <c r="JJ24" s="1"/>
     </row>
-    <row r="25" ht="31" spans="1:270">
+    <row r="25" spans="1:270" ht="34">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8664,7 +8077,7 @@
       <c r="JI25" s="1"/>
       <c r="JJ25" s="1"/>
     </row>
-    <row r="26" ht="31" spans="1:270">
+    <row r="26" spans="1:270" ht="34">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8954,7 +8367,7 @@
       <c r="JI26" s="1"/>
       <c r="JJ26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:270">
+    <row r="27" spans="1:270" ht="17">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9244,7 +8657,7 @@
       <c r="JI27" s="1"/>
       <c r="JJ27" s="1"/>
     </row>
-    <row r="28" ht="31" spans="1:270">
+    <row r="28" spans="1:270" ht="34">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9534,7 +8947,7 @@
       <c r="JI28" s="1"/>
       <c r="JJ28" s="1"/>
     </row>
-    <row r="29" ht="31" spans="1:270">
+    <row r="29" spans="1:270" ht="34">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9824,7 +9237,7 @@
       <c r="JI29" s="1"/>
       <c r="JJ29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:270">
+    <row r="30" spans="1:270" ht="16">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10098,7 +9511,7 @@
       <c r="JI30" s="1"/>
       <c r="JJ30" s="1"/>
     </row>
-    <row r="31" ht="31" spans="1:270">
+    <row r="31" spans="1:270" ht="34">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4" t="s">
@@ -10378,7 +9791,7 @@
       <c r="JI31" s="1"/>
       <c r="JJ31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:270">
+    <row r="32" spans="1:270" ht="16">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="4"/>
@@ -10650,7 +10063,7 @@
       <c r="JI32" s="1"/>
       <c r="JJ32" s="1"/>
     </row>
-    <row r="33" ht="31" spans="1:270">
+    <row r="33" spans="1:270" ht="34">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -10936,7 +10349,7 @@
       <c r="JI33" s="1"/>
       <c r="JJ33" s="1"/>
     </row>
-    <row r="34" ht="31" spans="1:270">
+    <row r="34" spans="1:270" ht="34">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11222,7 +10635,7 @@
       <c r="JI34" s="1"/>
       <c r="JJ34" s="1"/>
     </row>
-    <row r="35" ht="31" spans="1:270">
+    <row r="35" spans="1:270" ht="34">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11508,7 +10921,7 @@
       <c r="JI35" s="1"/>
       <c r="JJ35" s="1"/>
     </row>
-    <row r="36" ht="15.5" spans="1:270">
+    <row r="36" spans="1:270" ht="16">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11780,7 +11193,7 @@
       <c r="JI36" s="1"/>
       <c r="JJ36" s="1"/>
     </row>
-    <row r="37" ht="15.5" spans="1:270">
+    <row r="37" spans="1:270" ht="16">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -12052,7 +11465,7 @@
       <c r="JI37" s="1"/>
       <c r="JJ37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:270">
+    <row r="38" spans="1:270" ht="16">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -12324,7 +11737,7 @@
       <c r="JI38" s="1"/>
       <c r="JJ38" s="1"/>
     </row>
-    <row r="39" ht="15.5" spans="1:270">
+    <row r="39" spans="1:270" ht="16">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -12596,7 +12009,7 @@
       <c r="JI39" s="1"/>
       <c r="JJ39" s="1"/>
     </row>
-    <row r="40" ht="15.5" spans="1:270">
+    <row r="40" spans="1:270" ht="16">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -12868,7 +12281,7 @@
       <c r="JI40" s="1"/>
       <c r="JJ40" s="1"/>
     </row>
-    <row r="41" ht="15.5" spans="1:270">
+    <row r="41" spans="1:270" ht="16">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -13140,7 +12553,7 @@
       <c r="JI41" s="1"/>
       <c r="JJ41" s="1"/>
     </row>
-    <row r="42" ht="15.5" spans="1:270">
+    <row r="42" spans="1:270" ht="16">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13412,7 +12825,7 @@
       <c r="JI42" s="1"/>
       <c r="JJ42" s="1"/>
     </row>
-    <row r="43" ht="15.5" spans="1:270">
+    <row r="43" spans="1:270" ht="16">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -13684,7 +13097,7 @@
       <c r="JI43" s="1"/>
       <c r="JJ43" s="1"/>
     </row>
-    <row r="44" ht="15.5" spans="1:270">
+    <row r="44" spans="1:270" ht="16">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -13956,7 +13369,7 @@
       <c r="JI44" s="1"/>
       <c r="JJ44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:270">
+    <row r="45" spans="1:270" ht="16">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -14228,7 +13641,7 @@
       <c r="JI45" s="1"/>
       <c r="JJ45" s="1"/>
     </row>
-    <row r="46" ht="15.5" spans="1:9">
+    <row r="46" spans="1:270" ht="16">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -14240,42 +13653,41 @@
       <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I29" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:I29" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <extLst>
-      <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
+      <etc:autoFilterAnalysis xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" etc:version="v1" etc:showPane="0"/>
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="I29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
-    <hyperlink ref="F2" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="F4" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="F7" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="F8" r:id="rId4" display="gaoxp@shnu.edu.cn."/>
-    <hyperlink ref="F9" r:id="rId5" display="schaefers@uni-trier.de"/>
-    <hyperlink ref="F10" r:id="rId6" display="mateusz.wozniak@monash.edu"/>
-    <hyperlink ref="F6" r:id="rId7" display="skumar@brookes.ac.uk"/>
-    <hyperlink ref="F11" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
-    <hyperlink ref="F12" r:id="rId9" display="mayanna@post.bgu.ac.il"/>
-    <hyperlink ref="F13" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de"/>
-    <hyperlink ref="F17" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="F25" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
-    <hyperlink ref="F27" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
-    <hyperlink ref="F28" r:id="rId13" display="lfuentes@um.es"/>
-    <hyperlink ref="F31" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
-    <hyperlink ref="F21" r:id="rId15" display="wentura@mx.uni-saarland.de"/>
-    <hyperlink ref="F33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
-    <hyperlink ref="F34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
-    <hyperlink ref="F35" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
+    <hyperlink ref="I29" r:id="rId1" tooltip="https://link.springer.com/journal/13415" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F25" r:id="rId14" tooltip="mailto:wf3126@mail.tsinghua.edu.cn" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H68"/>
   <sheetViews>
@@ -14283,15 +13695,15 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.08333333333333" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:8">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
@@ -14311,7 +13723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:8">
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -14331,7 +13743,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:8">
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
@@ -14351,7 +13763,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:8">
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
@@ -14371,7 +13783,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:8">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="1" t="s">
         <v>151</v>
       </c>
@@ -14391,7 +13803,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" ht="15.5" hidden="1" spans="1:8">
+    <row r="6" spans="1:8" ht="16" hidden="1">
       <c r="A6" s="1" t="s">
         <v>152</v>
       </c>
@@ -14411,7 +13823,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" ht="15.5" hidden="1" spans="1:8">
+    <row r="7" spans="1:8" ht="16" hidden="1">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -14431,7 +13843,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" ht="15.5" hidden="1" spans="1:8">
+    <row r="8" spans="1:8" ht="16" hidden="1">
       <c r="A8" s="1" t="s">
         <v>157</v>
       </c>
@@ -14451,7 +13863,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" ht="15.5" hidden="1" spans="1:8">
+    <row r="9" spans="1:8" ht="16" hidden="1">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -14471,7 +13883,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" ht="15.5" hidden="1" spans="1:8">
+    <row r="10" spans="1:8" ht="16" hidden="1">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -14491,7 +13903,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="1:8">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -14511,7 +13923,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" ht="15.5" spans="1:8">
+    <row r="12" spans="1:8" ht="16">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -14531,7 +13943,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" ht="15.5" spans="1:8">
+    <row r="13" spans="1:8" ht="16">
       <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
@@ -14551,7 +13963,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" ht="15.5" spans="1:8">
+    <row r="14" spans="1:8" ht="16">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
@@ -14571,7 +13983,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:8">
+    <row r="15" spans="1:8" ht="16">
       <c r="A15" s="1" t="s">
         <v>158</v>
       </c>
@@ -14591,7 +14003,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="15.5" spans="1:8">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="1" t="s">
         <v>158</v>
       </c>
@@ -14611,7 +14023,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="15.5" hidden="1" spans="1:8">
+    <row r="17" spans="1:8" ht="16" hidden="1">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -14631,7 +14043,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" ht="15.5" spans="1:8">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="1" t="s">
         <v>161</v>
       </c>
@@ -14651,7 +14063,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" ht="15.5" spans="1:8">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="1" t="s">
         <v>161</v>
       </c>
@@ -14671,7 +14083,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" ht="15.5" spans="1:8">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -14691,7 +14103,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" ht="15.5" spans="1:8">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="1" t="s">
         <v>162</v>
       </c>
@@ -14711,7 +14123,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" ht="15.5" spans="1:8">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="1" t="s">
         <v>162</v>
       </c>
@@ -14731,7 +14143,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:8">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
@@ -14751,7 +14163,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" ht="15.5" hidden="1" spans="1:8">
+    <row r="24" spans="1:8" ht="16" hidden="1">
       <c r="A24" s="1" t="s">
         <v>163</v>
       </c>
@@ -14771,7 +14183,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" ht="15.5" hidden="1" spans="1:8">
+    <row r="25" spans="1:8" ht="16" hidden="1">
       <c r="A25" s="1" t="s">
         <v>164</v>
       </c>
@@ -14791,7 +14203,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" ht="15.5" hidden="1" spans="1:8">
+    <row r="26" spans="1:8" ht="16" hidden="1">
       <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
@@ -14811,7 +14223,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" ht="15.5" hidden="1" spans="1:8">
+    <row r="27" spans="1:8" ht="16" hidden="1">
       <c r="A27" s="1" t="s">
         <v>166</v>
       </c>
@@ -14825,7 +14237,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" ht="15.5" spans="1:8">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="1" t="s">
         <v>167</v>
       </c>
@@ -14839,7 +14251,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" ht="15.5" spans="1:8">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="1" t="s">
         <v>167</v>
       </c>
@@ -14853,7 +14265,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" ht="15.5" spans="1:8">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="1" t="s">
         <v>168</v>
       </c>
@@ -14867,7 +14279,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="31" ht="15.5" spans="1:8">
+    <row r="31" spans="1:8" ht="16">
       <c r="A31" s="1" t="s">
         <v>168</v>
       </c>
@@ -14881,7 +14293,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" ht="15.5" spans="1:8">
+    <row r="32" spans="1:8" ht="16">
       <c r="A32" s="1" t="s">
         <v>168</v>
       </c>
@@ -14895,7 +14307,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="33" ht="15.5" spans="1:8">
+    <row r="33" spans="1:8" ht="16">
       <c r="A33" s="1" t="s">
         <v>168</v>
       </c>
@@ -14909,7 +14321,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="34" ht="15.5" hidden="1" spans="1:8">
+    <row r="34" spans="1:8" ht="16" hidden="1">
       <c r="A34" s="1" t="s">
         <v>169</v>
       </c>
@@ -14923,7 +14335,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" ht="15.5" hidden="1" spans="1:8">
+    <row r="35" spans="1:8" ht="16" hidden="1">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -14937,7 +14349,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" ht="15.5" hidden="1" spans="1:8">
+    <row r="36" spans="1:8" ht="16" hidden="1">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
@@ -14951,7 +14363,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" ht="15.5" hidden="1" spans="1:8">
+    <row r="37" spans="1:8" ht="16" hidden="1">
       <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
@@ -14965,7 +14377,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" ht="15.5" spans="1:8">
+    <row r="38" spans="1:8" ht="16">
       <c r="A38" s="1" t="s">
         <v>173</v>
       </c>
@@ -14979,7 +14391,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" ht="15.5" spans="1:8">
+    <row r="39" spans="1:8" ht="16">
       <c r="A39" s="1" t="s">
         <v>173</v>
       </c>
@@ -14993,7 +14405,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" ht="15.5" hidden="1" spans="1:8">
+    <row r="40" spans="1:8" ht="16" hidden="1">
       <c r="A40" s="1" t="s">
         <v>174</v>
       </c>
@@ -15007,7 +14419,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" ht="15.5" spans="1:8">
+    <row r="41" spans="1:8" ht="16">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
@@ -15021,7 +14433,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="42" ht="15.5" spans="1:8">
+    <row r="42" spans="1:8" ht="16">
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
@@ -15035,7 +14447,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" ht="15.5" spans="1:8">
+    <row r="43" spans="1:8" ht="16">
       <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
@@ -15049,7 +14461,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" ht="15.5" spans="1:8">
+    <row r="44" spans="1:8" ht="16">
       <c r="A44" s="1" t="s">
         <v>176</v>
       </c>
@@ -15063,7 +14475,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" ht="15.5" spans="1:8">
+    <row r="45" spans="1:8" ht="16">
       <c r="A45" s="1" t="s">
         <v>176</v>
       </c>
@@ -15077,7 +14489,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" ht="15.5" spans="1:8">
+    <row r="46" spans="1:8" ht="16">
       <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
@@ -15091,7 +14503,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" ht="15.5" spans="1:8">
+    <row r="47" spans="1:8" ht="16">
       <c r="A47" s="1" t="s">
         <v>177</v>
       </c>
@@ -15105,7 +14517,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" ht="15.5" spans="1:8">
+    <row r="48" spans="1:8" ht="16">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -15119,7 +14531,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" ht="15.5" spans="1:8">
+    <row r="49" spans="1:8" ht="16">
       <c r="A49" s="1" t="s">
         <v>177</v>
       </c>
@@ -15133,7 +14545,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" ht="15.5" hidden="1" spans="1:8">
+    <row r="50" spans="1:8" ht="16" hidden="1">
       <c r="A50" s="1" t="s">
         <v>179</v>
       </c>
@@ -15147,7 +14559,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" ht="15.5" hidden="1" spans="1:8">
+    <row r="51" spans="1:8" ht="16" hidden="1">
       <c r="A51" s="1" t="s">
         <v>180</v>
       </c>
@@ -15161,7 +14573,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="52" ht="15.5" hidden="1" spans="1:8">
+    <row r="52" spans="1:8" ht="16" hidden="1">
       <c r="A52" s="1" t="s">
         <v>181</v>
       </c>
@@ -15175,131 +14587,128 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="53" ht="15.5" hidden="1" spans="1:8">
+    <row r="53" spans="1:8" ht="16" hidden="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" ht="15.5" hidden="1" spans="1:8">
+    <row r="54" spans="1:8" ht="16" hidden="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" ht="15.5" hidden="1" spans="1:8">
+    <row r="55" spans="1:8" ht="16" hidden="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" ht="15.5" hidden="1" spans="1:8">
+    <row r="56" spans="1:8" ht="16" hidden="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" ht="15.5" hidden="1" spans="1:8">
+    <row r="57" spans="1:8" ht="16" hidden="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" ht="15.5" hidden="1" spans="1:8">
+    <row r="58" spans="1:8" ht="16" hidden="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" ht="15.5" hidden="1" spans="1:8">
+    <row r="59" spans="1:8" ht="16" hidden="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" ht="15.5" hidden="1" spans="1:8">
+    <row r="60" spans="1:8" ht="16" hidden="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" ht="15.5" hidden="1" spans="1:8">
+    <row r="61" spans="1:8" ht="16" hidden="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" ht="15.5" hidden="1" spans="1:8">
+    <row r="62" spans="1:8" ht="16" hidden="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" ht="15.5" hidden="1" spans="1:8">
+    <row r="63" spans="1:8" ht="16" hidden="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" ht="15.5" hidden="1" spans="1:8">
+    <row r="64" spans="1:8" ht="16" hidden="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" ht="15.5" hidden="1" spans="1:8">
+    <row r="65" spans="1:8" ht="16" hidden="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" ht="15.5" hidden="1" spans="1:8">
+    <row r="66" spans="1:8" ht="16" hidden="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" ht="15.5" hidden="1" spans="1:8">
+    <row r="67" spans="1:8" ht="16" hidden="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" ht="15.5" hidden="1" spans="1:8">
+    <row r="68" spans="1:8" ht="16" hidden="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A68" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:A68" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
     </filterColumn>
-    <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A52" sqref="D1:D52 A1:A52"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:4">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
@@ -15313,7 +14722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:4">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -15327,7 +14736,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:4">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
@@ -15341,7 +14750,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:4">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
@@ -15355,7 +14764,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:4">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="1" t="s">
         <v>151</v>
       </c>
@@ -15369,7 +14778,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" ht="15.5" spans="1:4">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="1" t="s">
         <v>152</v>
       </c>
@@ -15383,7 +14792,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" ht="15.5" spans="1:4">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -15397,7 +14806,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" ht="15.5" spans="1:4">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="1" t="s">
         <v>157</v>
       </c>
@@ -15411,7 +14820,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" ht="15.5" spans="1:4">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -15425,7 +14834,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" ht="15.5" spans="1:4">
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -15439,7 +14848,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="1:4">
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -15453,7 +14862,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" ht="15.5" spans="1:4">
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -15467,7 +14876,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" ht="15.5" spans="1:4">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
@@ -15481,7 +14890,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" ht="15.5" spans="1:4">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -15495,7 +14904,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:4">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="1" t="s">
         <v>158</v>
       </c>
@@ -15509,7 +14918,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="15.5" spans="1:4">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -15523,7 +14932,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" ht="15.5" spans="1:4">
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -15537,7 +14946,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" ht="15.5" spans="1:4">
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="1" t="s">
         <v>161</v>
       </c>
@@ -15551,7 +14960,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" ht="15.5" spans="1:4">
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="1" t="s">
         <v>161</v>
       </c>
@@ -15565,7 +14974,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" ht="15.5" spans="1:4">
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -15579,7 +14988,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" ht="15.5" spans="1:4">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="1" t="s">
         <v>161</v>
       </c>
@@ -15593,7 +15002,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" ht="15.5" spans="1:4">
+    <row r="22" spans="1:4" ht="16">
       <c r="A22" s="1" t="s">
         <v>184</v>
       </c>
@@ -15607,7 +15016,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:4">
+    <row r="23" spans="1:4" ht="16">
       <c r="A23" s="1" t="s">
         <v>184</v>
       </c>
@@ -15621,7 +15030,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" ht="15.5" spans="1:4">
+    <row r="24" spans="1:4" ht="16">
       <c r="A24" s="1" t="s">
         <v>184</v>
       </c>
@@ -15635,7 +15044,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" ht="15.5" spans="1:4">
+    <row r="25" spans="1:4" ht="16">
       <c r="A25" s="1" t="s">
         <v>162</v>
       </c>
@@ -15649,7 +15058,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" ht="15.5" spans="1:4">
+    <row r="26" spans="1:4" ht="16">
       <c r="A26" s="1" t="s">
         <v>162</v>
       </c>
@@ -15663,7 +15072,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" ht="15.5" spans="1:4">
+    <row r="27" spans="1:4" ht="16">
       <c r="A27" s="1" t="s">
         <v>162</v>
       </c>
@@ -15677,7 +15086,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" ht="15.5" spans="1:4">
+    <row r="28" spans="1:4" ht="16">
       <c r="A28" s="1" t="s">
         <v>163</v>
       </c>
@@ -15691,7 +15100,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" ht="15.5" spans="1:4">
+    <row r="29" spans="1:4" ht="16">
       <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
@@ -15705,7 +15114,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" ht="15.5" spans="1:4">
+    <row r="30" spans="1:4" ht="16">
       <c r="A30" s="1" t="s">
         <v>165</v>
       </c>
@@ -15719,7 +15128,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" ht="15.5" spans="1:4">
+    <row r="31" spans="1:4" ht="16">
       <c r="A31" s="1" t="s">
         <v>166</v>
       </c>
@@ -15733,7 +15142,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" ht="15.5" spans="1:4">
+    <row r="32" spans="1:4" ht="16">
       <c r="A32" s="1" t="s">
         <v>167</v>
       </c>
@@ -15747,7 +15156,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" ht="15.5" spans="1:4">
+    <row r="33" spans="1:4" ht="16">
       <c r="A33" s="1" t="s">
         <v>167</v>
       </c>
@@ -15761,7 +15170,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" ht="15.5" spans="1:4">
+    <row r="34" spans="1:4" ht="16">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -15775,7 +15184,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="35" ht="15.5" spans="1:4">
+    <row r="35" spans="1:4" ht="16">
       <c r="A35" s="1" t="s">
         <v>168</v>
       </c>
@@ -15789,7 +15198,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="36" ht="15.5" spans="1:4">
+    <row r="36" spans="1:4" ht="16">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -15803,7 +15212,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="37" ht="15.5" spans="1:4">
+    <row r="37" spans="1:4" ht="16">
       <c r="A37" s="1" t="s">
         <v>168</v>
       </c>
@@ -15817,7 +15226,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" ht="15.5" spans="1:4">
+    <row r="38" spans="1:4" ht="16">
       <c r="A38" s="1" t="s">
         <v>169</v>
       </c>
@@ -15831,7 +15240,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" ht="15.5" spans="1:4">
+    <row r="39" spans="1:4" ht="16">
       <c r="A39" s="1" t="s">
         <v>170</v>
       </c>
@@ -15845,7 +15254,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" ht="15.5" spans="1:4">
+    <row r="40" spans="1:4" ht="16">
       <c r="A40" s="1" t="s">
         <v>171</v>
       </c>
@@ -15859,7 +15268,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" ht="15.5" spans="1:4">
+    <row r="41" spans="1:4" ht="16">
       <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
@@ -15873,7 +15282,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" ht="15.5" spans="1:4">
+    <row r="42" spans="1:4" ht="16">
       <c r="A42" s="1" t="s">
         <v>173</v>
       </c>
@@ -15887,7 +15296,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" ht="15.5" spans="1:4">
+    <row r="43" spans="1:4" ht="16">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -15901,7 +15310,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" ht="15.5" spans="1:4">
+    <row r="44" spans="1:4" ht="16">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -15915,7 +15324,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" ht="15.5" spans="1:4">
+    <row r="45" spans="1:4" ht="16">
       <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
@@ -15929,7 +15338,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" ht="15.5" spans="1:4">
+    <row r="46" spans="1:4" ht="16">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -15943,7 +15352,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" ht="15.5" spans="1:4">
+    <row r="47" spans="1:4" ht="16">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -15957,7 +15366,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" ht="15.5" spans="1:4">
+    <row r="48" spans="1:4" ht="16">
       <c r="A48" s="1" t="s">
         <v>176</v>
       </c>
@@ -15971,7 +15380,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" ht="15.5" spans="1:4">
+    <row r="49" spans="1:4" ht="16">
       <c r="A49" s="1" t="s">
         <v>177</v>
       </c>
@@ -15985,7 +15394,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" ht="15.5" spans="1:4">
+    <row r="50" spans="1:4" ht="16">
       <c r="A50" s="1" t="s">
         <v>179</v>
       </c>
@@ -15999,7 +15408,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" ht="15.5" spans="1:4">
+    <row r="51" spans="1:4" ht="16">
       <c r="A51" s="1" t="s">
         <v>180</v>
       </c>
@@ -16013,7 +15422,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="52" ht="15.5" spans="1:4">
+    <row r="52" spans="1:4" ht="16">
       <c r="A52" s="1" t="s">
         <v>181</v>
       </c>
@@ -16027,20 +15436,19 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="53" ht="15.5" spans="1:1">
+    <row r="53" spans="1:4" ht="16">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" ht="15.5" spans="1:1">
+    <row r="54" spans="1:4" ht="16">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" ht="15.5" spans="1:1">
+    <row r="55" spans="1:4" ht="16">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" ht="15.5" spans="1:1">
+    <row r="56" spans="1:4" ht="16">
       <c r="A56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -8,12 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$I$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$J$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="178">
   <si>
     <t>ID</t>
   </si>
@@ -41,7 +38,7 @@
     <t>Open</t>
   </si>
   <si>
-    <t>Contain</t>
+    <t>Contain_in_Reliability</t>
   </si>
   <si>
     <t>Title</t>
@@ -53,6 +50,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Repo link</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
@@ -65,67 +65,85 @@
     <t>邮件内容</t>
   </si>
   <si>
+    <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
+  </si>
+  <si>
+    <t>Merryn D. Constable</t>
+  </si>
+  <si>
+    <t>merryndconstable@gmail.com</t>
+  </si>
+  <si>
+    <t>https://osf.io/sejw7/</t>
+  </si>
+  <si>
+    <t>Constable et al.</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Psychology:  Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>Template_1</t>
+  </si>
+  <si>
     <t>√</t>
   </si>
   <si>
-    <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
-  </si>
-  <si>
-    <t>Merryn D. Constable</t>
-  </si>
-  <si>
-    <t>merryndconstable@gmail.com</t>
-  </si>
-  <si>
-    <t>Constable et al.</t>
-  </si>
-  <si>
-    <t>Journal of Experimental Psychology:  Human Perception and Performance</t>
+    <t>Sticking together? Re-binding previous other-associated stimuli interferes with self-verification but not partner-verification</t>
+  </si>
+  <si>
+    <t>https://osf.io/5zaej/</t>
+  </si>
+  <si>
+    <t>Constable &amp; Knoblich</t>
+  </si>
+  <si>
+    <t>Acta Psychologica</t>
+  </si>
+  <si>
+    <t>Template_2+询问P1、P2对应的Identity</t>
+  </si>
+  <si>
+    <t>Good Me Bad Me: Prioritization of the Good-Self During Perceptual Decision-Making</t>
+  </si>
+  <si>
+    <t>Chuan-Peng Hu</t>
+  </si>
+  <si>
+    <t>hcp4715@gmail.com</t>
+  </si>
+  <si>
+    <t>https://osf.io/4zvkm/</t>
+  </si>
+  <si>
+    <t>Hu et al.</t>
+  </si>
+  <si>
+    <t>Collabra: Psychology</t>
+  </si>
+  <si>
+    <t>Temporal integration as “common currency” of brain and self-scale-free activity in resting-state EEG correlates with temporal delay effects on self-relatedness</t>
+  </si>
+  <si>
+    <t>Ivar R. Kolvoort</t>
+  </si>
+  <si>
+    <t>i.r.kolvoort@uva.nl</t>
+  </si>
+  <si>
+    <t>Can be obtained via request</t>
+  </si>
+  <si>
+    <t>IR Kolvoort et al.</t>
+  </si>
+  <si>
+    <t>Human Brain Mapping</t>
   </si>
   <si>
     <t>Template_2</t>
   </si>
   <si>
-    <t>Sticking together? Re-binding previous other-associated stimuli interferes with self-verification but not partner-verification</t>
-  </si>
-  <si>
-    <t>Constable &amp; Knoblich</t>
-  </si>
-  <si>
-    <t>Acta Psychologica</t>
-  </si>
-  <si>
-    <t>询问P1、P2对应的Identity</t>
-  </si>
-  <si>
-    <t>Good Me Bad Me: Prioritization of the Good-Self During Perceptual Decision-Making</t>
-  </si>
-  <si>
-    <t>Chuan-Peng Hu</t>
-  </si>
-  <si>
-    <t>hcp4715@gmail.com</t>
-  </si>
-  <si>
-    <t>Hu et al.</t>
-  </si>
-  <si>
-    <t>Collabra: Psychology</t>
-  </si>
-  <si>
-    <t>Temporal integration as “common currency” of brain and self-scale-free activity in resting-state EEG correlates with temporal delay effects on self-relatedness</t>
-  </si>
-  <si>
-    <t>Ivar R. Kolvoort</t>
-  </si>
-  <si>
-    <t>i.r.kolvoort@uva.nl</t>
-  </si>
-  <si>
-    <t>IR Kolvoort et al.</t>
-  </si>
-  <si>
-    <t>Human Brain Mapping</t>
+    <t>CC BY 4.0</t>
   </si>
   <si>
     <t>Self-referential processing and emotion context insensitivity in major depressive disorder</t>
@@ -137,6 +155,9 @@
     <t>skumar@brookes.ac.uk</t>
   </si>
   <si>
+    <t>https://figshare.com/s/e1391ebe3f11e8d70d9f</t>
+  </si>
+  <si>
     <t>L McIvor et al.</t>
   </si>
   <si>
@@ -149,6 +170,9 @@
     <t>Merryn Dale Constable</t>
   </si>
   <si>
+    <t>https://osf.io/khyjq/</t>
+  </si>
+  <si>
     <t>Cognition and Emotion</t>
   </si>
   <si>
@@ -161,12 +185,18 @@
     <t>gaoxp@shnu.edu.cn.</t>
   </si>
   <si>
+    <t>https://osf.io/bw27c</t>
+  </si>
+  <si>
     <t>Qian et al.</t>
   </si>
   <si>
     <t>Quarterly Journal of Experimental Psychology</t>
   </si>
   <si>
+    <t>CC-BY-SA 4.0</t>
+  </si>
+  <si>
     <t>Understanding self-prioritisation: the prioritisation of self-relevant stimuli and its relation to the individual self-esteem</t>
   </si>
   <si>
@@ -176,6 +206,9 @@
     <t>schaefers@uni-trier.de</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.23668/psycharchives.2642</t>
+  </si>
+  <si>
     <t>Schäfer &amp; Frings</t>
   </si>
   <si>
@@ -191,12 +224,18 @@
     <t>mateusz.wozniak@monash.edu</t>
   </si>
   <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025</t>
+  </si>
+  <si>
     <t>Woźniak et al.</t>
   </si>
   <si>
     <t>PloS one</t>
   </si>
   <si>
+    <t>CC BY-NC-ND</t>
+  </si>
+  <si>
     <t>Judging me and you: Task design modulates self-prioritization</t>
   </si>
   <si>
@@ -206,9 +245,15 @@
     <t>marius.golubickis@plymouth.ac.uk</t>
   </si>
   <si>
+    <t>https://osf.io/8bktn/</t>
+  </si>
+  <si>
     <t>Golubickis &amp; Macrae</t>
   </si>
   <si>
+    <t>CC0 1.0 Universal</t>
+  </si>
+  <si>
     <t>Are Self-Related Items Unique? The Self-Prioritization Effect Revisited</t>
   </si>
   <si>
@@ -218,6 +263,9 @@
     <t>mayanna@post.bgu.ac.il</t>
   </si>
   <si>
+    <t>https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9</t>
+  </si>
+  <si>
     <t>Navon &amp; Makovski</t>
   </si>
   <si>
@@ -228,6 +276,9 @@
   </si>
   <si>
     <t>gabriela.orellana-corrales@uni-tuebingen.de</t>
+  </si>
+  <si>
+    <t>https://osf.io/3ke4f/</t>
   </si>
   <si>
     <t>G Orellana-Corrales et al.</t>
@@ -246,6 +297,9 @@
     <t>s.svensson.19@abdn.ac.uk</t>
   </si>
   <si>
+    <t>https://osf.io/cj7fp/</t>
+  </si>
+  <si>
     <t>Svensson et al.</t>
   </si>
   <si>
@@ -276,6 +330,9 @@
     <t>tuo.liu@uol.de</t>
   </si>
   <si>
+    <t>https://osf.io/4n6j7/</t>
+  </si>
+  <si>
     <t>Liu et al.</t>
   </si>
   <si>
@@ -285,6 +342,9 @@
     <t>Self-referencing prioritizes moral character on perceptual matching</t>
   </si>
   <si>
+    <t>https://zenodo.org/records/8031086</t>
+  </si>
+  <si>
     <t>The oscillatory fingerprints of self-prioritization: Novel markers in spectral EEG for self-relevant processing</t>
   </si>
   <si>
@@ -292,6 +352,9 @@
   </si>
   <si>
     <t>pastoetter@uni-trier.de</t>
+  </si>
+  <si>
+    <t>https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d</t>
   </si>
   <si>
     <t>Haciahmet et al.</t>
@@ -310,6 +373,9 @@
     <t>c.hobbs@bath.ac.uk</t>
   </si>
   <si>
+    <t>https://researchdata.bath.ac.uk/924/</t>
+  </si>
+  <si>
     <t>Hobbs et al.</t>
   </si>
   <si>
@@ -325,6 +391,9 @@
     <t>wf3126@mail.tsinghua.edu.cn</t>
   </si>
   <si>
+    <t>https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae.</t>
+  </si>
+  <si>
     <t>Liang et al.</t>
   </si>
   <si>
@@ -352,6 +421,9 @@
     <t>michele.vicovaro@unipd.it</t>
   </si>
   <si>
+    <t>https://doi.org/10.17605/OSF.IO/FE3JW</t>
+  </si>
+  <si>
     <t>Vicovaro et al.</t>
   </si>
   <si>
@@ -367,6 +439,9 @@
     <t>kelsey.perrykkad@monash.edu</t>
   </si>
   <si>
+    <t>https://doi.org/10.26180/20011142</t>
+  </si>
+  <si>
     <t>Perrykkad et al.</t>
   </si>
   <si>
@@ -379,9 +454,15 @@
     <t>mgwozniak@gmail.com</t>
   </si>
   <si>
+    <t>https://osf.io/35wp9</t>
+  </si>
+  <si>
     <t>Decoding individual differences in self-prioritization from the resting-state functional connectome</t>
   </si>
   <si>
+    <t>https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497</t>
+  </si>
+  <si>
     <t>Yongfa Zhang et al.</t>
   </si>
   <si>
@@ -424,6 +505,9 @@
     <t>lfuentes@um.es</t>
   </si>
   <si>
+    <t>https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a</t>
+  </si>
+  <si>
     <t>V Martínez-Pérez et al.</t>
   </si>
   <si>
@@ -463,9 +547,6 @@
     <t>Psychonomic Bulletin &amp; Review</t>
   </si>
   <si>
-    <t>Template_1</t>
-  </si>
-  <si>
     <t>The self can be associated with novel faces of in-group and out-group members: A cross-cultural study</t>
   </si>
   <si>
@@ -485,111 +566,6 @@
   </si>
   <si>
     <t>Journal of Experimental Psychology:Human Perception and Performance</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P20</t>
-  </si>
-  <si>
-    <t>P46</t>
-  </si>
-  <si>
-    <t>P51</t>
-  </si>
-  <si>
-    <t>P54</t>
-  </si>
-  <si>
-    <t>P34</t>
-  </si>
-  <si>
-    <t>P95</t>
-  </si>
-  <si>
-    <t>P45</t>
-  </si>
-  <si>
-    <t>Pn4</t>
-  </si>
-  <si>
-    <t>Pn13</t>
-  </si>
-  <si>
-    <t>Pn16</t>
-  </si>
-  <si>
-    <t>Pn23</t>
-  </si>
-  <si>
-    <t>Ps1</t>
-  </si>
-  <si>
-    <t>Ps2</t>
-  </si>
-  <si>
-    <t>Ps3</t>
-  </si>
-  <si>
-    <t>Ps4</t>
-  </si>
-  <si>
-    <t>Ps5</t>
-  </si>
-  <si>
-    <t>Pt1</t>
-  </si>
-  <si>
-    <t>Pt2</t>
-  </si>
-  <si>
-    <t>Pt3</t>
-  </si>
-  <si>
-    <t>Pt5</t>
-  </si>
-  <si>
-    <t>Pt6</t>
-  </si>
-  <si>
-    <t>Pt7</t>
-  </si>
-  <si>
-    <t>Pt9</t>
-  </si>
-  <si>
-    <t>Pt10</t>
-  </si>
-  <si>
-    <t>Pt13</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>Pt18</t>
-  </si>
-  <si>
-    <t>Pt27</t>
-  </si>
-  <si>
-    <t>Pt28</t>
-  </si>
-  <si>
-    <t>Formal_Trials</t>
-  </si>
-  <si>
-    <t>Sample_Size</t>
-  </si>
-  <si>
-    <t>Pn14</t>
   </si>
 </sst>
 </file>
@@ -602,7 +578,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,14 +591,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -648,12 +616,6 @@
       <sz val="10.55"/>
       <color rgb="FF000000"/>
       <name val="CharisSIL"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -749,6 +711,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -777,12 +747,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1106,67 +1082,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,10 +1148,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,10 +1160,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,10 +1172,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,10 +1184,10 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,10 +1196,10 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,19 +1208,16 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,7 +1225,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1264,13 +1240,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,16 +1295,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1347,53 +1307,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6699250" y="50800"/>
-          <a:ext cx="3238500" cy="2387600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1654,29 +1567,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:JJ46"/>
+  <dimension ref="A1:JK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I36" sqref="I36"/>
+      <selection pane="topRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="4.40833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="52.0833333333333" customWidth="1"/>
     <col min="5" max="5" width="24.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="40.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="67.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="67.35" customWidth="1"/>
+    <col min="8" max="8" width="23.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="67.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:10">
+    <row r="1" ht="15.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1609,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1704,40 +1618,43 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" spans="1:270">
+    <row r="2" ht="15.5" spans="1:271">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
         <v>2019</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1997,37 +1914,40 @@
       <c r="JH2" s="1"/>
       <c r="JI2" s="1"/>
       <c r="JJ2" s="1"/>
+      <c r="JK2" s="1"/>
     </row>
-    <row r="3" ht="31" spans="1:270">
+    <row r="3" ht="31" spans="1:271">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
         <v>2020</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2287,37 +2207,38 @@
       <c r="JH3" s="1"/>
       <c r="JI3" s="1"/>
       <c r="JJ3" s="1"/>
+      <c r="JK3" s="1"/>
     </row>
-    <row r="4" ht="31" spans="1:270">
-      <c r="A4" s="1">
+    <row r="4" ht="31" spans="1:271">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1">
         <v>2020</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2577,37 +2498,40 @@
       <c r="JH4" s="1"/>
       <c r="JI4" s="1"/>
       <c r="JJ4" s="1"/>
+      <c r="JK4" s="1"/>
     </row>
-    <row r="5" ht="46.5" spans="1:270">
+    <row r="5" ht="46.5" spans="1:271">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1">
         <v>2020</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2867,37 +2791,40 @@
       <c r="JH5" s="1"/>
       <c r="JI5" s="1"/>
       <c r="JJ5" s="1"/>
+      <c r="JK5" s="1"/>
     </row>
-    <row r="6" ht="31" spans="1:270">
-      <c r="A6" s="1">
+    <row r="6" ht="31" spans="1:271">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1">
         <v>2021</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3157,37 +3084,40 @@
       <c r="JH6" s="1"/>
       <c r="JI6" s="1"/>
       <c r="JJ6" s="1"/>
+      <c r="JK6" s="1"/>
     </row>
-    <row r="7" ht="31" spans="1:270">
+    <row r="7" ht="31" spans="1:271">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3447,37 +3377,40 @@
       <c r="JH7" s="1"/>
       <c r="JI7" s="1"/>
       <c r="JJ7" s="1"/>
+      <c r="JK7" s="1"/>
     </row>
-    <row r="8" ht="31" spans="1:270">
+    <row r="8" ht="31" spans="1:271">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1">
         <v>2020</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3737,37 +3670,42 @@
       <c r="JH8" s="1"/>
       <c r="JI8" s="1"/>
       <c r="JJ8" s="1"/>
+      <c r="JK8" s="1"/>
     </row>
-    <row r="9" ht="31" spans="1:270">
-      <c r="A9" s="1">
+    <row r="9" ht="31" spans="1:271">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1">
+        <v>56</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="1">
         <v>2019</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4027,37 +3965,42 @@
       <c r="JH9" s="1"/>
       <c r="JI9" s="1"/>
       <c r="JJ9" s="1"/>
+      <c r="JK9" s="1"/>
     </row>
-    <row r="10" ht="15.5" spans="1:270">
-      <c r="A10" s="1">
+    <row r="10" ht="15.5" spans="1:271">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="1">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="1">
         <v>2018</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4317,37 +4260,40 @@
       <c r="JH10" s="1"/>
       <c r="JI10" s="1"/>
       <c r="JJ10" s="1"/>
+      <c r="JK10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:270">
-      <c r="A11" s="1">
+    <row r="11" ht="15.5" spans="1:271">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>54</v>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1">
+        <v>69</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="1">
         <v>2021</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4607,35 +4553,40 @@
       <c r="JH11" s="1"/>
       <c r="JI11" s="1"/>
       <c r="JJ11" s="1"/>
+      <c r="JK11" s="1"/>
     </row>
-    <row r="12" ht="31" spans="1:270">
-      <c r="A12" s="1">
+    <row r="12" ht="31" spans="1:271">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>58</v>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="1">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="1">
         <v>2021</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4895,37 +4846,40 @@
       <c r="JH12" s="1"/>
       <c r="JI12" s="1"/>
       <c r="JJ12" s="1"/>
+      <c r="JK12" s="1"/>
     </row>
-    <row r="13" ht="31" spans="1:270">
+    <row r="13" ht="31" spans="1:271">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>62</v>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="1">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="1">
         <v>2020</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -5185,37 +5139,40 @@
       <c r="JH13" s="1"/>
       <c r="JI13" s="1"/>
       <c r="JJ13" s="1"/>
+      <c r="JK13" s="1"/>
     </row>
-    <row r="14" ht="31" spans="1:270">
+    <row r="14" ht="31" spans="1:271">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>67</v>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="1">
+        <v>86</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="1">
         <v>2022</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -5475,37 +5432,40 @@
       <c r="JH14" s="1"/>
       <c r="JI14" s="1"/>
       <c r="JJ14" s="1"/>
+      <c r="JK14" s="1"/>
     </row>
-    <row r="15" ht="31" spans="1:270">
+    <row r="15" ht="31" spans="1:271">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>72</v>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="1">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="1">
         <v>2021</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -5765,37 +5725,40 @@
       <c r="JH15" s="1"/>
       <c r="JI15" s="1"/>
       <c r="JJ15" s="1"/>
+      <c r="JK15" s="1"/>
     </row>
-    <row r="16" ht="31" spans="1:270">
+    <row r="16" ht="31" spans="1:271">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>77</v>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="1">
+        <v>97</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="1">
         <v>2023</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -6055,35 +6018,38 @@
       <c r="JH16" s="1"/>
       <c r="JI16" s="1"/>
       <c r="JJ16" s="1"/>
+      <c r="JK16" s="1"/>
     </row>
-    <row r="17" ht="31" spans="1:270">
-      <c r="A17" s="1">
+    <row r="17" ht="31" spans="1:271">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>82</v>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="1">
         <v>2023</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -6343,37 +6309,42 @@
       <c r="JH17" s="1"/>
       <c r="JI17" s="1"/>
       <c r="JJ17" s="1"/>
+      <c r="JK17" s="1"/>
     </row>
-    <row r="18" ht="31" spans="1:270">
-      <c r="A18" s="1">
+    <row r="18" ht="31" spans="1:271">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>83</v>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="1">
+        <v>105</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="1">
         <v>2023</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -6633,37 +6604,40 @@
       <c r="JH18" s="1"/>
       <c r="JI18" s="1"/>
       <c r="JJ18" s="1"/>
+      <c r="JK18" s="1"/>
     </row>
-    <row r="19" ht="31" spans="1:270">
+    <row r="19" ht="31" spans="1:271">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>88</v>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="1">
+        <v>111</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="1">
         <v>2023</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -6923,37 +6897,40 @@
       <c r="JH19" s="1"/>
       <c r="JI19" s="1"/>
       <c r="JJ19" s="1"/>
+      <c r="JK19" s="1"/>
     </row>
-    <row r="20" ht="31" spans="1:270">
+    <row r="20" ht="31" spans="1:271">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>93</v>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="1">
+        <v>117</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="1">
         <v>2021</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -7213,37 +7190,38 @@
       <c r="JH20" s="1"/>
       <c r="JI20" s="1"/>
       <c r="JJ20" s="1"/>
+      <c r="JK20" s="1"/>
     </row>
-    <row r="21" ht="31" spans="1:270">
+    <row r="21" ht="31" spans="1:271">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>97</v>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="1">
+        <v>122</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="1">
         <v>2023</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -7503,37 +7481,42 @@
       <c r="JH21" s="1"/>
       <c r="JI21" s="1"/>
       <c r="JJ21" s="1"/>
+      <c r="JK21" s="1"/>
     </row>
-    <row r="22" ht="31" spans="1:270">
-      <c r="A22" s="1">
+    <row r="22" ht="31" spans="1:271">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>102</v>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="1">
+        <v>127</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="1">
         <v>2022</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -7793,37 +7776,42 @@
       <c r="JH22" s="1"/>
       <c r="JI22" s="1"/>
       <c r="JJ22" s="1"/>
+      <c r="JK22" s="1"/>
     </row>
-    <row r="23" ht="31" spans="1:270">
-      <c r="A23" s="1">
+    <row r="23" ht="31" spans="1:271">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="1">
         <v>2022</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -8083,37 +8071,42 @@
       <c r="JH23" s="1"/>
       <c r="JI23" s="1"/>
       <c r="JJ23" s="1"/>
+      <c r="JK23" s="1"/>
     </row>
-    <row r="24" ht="31" spans="1:270">
-      <c r="A24" s="1">
+    <row r="24" ht="31" spans="1:271">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>112</v>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2022</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -8373,37 +8366,42 @@
       <c r="JH24" s="1"/>
       <c r="JI24" s="1"/>
       <c r="JJ24" s="1"/>
+      <c r="JK24" s="1"/>
     </row>
-    <row r="25" ht="31" spans="1:270">
+    <row r="25" ht="31" spans="1:271">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="1">
         <v>2023</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -8663,37 +8661,42 @@
       <c r="JH25" s="1"/>
       <c r="JI25" s="1"/>
       <c r="JJ25" s="1"/>
+      <c r="JK25" s="1"/>
     </row>
-    <row r="26" ht="31" spans="1:270">
-      <c r="A26" s="1">
+    <row r="26" ht="31" spans="1:271">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>102</v>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>118</v>
+        <v>145</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="1">
+        <v>33</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="1">
         <v>2021</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -8953,37 +8956,42 @@
       <c r="JH26" s="1"/>
       <c r="JI26" s="1"/>
       <c r="JJ26" s="1"/>
+      <c r="JK26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:270">
-      <c r="A27" s="1">
+    <row r="27" ht="15.5" spans="1:271">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>123</v>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="1">
+        <v>33</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="1">
         <v>2023</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -9243,37 +9251,42 @@
       <c r="JH27" s="1"/>
       <c r="JI27" s="1"/>
       <c r="JJ27" s="1"/>
+      <c r="JK27" s="1"/>
     </row>
-    <row r="28" ht="31" spans="1:270">
-      <c r="A28" s="1">
+    <row r="28" ht="31" spans="1:271">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="1">
         <v>2024</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -9533,37 +9546,40 @@
       <c r="JH28" s="1"/>
       <c r="JI28" s="1"/>
       <c r="JJ28" s="1"/>
+      <c r="JK28" s="1"/>
     </row>
-    <row r="29" ht="31" spans="1:270">
+    <row r="29" ht="31" spans="1:271">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>130</v>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>132</v>
+        <v>160</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="1">
+        <v>33</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="1">
         <v>2024</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -9823,20 +9839,19 @@
       <c r="JH29" s="1"/>
       <c r="JI29" s="1"/>
       <c r="JJ29" s="1"/>
+      <c r="JK29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:270">
+    <row r="30" ht="15.5" spans="1:271">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -10097,27 +10112,28 @@
       <c r="JH30" s="1"/>
       <c r="JI30" s="1"/>
       <c r="JJ30" s="1"/>
+      <c r="JK30" s="1"/>
     </row>
-    <row r="31" ht="31" spans="1:270">
+    <row r="31" ht="31" spans="1:271">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>136</v>
+      <c r="C31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="6" t="s">
-        <v>137</v>
+      <c r="F31" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -10377,14 +10393,15 @@
       <c r="JH31" s="1"/>
       <c r="JI31" s="1"/>
       <c r="JJ31" s="1"/>
+      <c r="JK31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:270">
+    <row r="32" ht="15.5" spans="1:271">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10649,33 +10666,34 @@
       <c r="JH32" s="1"/>
       <c r="JI32" s="1"/>
       <c r="JJ32" s="1"/>
+      <c r="JK32" s="1"/>
     </row>
-    <row r="33" ht="31" spans="1:270">
+    <row r="33" ht="31" spans="1:271">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5" t="s">
-        <v>138</v>
+      <c r="D33" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="1">
+        <v>168</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="1">
         <v>2024</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -10935,33 +10953,34 @@
       <c r="JH33" s="1"/>
       <c r="JI33" s="1"/>
       <c r="JJ33" s="1"/>
+      <c r="JK33" s="1"/>
     </row>
-    <row r="34" ht="31" spans="1:270">
+    <row r="34" ht="31" spans="1:271">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="5" t="s">
-        <v>143</v>
+      <c r="D34" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="1">
+        <v>172</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="1">
         <v>2024</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -11221,33 +11240,34 @@
       <c r="JH34" s="1"/>
       <c r="JI34" s="1"/>
       <c r="JJ34" s="1"/>
+      <c r="JK34" s="1"/>
     </row>
-    <row r="35" ht="31" spans="1:270">
+    <row r="35" ht="31" spans="1:271">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="D35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="1">
         <v>2016</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K35" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -11507,12 +11527,13 @@
       <c r="JH35" s="1"/>
       <c r="JI35" s="1"/>
       <c r="JJ35" s="1"/>
+      <c r="JK35" s="1"/>
     </row>
-    <row r="36" ht="15.5" spans="1:270">
+    <row r="36" ht="15.5" spans="1:271">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -11779,12 +11800,13 @@
       <c r="JH36" s="1"/>
       <c r="JI36" s="1"/>
       <c r="JJ36" s="1"/>
+      <c r="JK36" s="1"/>
     </row>
-    <row r="37" ht="15.5" spans="1:270">
+    <row r="37" ht="15.5" spans="1:271">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -12051,12 +12073,13 @@
       <c r="JH37" s="1"/>
       <c r="JI37" s="1"/>
       <c r="JJ37" s="1"/>
+      <c r="JK37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:270">
+    <row r="38" ht="15.5" spans="1:271">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -12323,12 +12346,13 @@
       <c r="JH38" s="1"/>
       <c r="JI38" s="1"/>
       <c r="JJ38" s="1"/>
+      <c r="JK38" s="1"/>
     </row>
-    <row r="39" ht="15.5" spans="1:270">
+    <row r="39" ht="15.5" spans="1:271">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -12595,12 +12619,13 @@
       <c r="JH39" s="1"/>
       <c r="JI39" s="1"/>
       <c r="JJ39" s="1"/>
+      <c r="JK39" s="1"/>
     </row>
-    <row r="40" ht="15.5" spans="1:270">
+    <row r="40" ht="15.5" spans="1:271">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -12867,12 +12892,13 @@
       <c r="JH40" s="1"/>
       <c r="JI40" s="1"/>
       <c r="JJ40" s="1"/>
+      <c r="JK40" s="1"/>
     </row>
-    <row r="41" ht="15.5" spans="1:270">
+    <row r="41" ht="15.5" spans="1:271">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -13139,12 +13165,13 @@
       <c r="JH41" s="1"/>
       <c r="JI41" s="1"/>
       <c r="JJ41" s="1"/>
+      <c r="JK41" s="1"/>
     </row>
-    <row r="42" ht="15.5" spans="1:270">
+    <row r="42" ht="15.5" spans="1:271">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -13411,12 +13438,13 @@
       <c r="JH42" s="1"/>
       <c r="JI42" s="1"/>
       <c r="JJ42" s="1"/>
+      <c r="JK42" s="1"/>
     </row>
-    <row r="43" ht="15.5" spans="1:270">
+    <row r="43" ht="15.5" spans="1:271">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -13683,12 +13711,13 @@
       <c r="JH43" s="1"/>
       <c r="JI43" s="1"/>
       <c r="JJ43" s="1"/>
+      <c r="JK43" s="1"/>
     </row>
-    <row r="44" ht="15.5" spans="1:270">
+    <row r="44" ht="15.5" spans="1:271">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -13955,12 +13984,13 @@
       <c r="JH44" s="1"/>
       <c r="JI44" s="1"/>
       <c r="JJ44" s="1"/>
+      <c r="JK44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:270">
+    <row r="45" ht="15.5" spans="1:271">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -14227,8 +14257,9 @@
       <c r="JH45" s="1"/>
       <c r="JI45" s="1"/>
       <c r="JJ45" s="1"/>
+      <c r="JK45" s="1"/>
     </row>
-    <row r="46" ht="15.5" spans="1:9">
+    <row r="46" ht="15.5" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -14238,15 +14269,16 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I29" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J35" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="I29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="J29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
     <hyperlink ref="F2" r:id="rId2" display="merryndconstable@gmail.com"/>
     <hyperlink ref="F3" r:id="rId2" display="merryndconstable@gmail.com"/>
     <hyperlink ref="F4" r:id="rId3" display="hcp4715@gmail.com"/>
@@ -14267,1780 +14299,31 @@
     <hyperlink ref="F33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
     <hyperlink ref="F34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
     <hyperlink ref="F35" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
+    <hyperlink ref="G2" r:id="rId19" display="https://osf.io/sejw7/"/>
+    <hyperlink ref="G3" r:id="rId20" display="https://osf.io/5zaej/"/>
+    <hyperlink ref="G4" r:id="rId21" display="https://osf.io/4zvkm/"/>
+    <hyperlink ref="G6" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
+    <hyperlink ref="G7" r:id="rId23" display="https://osf.io/khyjq/"/>
+    <hyperlink ref="G8" r:id="rId24" display="https://osf.io/bw27c"/>
+    <hyperlink ref="G9" r:id="rId25" display="http://dx.doi.org/10.23668/psycharchives.2642"/>
+    <hyperlink ref="G10" r:id="rId26" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
+    <hyperlink ref="G11" r:id="rId27" display="https://osf.io/8bktn/"/>
+    <hyperlink ref="G12" r:id="rId28" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="G13" r:id="rId29" display="https://osf.io/3ke4f/"/>
+    <hyperlink ref="G14" r:id="rId30" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="G16" r:id="rId31" display="https://osf.io/4n6j7/"/>
+    <hyperlink ref="G17" r:id="rId32" display="https://zenodo.org/records/8031086"/>
+    <hyperlink ref="G18" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
+    <hyperlink ref="G19" r:id="rId34" display="https://researchdata.bath.ac.uk/924/"/>
+    <hyperlink ref="G20" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
+    <hyperlink ref="G22" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="G23" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
+    <hyperlink ref="G24" r:id="rId38" display="https://osf.io/35wp9"/>
+    <hyperlink ref="G25" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
+    <hyperlink ref="G28" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.08333333333333" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.5" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2019</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" ht="15.5" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" ht="15.5" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" ht="15.5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" ht="15.5" hidden="1" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" ht="15.5" hidden="1" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2019</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" ht="15.5" hidden="1" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2018</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" ht="15.5" hidden="1" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" ht="15.5" hidden="1" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" ht="15.5" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" ht="15.5" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2021</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" ht="15.5" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2023</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" ht="15.5" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2023</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" ht="15.5" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2014</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="16" ht="15.5" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2015</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="17" ht="15.5" hidden="1" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2014</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" ht="15.5" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2023</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" ht="15.5" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2023</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" ht="15.5" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2021</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" ht="15.5" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2023</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="22" ht="15.5" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2022</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" ht="15.5" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2022</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" ht="15.5" hidden="1" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" ht="15.5" hidden="1" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2023</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="26" ht="15.5" hidden="1" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="27" ht="15.5" hidden="1" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="28" ht="15.5" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="29" ht="15.5" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="30" ht="15.5" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H30" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="31" ht="15.5" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="32" ht="15.5" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="33" ht="15.5" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="34" ht="15.5" hidden="1" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="35" ht="15.5" hidden="1" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="36" ht="15.5" hidden="1" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" ht="15.5" hidden="1" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="38" ht="15.5" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="39" ht="15.5" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="40" ht="15.5" hidden="1" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="41" ht="15.5" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="42" ht="15.5" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="43" ht="15.5" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="44" ht="15.5" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="45" ht="15.5" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H45" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="46" ht="15.5" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="47" ht="15.5" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H47" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="48" ht="15.5" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H48" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="49" ht="15.5" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="50" ht="15.5" hidden="1" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H50" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="51" ht="15.5" hidden="1" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H51" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="52" ht="15.5" hidden="1" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="53" ht="15.5" hidden="1" spans="1:8">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" ht="15.5" hidden="1" spans="1:8">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" ht="15.5" hidden="1" spans="1:8">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" ht="15.5" hidden="1" spans="1:8">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" ht="15.5" hidden="1" spans="1:8">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" ht="15.5" hidden="1" spans="1:8">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" ht="15.5" hidden="1" spans="1:8">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" ht="15.5" hidden="1" spans="1:8">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" ht="15.5" hidden="1" spans="1:8">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" ht="15.5" hidden="1" spans="1:8">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" ht="15.5" hidden="1" spans="1:8">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" ht="15.5" hidden="1" spans="1:8">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" ht="15.5" hidden="1" spans="1:8">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" ht="15.5" hidden="1" spans="1:8">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" ht="15.5" hidden="1" spans="1:8">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" ht="15.5" hidden="1" spans="1:8">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-  </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A68" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A52" sqref="D1:D52 A1:A52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.5" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="1">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" ht="15.5" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="1">
-        <v>96</v>
-      </c>
-      <c r="C3" s="1">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" ht="15.5" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="1">
-        <v>96</v>
-      </c>
-      <c r="C4" s="1">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" ht="15.5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="1">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" ht="15.5" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="1">
-        <v>240</v>
-      </c>
-      <c r="C6" s="1">
-        <v>92</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" ht="15.5" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="1">
-        <v>312</v>
-      </c>
-      <c r="C7" s="1">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" ht="15.5" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" ht="15.5" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="1">
-        <v>960</v>
-      </c>
-      <c r="C9" s="1">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" ht="15.5" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="1">
-        <v>192</v>
-      </c>
-      <c r="C10" s="1">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" ht="15.5" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="1">
-        <v>144</v>
-      </c>
-      <c r="C11" s="1">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" ht="15.5" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="1">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" ht="15.5" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="1">
-        <v>144</v>
-      </c>
-      <c r="C13" s="1">
-        <v>103</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" ht="15.5" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="1">
-        <v>672</v>
-      </c>
-      <c r="C14" s="1">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" ht="15.5" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="1">
-        <v>672</v>
-      </c>
-      <c r="C15" s="1">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="16" ht="15.5" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="1">
-        <v>360</v>
-      </c>
-      <c r="C16" s="1">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" ht="15.5" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="1">
-        <v>360</v>
-      </c>
-      <c r="C17" s="1">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" ht="15.5" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="1">
-        <v>360</v>
-      </c>
-      <c r="C18" s="1">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" ht="15.5" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="1">
-        <v>360</v>
-      </c>
-      <c r="C19" s="1">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" ht="15.5" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="1">
-        <v>360</v>
-      </c>
-      <c r="C20" s="1">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" ht="15.5" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="1">
-        <v>360</v>
-      </c>
-      <c r="C21" s="1">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" ht="15.5" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="1">
-        <v>128</v>
-      </c>
-      <c r="C22" s="1">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="23" ht="15.5" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="1">
-        <v>240</v>
-      </c>
-      <c r="C23" s="1">
-        <v>33</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="24" ht="15.5" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="1">
-        <v>240</v>
-      </c>
-      <c r="C24" s="1">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="25" ht="15.5" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="1">
-        <v>200</v>
-      </c>
-      <c r="C25" s="1">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="26" ht="15.5" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="1">
-        <v>400</v>
-      </c>
-      <c r="C26" s="1">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="27" ht="15.5" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="1">
-        <v>400</v>
-      </c>
-      <c r="C27" s="1">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="28" ht="15.5" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="1">
-        <v>360</v>
-      </c>
-      <c r="C28" s="1">
-        <v>105</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" ht="15.5" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="1">
-        <v>64</v>
-      </c>
-      <c r="C29" s="1">
-        <v>302</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="30" ht="15.5" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="1">
-        <v>90</v>
-      </c>
-      <c r="C30" s="1">
-        <v>23</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="31" ht="15.5" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="1">
-        <v>40</v>
-      </c>
-      <c r="C31" s="1">
-        <v>24</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="32" ht="15.5" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="1">
-        <v>40</v>
-      </c>
-      <c r="C32" s="1">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="33" ht="15.5" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="1">
-        <v>40</v>
-      </c>
-      <c r="C33" s="1">
-        <v>21</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="34" ht="15.5" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="1">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="35" ht="15.5" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="1">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="36" ht="15.5" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="1">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1">
-        <v>22</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="37" ht="15.5" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="1">
-        <v>60</v>
-      </c>
-      <c r="C37" s="1">
-        <v>20</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="38" ht="15.5" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="1">
-        <v>240</v>
-      </c>
-      <c r="C38" s="1">
-        <v>40</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="39" ht="15.5" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="1">
-        <v>60</v>
-      </c>
-      <c r="C39" s="1">
-        <v>144</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="40" ht="15.5" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="1">
-        <v>360</v>
-      </c>
-      <c r="C40" s="1">
-        <v>109</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="41" ht="15.5" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="1">
-        <v>300</v>
-      </c>
-      <c r="C41" s="1">
-        <v>40</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="42" ht="15.5" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" s="1">
-        <v>240</v>
-      </c>
-      <c r="C42" s="1">
-        <v>30</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="43" ht="15.5" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="1">
-        <v>240</v>
-      </c>
-      <c r="C43" s="1">
-        <v>104</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="44" ht="15.5" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="1">
-        <v>360</v>
-      </c>
-      <c r="C44" s="1">
-        <v>328</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="45" ht="15.5" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="1">
-        <v>360</v>
-      </c>
-      <c r="C45" s="1">
-        <v>23</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="46" ht="15.5" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="1">
-        <v>360</v>
-      </c>
-      <c r="C46" s="1">
-        <v>21</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="47" ht="15.5" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" s="1">
-        <v>360</v>
-      </c>
-      <c r="C47" s="1">
-        <v>18</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="48" ht="15.5" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="1">
-        <v>96</v>
-      </c>
-      <c r="C48" s="1">
-        <v>380</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="49" ht="15.5" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="1">
-        <v>320</v>
-      </c>
-      <c r="C49" s="1">
-        <v>84</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="50" ht="15.5" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="1">
-        <v>960</v>
-      </c>
-      <c r="C50" s="1">
-        <v>20</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="51" ht="15.5" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" s="1">
-        <v>240</v>
-      </c>
-      <c r="C51" s="1">
-        <v>32</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="52" ht="15.5" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="1">
-        <v>360</v>
-      </c>
-      <c r="C52" s="1">
-        <v>70</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="53" ht="15.5" spans="1:1">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" ht="15.5" spans="1:1">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" ht="15.5" spans="1:1">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" ht="15.5" spans="1:1">
-      <c r="A56" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -578,7 +578,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +599,12 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -747,7 +753,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +763,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,13 +1097,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1100,37 +1109,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,7 +1151,7 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,10 +1160,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,10 +1172,10 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,10 +1184,10 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,10 +1196,10 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,10 +1208,10 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,8 +1220,11 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,13 +1243,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1572,7 +1587,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M33" sqref="M33"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1621,7 +1636,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2215,7 +2230,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -6028,7 +6043,7 @@
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -7209,8 +7224,8 @@
       <c r="F21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>124</v>
       </c>
       <c r="I21" s="1">
@@ -7791,7 +7806,7 @@
       <c r="D23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>133</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -8381,7 +8396,7 @@
       <c r="D25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -8971,7 +8986,7 @@
       <c r="D27" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>150</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -9266,7 +9281,7 @@
       <c r="D28" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>155</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -11249,7 +11264,7 @@
       <c r="D35" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>150</v>
       </c>
       <c r="F35" s="4" t="s">

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -578,7 +578,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,12 +599,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -753,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -942,12 +936,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1097,10 +1085,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,49 +1100,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,7 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,16 +1199,16 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,16 +1231,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1584,10 +1572,10 @@
   <sheetPr/>
   <dimension ref="A1:JK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -8384,7 +8372,7 @@
       <c r="JK24" s="1"/>
     </row>
     <row r="25" ht="31" spans="1:271">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +122,9 @@
     <t>Collabra: Psychology</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>Temporal integration as “common currency” of brain and self-scale-free activity in resting-state EEG correlates with temporal delay effects on self-relatedness</t>
   </si>
   <si>
@@ -213,6 +216,20 @@
   </si>
   <si>
     <t>Journal of Cognitive Psychology</t>
+  </si>
+  <si>
+    <r>
+      <t>Template_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（已公开数据）</t>
+    </r>
   </si>
   <si>
     <t>Prioritization of arbitrary faces associated to self: An EEG study</t>
@@ -321,6 +338,20 @@
     <t>Current Psychology</t>
   </si>
   <si>
+    <r>
+      <t>Template_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（未公开数据）</t>
+    </r>
+  </si>
+  <si>
     <t>To see or not to see: the parallel processing of self-relevance and facial expressions</t>
   </si>
   <si>
@@ -533,6 +564,9 @@
   </si>
   <si>
     <t>tseng@riec.tohoku.ac.jp</t>
+  </si>
+  <si>
+    <t>Template_1+No Trial-leve data</t>
   </si>
   <si>
     <t>The self-relevant spotlight metaphor: Self-relevant targets diminish distractor–response-binding effects</t>
@@ -578,7 +612,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +779,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1572,10 +1612,10 @@
   <sheetPr/>
   <dimension ref="A1:JK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2240,7 +2280,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2512,28 +2552,28 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
         <v>2020</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2801,29 +2841,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1">
         <v>2021</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
@@ -3098,16 +3138,16 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
@@ -3116,10 +3156,10 @@
         <v>2020</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3391,28 +3431,28 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="1">
         <v>2020</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3680,34 +3720,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1">
         <v>2019</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3975,34 +4015,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10" s="1">
         <v>2018</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -4270,23 +4310,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1">
         <v>2021</v>
@@ -4295,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4559,36 +4599,36 @@
       <c r="JK11" s="1"/>
     </row>
     <row r="12" ht="31" spans="1:271">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1">
         <v>2021</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -4860,28 +4900,28 @@
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1">
         <v>2020</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -5153,28 +5193,28 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>2022</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -5446,28 +5486,28 @@
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I15" s="1">
         <v>2021</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -5739,28 +5779,28 @@
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1">
         <v>2023</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6032,7 +6072,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
@@ -6041,7 +6081,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>28</v>
@@ -6051,7 +6091,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6319,34 +6359,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I18" s="1">
         <v>2023</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -6618,28 +6658,28 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I19" s="1">
         <v>2023</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -6911,28 +6951,28 @@
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I20" s="1">
         <v>2021</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -7204,26 +7244,26 @@
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I21" s="1">
         <v>2023</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -7491,34 +7531,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I22" s="1">
         <v>2022</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -7786,34 +7826,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I23" s="1">
         <v>2022</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -8081,34 +8121,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I24" s="1">
         <v>2022</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -8376,34 +8416,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I25" s="1">
         <v>2023</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -8671,34 +8711,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I26" s="1">
         <v>2021</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -8966,34 +9006,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I27" s="1">
         <v>2023</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -9261,34 +9301,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I28" s="1">
         <v>2024</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -9560,28 +9600,28 @@
         <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I29" s="1">
         <v>2024</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -10121,21 +10161,21 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -10676,23 +10716,23 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I33" s="1">
         <v>2024</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>17</v>
@@ -10963,23 +11003,23 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I34" s="1">
         <v>2024</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>17</v>
@@ -11250,23 +11290,23 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I35" s="1">
         <v>2016</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>17</v>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Author(All)</t>
+  </si>
+  <si>
     <t>Corresponding author</t>
   </si>
   <si>
@@ -219,6 +222,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Template_2</t>
     </r>
     <r>
@@ -339,6 +348,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Template_2</t>
     </r>
     <r>
@@ -635,6 +650,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -651,14 +674,6 @@
       <color rgb="FF000000"/>
       <name val="CharisSIL"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -787,7 +802,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,7 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,6 +991,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1125,7 +1146,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1242,17 +1263,17 @@
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,13 +1295,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1610,12 +1634,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:JK46"/>
+  <dimension ref="A1:JL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M12" sqref="M12"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1623,17 +1647,17 @@
     <col min="1" max="1" width="4.40833333333333" customWidth="1"/>
     <col min="2" max="2" width="16.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="52.0833333333333" customWidth="1"/>
-    <col min="5" max="5" width="24.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="40.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="67.35" customWidth="1"/>
-    <col min="8" max="8" width="23.4166666666667" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="67.0833333333333" customWidth="1"/>
-    <col min="11" max="11" width="34.125" customWidth="1"/>
+    <col min="4" max="5" width="52.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="67.35" customWidth="1"/>
+    <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:11">
+    <row r="1" ht="15.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1652,10 +1676,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1664,41 +1688,44 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" spans="1:271">
+    <row r="2" ht="15.5" spans="1:272">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1">
         <v>2019</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1958,40 +1985,41 @@
       <c r="JI2" s="1"/>
       <c r="JJ2" s="1"/>
       <c r="JK2" s="1"/>
+      <c r="JL2" s="1"/>
     </row>
-    <row r="3" ht="31" spans="1:271">
+    <row r="3" ht="31" spans="1:272">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
         <v>2020</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2251,38 +2279,39 @@
       <c r="JI3" s="1"/>
       <c r="JJ3" s="1"/>
       <c r="JK3" s="1"/>
+      <c r="JL3" s="1"/>
     </row>
-    <row r="4" ht="31" spans="1:271">
+    <row r="4" ht="31" spans="1:272">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1">
         <v>2020</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2542,40 +2571,41 @@
       <c r="JI4" s="1"/>
       <c r="JJ4" s="1"/>
       <c r="JK4" s="1"/>
+      <c r="JL4" s="1"/>
     </row>
-    <row r="5" ht="46.5" spans="1:271">
+    <row r="5" ht="46.5" spans="1:272">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1">
         <v>2020</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2835,40 +2865,41 @@
       <c r="JI5" s="1"/>
       <c r="JJ5" s="1"/>
       <c r="JK5" s="1"/>
+      <c r="JL5" s="1"/>
     </row>
-    <row r="6" ht="31" spans="1:271">
+    <row r="6" ht="31" spans="1:272">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1">
         <v>2021</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3128,40 +3159,41 @@
       <c r="JI6" s="1"/>
       <c r="JJ6" s="1"/>
       <c r="JK6" s="1"/>
+      <c r="JL6" s="1"/>
     </row>
-    <row r="7" ht="31" spans="1:271">
+    <row r="7" ht="31" spans="1:272">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
         <v>2020</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3421,40 +3453,41 @@
       <c r="JI7" s="1"/>
       <c r="JJ7" s="1"/>
       <c r="JK7" s="1"/>
+      <c r="JL7" s="1"/>
     </row>
-    <row r="8" ht="31" spans="1:271">
+    <row r="8" ht="31" spans="1:272">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1">
         <v>2020</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3714,42 +3747,43 @@
       <c r="JI8" s="1"/>
       <c r="JJ8" s="1"/>
       <c r="JK8" s="1"/>
+      <c r="JL8" s="1"/>
     </row>
-    <row r="9" ht="31" spans="1:271">
+    <row r="9" ht="31" spans="1:272">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1">
         <v>2019</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4009,42 +4043,43 @@
       <c r="JI9" s="1"/>
       <c r="JJ9" s="1"/>
       <c r="JK9" s="1"/>
+      <c r="JL9" s="1"/>
     </row>
-    <row r="10" ht="15.5" spans="1:271">
+    <row r="10" ht="15.5" spans="1:272">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1">
         <v>2018</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4304,40 +4339,41 @@
       <c r="JI10" s="1"/>
       <c r="JJ10" s="1"/>
       <c r="JK10" s="1"/>
+      <c r="JL10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:271">
+    <row r="11" ht="15.5" spans="1:272">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="1">
         <v>2021</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -4597,40 +4633,41 @@
       <c r="JI11" s="1"/>
       <c r="JJ11" s="1"/>
       <c r="JK11" s="1"/>
+      <c r="JL11" s="1"/>
     </row>
-    <row r="12" ht="31" spans="1:271">
-      <c r="A12" s="1">
+    <row r="12" ht="31" spans="1:272">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="1">
         <v>2021</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -4890,40 +4927,41 @@
       <c r="JI12" s="1"/>
       <c r="JJ12" s="1"/>
       <c r="JK12" s="1"/>
+      <c r="JL12" s="1"/>
     </row>
-    <row r="13" ht="31" spans="1:271">
+    <row r="13" ht="31" spans="1:272">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="1">
         <v>2020</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -5183,40 +5221,41 @@
       <c r="JI13" s="1"/>
       <c r="JJ13" s="1"/>
       <c r="JK13" s="1"/>
+      <c r="JL13" s="1"/>
     </row>
-    <row r="14" ht="31" spans="1:271">
+    <row r="14" ht="31" spans="1:272">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="1">
         <v>2022</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -5476,40 +5515,41 @@
       <c r="JI14" s="1"/>
       <c r="JJ14" s="1"/>
       <c r="JK14" s="1"/>
+      <c r="JL14" s="1"/>
     </row>
-    <row r="15" ht="31" spans="1:271">
+    <row r="15" ht="31" spans="1:272">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>34</v>
+      <c r="G15" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="1">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="1">
         <v>2021</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -5769,40 +5809,41 @@
       <c r="JI15" s="1"/>
       <c r="JJ15" s="1"/>
       <c r="JK15" s="1"/>
+      <c r="JL15" s="1"/>
     </row>
-    <row r="16" ht="31" spans="1:271">
+    <row r="16" ht="31" spans="1:272">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="1">
         <v>2023</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6062,38 +6103,39 @@
       <c r="JI16" s="1"/>
       <c r="JJ16" s="1"/>
       <c r="JK16" s="1"/>
+      <c r="JL16" s="1"/>
     </row>
-    <row r="17" ht="31" spans="1:271">
+    <row r="17" ht="31" spans="1:272">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="1">
+        <v>27</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1">
         <v>2023</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -6353,42 +6395,43 @@
       <c r="JI17" s="1"/>
       <c r="JJ17" s="1"/>
       <c r="JK17" s="1"/>
+      <c r="JL17" s="1"/>
     </row>
-    <row r="18" ht="31" spans="1:271">
+    <row r="18" ht="31" spans="1:272">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="1">
         <v>2023</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -6648,40 +6691,41 @@
       <c r="JI18" s="1"/>
       <c r="JJ18" s="1"/>
       <c r="JK18" s="1"/>
+      <c r="JL18" s="1"/>
     </row>
-    <row r="19" ht="31" spans="1:271">
+    <row r="19" ht="31" spans="1:272">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="1">
         <v>2023</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -6941,40 +6985,41 @@
       <c r="JI19" s="1"/>
       <c r="JJ19" s="1"/>
       <c r="JK19" s="1"/>
+      <c r="JL19" s="1"/>
     </row>
-    <row r="20" ht="31" spans="1:271">
+    <row r="20" ht="31" spans="1:272">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="1">
         <v>2021</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7234,38 +7279,39 @@
       <c r="JI20" s="1"/>
       <c r="JJ20" s="1"/>
       <c r="JK20" s="1"/>
+      <c r="JL20" s="1"/>
     </row>
-    <row r="21" ht="31" spans="1:271">
+    <row r="21" ht="31" spans="1:272">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="1">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="1">
         <v>2023</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L21" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -7525,42 +7571,43 @@
       <c r="JI21" s="1"/>
       <c r="JJ21" s="1"/>
       <c r="JK21" s="1"/>
+      <c r="JL21" s="1"/>
     </row>
-    <row r="22" ht="31" spans="1:271">
+    <row r="22" ht="31" spans="1:272">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="1">
         <v>2022</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -7820,42 +7867,43 @@
       <c r="JI22" s="1"/>
       <c r="JJ22" s="1"/>
       <c r="JK22" s="1"/>
+      <c r="JL22" s="1"/>
     </row>
-    <row r="23" ht="31" spans="1:271">
+    <row r="23" ht="31" spans="1:272">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="9" t="s">
         <v>137</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="1">
         <v>2022</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -8115,42 +8163,43 @@
       <c r="JI23" s="1"/>
       <c r="JJ23" s="1"/>
       <c r="JK23" s="1"/>
+      <c r="JL23" s="1"/>
     </row>
-    <row r="24" ht="31" spans="1:271">
+    <row r="24" ht="31" spans="1:272">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="4" t="s">
         <v>142</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="H24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="1">
         <v>2022</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -8410,42 +8459,43 @@
       <c r="JI24" s="1"/>
       <c r="JJ24" s="1"/>
       <c r="JK24" s="1"/>
+      <c r="JL24" s="1"/>
     </row>
-    <row r="25" ht="31" spans="1:271">
+    <row r="25" ht="31" spans="1:272">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10" t="s">
         <v>121</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="1">
         <v>2023</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -8705,42 +8755,43 @@
       <c r="JI25" s="1"/>
       <c r="JJ25" s="1"/>
       <c r="JK25" s="1"/>
+      <c r="JL25" s="1"/>
     </row>
-    <row r="26" ht="31" spans="1:271">
+    <row r="26" ht="31" spans="1:272">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>34</v>
+      <c r="G26" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="1">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="1">
         <v>2021</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -9000,42 +9051,43 @@
       <c r="JI26" s="1"/>
       <c r="JJ26" s="1"/>
       <c r="JK26" s="1"/>
+      <c r="JL26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:271">
+    <row r="27" ht="15.5" spans="1:272">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>34</v>
+      <c r="G27" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" s="1">
+        <v>35</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="1">
         <v>2023</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -9295,42 +9347,43 @@
       <c r="JI27" s="1"/>
       <c r="JJ27" s="1"/>
       <c r="JK27" s="1"/>
+      <c r="JL27" s="1"/>
     </row>
-    <row r="28" ht="31" spans="1:271">
+    <row r="28" ht="31" spans="1:272">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="10" t="s">
         <v>159</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="1">
         <v>2024</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -9590,40 +9643,41 @@
       <c r="JI28" s="1"/>
       <c r="JJ28" s="1"/>
       <c r="JK28" s="1"/>
+      <c r="JL28" s="1"/>
     </row>
-    <row r="29" ht="31" spans="1:271">
+    <row r="29" ht="31" spans="1:272">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>34</v>
+      <c r="G29" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="1">
+        <v>35</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="1">
         <v>2024</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -9883,13 +9937,14 @@
       <c r="JI29" s="1"/>
       <c r="JJ29" s="1"/>
       <c r="JK29" s="1"/>
+      <c r="JL29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:271">
+    <row r="30" ht="15.5" spans="1:272">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -10156,28 +10211,29 @@
       <c r="JI30" s="1"/>
       <c r="JJ30" s="1"/>
       <c r="JK30" s="1"/>
+      <c r="JL30" s="1"/>
     </row>
-    <row r="31" ht="31" spans="1:271">
+    <row r="31" ht="31" spans="1:272">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -10437,15 +10493,16 @@
       <c r="JI31" s="1"/>
       <c r="JJ31" s="1"/>
       <c r="JK31" s="1"/>
+      <c r="JL31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:271">
+    <row r="32" ht="15.5" spans="1:272">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -10710,34 +10767,35 @@
       <c r="JI32" s="1"/>
       <c r="JJ32" s="1"/>
       <c r="JK32" s="1"/>
+      <c r="JL32" s="1"/>
     </row>
-    <row r="33" ht="31" spans="1:271">
+    <row r="33" ht="31" spans="1:272">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" s="1">
+      <c r="G33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="1">
         <v>2024</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10997,34 +11055,35 @@
       <c r="JI33" s="1"/>
       <c r="JJ33" s="1"/>
       <c r="JK33" s="1"/>
+      <c r="JL33" s="1"/>
     </row>
-    <row r="34" ht="31" spans="1:271">
+    <row r="34" ht="31" spans="1:272">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="G34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="1">
         <v>2024</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="K34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -11284,34 +11343,35 @@
       <c r="JI34" s="1"/>
       <c r="JJ34" s="1"/>
       <c r="JK34" s="1"/>
+      <c r="JL34" s="1"/>
     </row>
-    <row r="35" ht="31" spans="1:271">
+    <row r="35" ht="31" spans="1:272">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="1">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J35" s="1">
         <v>2016</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -11571,13 +11631,14 @@
       <c r="JI35" s="1"/>
       <c r="JJ35" s="1"/>
       <c r="JK35" s="1"/>
+      <c r="JL35" s="1"/>
     </row>
-    <row r="36" ht="15.5" spans="1:271">
+    <row r="36" ht="15.5" spans="1:272">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -11844,13 +11905,14 @@
       <c r="JI36" s="1"/>
       <c r="JJ36" s="1"/>
       <c r="JK36" s="1"/>
+      <c r="JL36" s="1"/>
     </row>
-    <row r="37" ht="15.5" spans="1:271">
+    <row r="37" ht="15.5" spans="1:272">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -12117,13 +12179,14 @@
       <c r="JI37" s="1"/>
       <c r="JJ37" s="1"/>
       <c r="JK37" s="1"/>
+      <c r="JL37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:271">
+    <row r="38" ht="15.5" spans="1:272">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -12390,13 +12453,14 @@
       <c r="JI38" s="1"/>
       <c r="JJ38" s="1"/>
       <c r="JK38" s="1"/>
+      <c r="JL38" s="1"/>
     </row>
-    <row r="39" ht="15.5" spans="1:271">
+    <row r="39" ht="15.5" spans="1:272">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -12663,13 +12727,14 @@
       <c r="JI39" s="1"/>
       <c r="JJ39" s="1"/>
       <c r="JK39" s="1"/>
+      <c r="JL39" s="1"/>
     </row>
-    <row r="40" ht="15.5" spans="1:271">
+    <row r="40" ht="15.5" spans="1:272">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -12936,13 +13001,14 @@
       <c r="JI40" s="1"/>
       <c r="JJ40" s="1"/>
       <c r="JK40" s="1"/>
+      <c r="JL40" s="1"/>
     </row>
-    <row r="41" ht="15.5" spans="1:271">
+    <row r="41" ht="15.5" spans="1:272">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -13209,13 +13275,14 @@
       <c r="JI41" s="1"/>
       <c r="JJ41" s="1"/>
       <c r="JK41" s="1"/>
+      <c r="JL41" s="1"/>
     </row>
-    <row r="42" ht="15.5" spans="1:271">
+    <row r="42" ht="15.5" spans="1:272">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -13482,13 +13549,14 @@
       <c r="JI42" s="1"/>
       <c r="JJ42" s="1"/>
       <c r="JK42" s="1"/>
+      <c r="JL42" s="1"/>
     </row>
-    <row r="43" ht="15.5" spans="1:271">
+    <row r="43" ht="15.5" spans="1:272">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -13755,13 +13823,14 @@
       <c r="JI43" s="1"/>
       <c r="JJ43" s="1"/>
       <c r="JK43" s="1"/>
+      <c r="JL43" s="1"/>
     </row>
-    <row r="44" ht="15.5" spans="1:271">
+    <row r="44" ht="15.5" spans="1:272">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -14028,13 +14097,14 @@
       <c r="JI44" s="1"/>
       <c r="JJ44" s="1"/>
       <c r="JK44" s="1"/>
+      <c r="JL44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:271">
+    <row r="45" ht="15.5" spans="1:272">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -14301,8 +14371,9 @@
       <c r="JI45" s="1"/>
       <c r="JJ45" s="1"/>
       <c r="JK45" s="1"/>
+      <c r="JL45" s="1"/>
     </row>
-    <row r="46" ht="15.5" spans="1:10">
+    <row r="46" ht="15.5" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -14313,57 +14384,58 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J35" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K35" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
     </extLst>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
-    <hyperlink ref="F2" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="F4" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="F7" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="F8" r:id="rId4" display="gaoxp@shnu.edu.cn."/>
-    <hyperlink ref="F9" r:id="rId5" display="schaefers@uni-trier.de"/>
-    <hyperlink ref="F10" r:id="rId6" display="mateusz.wozniak@monash.edu"/>
-    <hyperlink ref="F6" r:id="rId7" display="skumar@brookes.ac.uk"/>
-    <hyperlink ref="F11" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
-    <hyperlink ref="F12" r:id="rId9" display="mayanna@post.bgu.ac.il"/>
-    <hyperlink ref="F13" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de"/>
-    <hyperlink ref="F17" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="F25" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
-    <hyperlink ref="F27" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
-    <hyperlink ref="F28" r:id="rId13" display="lfuentes@um.es"/>
-    <hyperlink ref="F31" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
-    <hyperlink ref="F21" r:id="rId15" display="wentura@mx.uni-saarland.de"/>
-    <hyperlink ref="F33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
-    <hyperlink ref="F34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
-    <hyperlink ref="F35" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
-    <hyperlink ref="G2" r:id="rId19" display="https://osf.io/sejw7/"/>
-    <hyperlink ref="G3" r:id="rId20" display="https://osf.io/5zaej/"/>
-    <hyperlink ref="G4" r:id="rId21" display="https://osf.io/4zvkm/"/>
-    <hyperlink ref="G6" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
-    <hyperlink ref="G7" r:id="rId23" display="https://osf.io/khyjq/"/>
-    <hyperlink ref="G8" r:id="rId24" display="https://osf.io/bw27c"/>
-    <hyperlink ref="G9" r:id="rId25" display="http://dx.doi.org/10.23668/psycharchives.2642"/>
-    <hyperlink ref="G10" r:id="rId26" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
-    <hyperlink ref="G11" r:id="rId27" display="https://osf.io/8bktn/"/>
-    <hyperlink ref="G12" r:id="rId28" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="G13" r:id="rId29" display="https://osf.io/3ke4f/"/>
-    <hyperlink ref="G14" r:id="rId30" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="G16" r:id="rId31" display="https://osf.io/4n6j7/"/>
-    <hyperlink ref="G17" r:id="rId32" display="https://zenodo.org/records/8031086"/>
-    <hyperlink ref="G18" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
-    <hyperlink ref="G19" r:id="rId34" display="https://researchdata.bath.ac.uk/924/"/>
-    <hyperlink ref="G20" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
-    <hyperlink ref="G22" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
-    <hyperlink ref="G23" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
-    <hyperlink ref="G24" r:id="rId38" display="https://osf.io/35wp9"/>
-    <hyperlink ref="G25" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
-    <hyperlink ref="G28" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
+    <hyperlink ref="K29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="G2" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="G7" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="G8" r:id="rId4" display="gaoxp@shnu.edu.cn."/>
+    <hyperlink ref="G9" r:id="rId5" display="schaefers@uni-trier.de"/>
+    <hyperlink ref="G10" r:id="rId6" display="mateusz.wozniak@monash.edu"/>
+    <hyperlink ref="G6" r:id="rId7" display="skumar@brookes.ac.uk"/>
+    <hyperlink ref="G11" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
+    <hyperlink ref="G12" r:id="rId9" display="mayanna@post.bgu.ac.il"/>
+    <hyperlink ref="G13" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de"/>
+    <hyperlink ref="G17" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="G25" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
+    <hyperlink ref="G27" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
+    <hyperlink ref="G28" r:id="rId13" display="lfuentes@um.es"/>
+    <hyperlink ref="G31" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
+    <hyperlink ref="G21" r:id="rId15" display="wentura@mx.uni-saarland.de"/>
+    <hyperlink ref="G33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
+    <hyperlink ref="G34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
+    <hyperlink ref="G35" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
+    <hyperlink ref="H2" r:id="rId19" display="https://osf.io/sejw7/"/>
+    <hyperlink ref="H3" r:id="rId20" display="https://osf.io/5zaej/"/>
+    <hyperlink ref="H4" r:id="rId21" display="https://osf.io/4zvkm/"/>
+    <hyperlink ref="H6" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
+    <hyperlink ref="H7" r:id="rId23" display="https://osf.io/khyjq/"/>
+    <hyperlink ref="H8" r:id="rId24" display="https://osf.io/bw27c"/>
+    <hyperlink ref="H9" r:id="rId25" display="http://dx.doi.org/10.23668/psycharchives.2642"/>
+    <hyperlink ref="H10" r:id="rId26" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
+    <hyperlink ref="H11" r:id="rId27" display="https://osf.io/8bktn/"/>
+    <hyperlink ref="H12" r:id="rId28" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="H13" r:id="rId29" display="https://osf.io/3ke4f/"/>
+    <hyperlink ref="H14" r:id="rId30" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="H16" r:id="rId31" display="https://osf.io/4n6j7/"/>
+    <hyperlink ref="H17" r:id="rId32" display="https://zenodo.org/records/8031086"/>
+    <hyperlink ref="H18" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
+    <hyperlink ref="H19" r:id="rId34" display="https://researchdata.bath.ac.uk/924/"/>
+    <hyperlink ref="H20" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
+    <hyperlink ref="H22" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="H23" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
+    <hyperlink ref="H24" r:id="rId38" display="https://osf.io/35wp9"/>
+    <hyperlink ref="H25" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
+    <hyperlink ref="H28" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="184">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,9 @@
     <t>邮件内容</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
   </si>
   <si>
@@ -188,7 +191,7 @@
     <t>Xiangping Gao</t>
   </si>
   <si>
-    <t>gaoxp@shnu.edu.cn.</t>
+    <t>gaoxp@shnu.edu.cn</t>
   </si>
   <si>
     <t>https://osf.io/bw27c</t>
@@ -313,8 +316,7 @@
     <t>Experimental Psychology</t>
   </si>
   <si>
-    <t>More or less of me and you: self-relevance augments the effects 
-of item probability on stimulus prioritization</t>
+    <t>More or less of me and you: self-relevance augments the effects of item probability on stimulus prioritization</t>
   </si>
   <si>
     <t>Saga L. Svensson</t>
@@ -409,8 +411,7 @@
     <t>PSYCHOLOGY</t>
   </si>
   <si>
-    <t>Self-processing in relation to emotion and reward processing in
-depression.</t>
+    <t>Self-processing in relation to emotion and reward processing in depression.</t>
   </si>
   <si>
     <t>Catherine Hobbs</t>
@@ -627,7 +628,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +654,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,7 +811,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,10 +1164,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,37 +1173,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,7 +1215,7 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,10 +1224,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1224,10 +1236,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1236,10 +1248,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,10 +1260,10 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,10 +1272,10 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,8 +1284,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,7 +1313,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1307,7 +1322,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,13 +1654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:JL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1650,14 +1671,14 @@
     <col min="4" max="5" width="52.0833333333333" customWidth="1"/>
     <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
     <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="67.35" customWidth="1"/>
+    <col min="8" max="8" width="27.55" customWidth="1"/>
     <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
     <col min="12" max="12" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:12">
+    <row r="1" ht="15.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,40 +1712,43 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" spans="1:272">
+    <row r="2" ht="15.5" hidden="1" spans="1:272">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1993,34 +2017,36 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1">
         <v>2020</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2281,36 +2307,36 @@
       <c r="JK3" s="1"/>
       <c r="JL3" s="1"/>
     </row>
-    <row r="4" ht="31" spans="1:272">
+    <row r="4" ht="31" hidden="1" spans="1:272">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1">
         <v>2020</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2579,34 +2605,36 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1">
         <v>2020</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2867,38 +2895,38 @@
       <c r="JK5" s="1"/>
       <c r="JL5" s="1"/>
     </row>
-    <row r="6" ht="31" spans="1:272">
+    <row r="6" ht="31" hidden="1" spans="1:272">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1">
         <v>2021</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3167,34 +3195,36 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1">
         <v>2020</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -3461,34 +3491,36 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1">
         <v>2020</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -3754,37 +3786,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="G9" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1">
         <v>2019</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -4050,37 +4084,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J10" s="1">
         <v>2018</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -4341,38 +4377,38 @@
       <c r="JK10" s="1"/>
       <c r="JL10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:272">
+    <row r="11" ht="15.5" hidden="1" spans="1:272">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1">
         <v>2021</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4640,35 +4676,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1">
         <v>2021</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -4935,34 +4973,36 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" s="1">
         <v>2020</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -5229,34 +5269,36 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" s="1">
         <v>2022</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -5523,32 +5565,32 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J15" s="1">
         <v>2021</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -5817,34 +5859,36 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J16" s="1">
         <v>2023</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -6111,32 +6155,34 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1">
         <v>2023</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -6402,37 +6448,39 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J18" s="1">
         <v>2023</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6699,34 +6747,36 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="H19" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -6993,34 +7043,36 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J20" s="1">
         <v>2021</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -7287,32 +7339,34 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
         <v>128</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="J21" s="1">
         <v>2023</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M21" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -7578,37 +7632,39 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J22" s="1">
         <v>2022</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -7874,37 +7930,39 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="9" t="s">
-        <v>137</v>
+      <c r="F23" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J23" s="1">
         <v>2022</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -8170,37 +8228,39 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J24" s="1">
         <v>2022</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -8466,37 +8526,39 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="10" t="s">
-        <v>121</v>
+      <c r="F25" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -8762,37 +8824,39 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J26" s="1">
         <v>2021</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -9058,37 +9122,39 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="10" t="s">
-        <v>154</v>
+      <c r="F27" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -9354,37 +9420,39 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="10" t="s">
-        <v>159</v>
+      <c r="F28" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="H28" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="I28" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J28" s="1">
         <v>2024</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -9651,34 +9719,36 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J29" s="1">
         <v>2024</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M29" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -9939,7 +10009,7 @@
       <c r="JK29" s="1"/>
       <c r="JL29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:272">
+    <row r="30" ht="15.5" hidden="1" spans="1:272">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10213,26 +10283,26 @@
       <c r="JK30" s="1"/>
       <c r="JL30" s="1"/>
     </row>
-    <row r="31" ht="31" spans="1:272">
+    <row r="31" ht="31" hidden="1" spans="1:272">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -10495,7 +10565,7 @@
       <c r="JK31" s="1"/>
       <c r="JL31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:272">
+    <row r="32" ht="15.5" hidden="1" spans="1:272">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -10769,32 +10839,32 @@
       <c r="JK32" s="1"/>
       <c r="JL32" s="1"/>
     </row>
-    <row r="33" ht="31" spans="1:272">
+    <row r="33" ht="31" hidden="1" spans="1:272">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J33" s="1">
         <v>2024</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -11057,32 +11127,32 @@
       <c r="JK33" s="1"/>
       <c r="JL33" s="1"/>
     </row>
-    <row r="34" ht="31" spans="1:272">
+    <row r="34" ht="31" hidden="1" spans="1:272">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J34" s="1">
         <v>2024</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -11345,32 +11415,32 @@
       <c r="JK34" s="1"/>
       <c r="JL34" s="1"/>
     </row>
-    <row r="35" ht="31" spans="1:272">
+    <row r="35" ht="31" hidden="1" spans="1:272">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="10" t="s">
-        <v>154</v>
+      <c r="F35" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J35" s="1">
         <v>2016</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -14388,6 +14458,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K35" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="√"/>
+      </filters>
+    </filterColumn>
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
     </extLst>
@@ -14395,22 +14470,22 @@
   <hyperlinks>
     <hyperlink ref="K29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
     <hyperlink ref="G2" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
     <hyperlink ref="G4" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="G7" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="G8" r:id="rId4" display="gaoxp@shnu.edu.cn."/>
-    <hyperlink ref="G9" r:id="rId5" display="schaefers@uni-trier.de"/>
-    <hyperlink ref="G10" r:id="rId6" display="mateusz.wozniak@monash.edu"/>
+    <hyperlink ref="G7" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
+    <hyperlink ref="G8" r:id="rId4" display="gaoxp@shnu.edu.cn" tooltip="mailto:gaoxp@shnu.edu.cn"/>
+    <hyperlink ref="G9" r:id="rId5" display="schaefers@uni-trier.de" tooltip="mailto:schaefers@uni-trier.de"/>
+    <hyperlink ref="G10" r:id="rId6" display="mateusz.wozniak@monash.edu" tooltip="mailto:mateusz.wozniak@monash.edu"/>
     <hyperlink ref="G6" r:id="rId7" display="skumar@brookes.ac.uk"/>
     <hyperlink ref="G11" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
-    <hyperlink ref="G12" r:id="rId9" display="mayanna@post.bgu.ac.il"/>
-    <hyperlink ref="G13" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de"/>
+    <hyperlink ref="G12" r:id="rId9" display="mayanna@post.bgu.ac.il" tooltip="mailto:mayanna@post.bgu.ac.il"/>
+    <hyperlink ref="G13" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de" tooltip="mailto:gabriela.orellana-corrales@uni-tuebingen.de"/>
     <hyperlink ref="G17" r:id="rId3" display="hcp4715@gmail.com"/>
     <hyperlink ref="G25" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
     <hyperlink ref="G27" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
-    <hyperlink ref="G28" r:id="rId13" display="lfuentes@um.es"/>
+    <hyperlink ref="G28" r:id="rId13" display="lfuentes@um.es" tooltip="mailto:lfuentes@um.es"/>
     <hyperlink ref="G31" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
-    <hyperlink ref="G21" r:id="rId15" display="wentura@mx.uni-saarland.de"/>
+    <hyperlink ref="G21" r:id="rId15" display="wentura@mx.uni-saarland.de" tooltip="mailto:wentura@mx.uni-saarland.de"/>
     <hyperlink ref="G33" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
     <hyperlink ref="G34" r:id="rId17" display="mario.dalmaso@unipd.it"/>
     <hyperlink ref="G35" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
@@ -14429,13 +14504,21 @@
     <hyperlink ref="H16" r:id="rId31" display="https://osf.io/4n6j7/"/>
     <hyperlink ref="H17" r:id="rId32" display="https://zenodo.org/records/8031086"/>
     <hyperlink ref="H18" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
-    <hyperlink ref="H19" r:id="rId34" display="https://researchdata.bath.ac.uk/924/"/>
+    <hyperlink ref="H19" r:id="rId34" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
     <hyperlink ref="H20" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
     <hyperlink ref="H22" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
     <hyperlink ref="H23" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
     <hyperlink ref="H24" r:id="rId38" display="https://osf.io/35wp9"/>
     <hyperlink ref="H25" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
     <hyperlink ref="H28" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
+    <hyperlink ref="G5" r:id="rId41" display="i.r.kolvoort@uva.nl" tooltip="mailto:i.r.kolvoort@uva.nl"/>
+    <hyperlink ref="G14" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
+    <hyperlink ref="G18" r:id="rId43" display="pastoetter@uni-trier.de"/>
+    <hyperlink ref="G19" r:id="rId44" display="c.hobbs@bath.ac.uk"/>
+    <hyperlink ref="G22" r:id="rId45" display="michele.vicovaro@unipd.it"/>
+    <hyperlink ref="G23" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
+    <hyperlink ref="G24" r:id="rId47" display="mgwozniak@gmail.com"/>
+    <hyperlink ref="G29" r:id="rId48" display="letizia.amodeo@ugent.be"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
   <si>
     <t>ID</t>
   </si>
@@ -68,7 +68,10 @@
     <t>邮件内容</t>
   </si>
   <si>
-    <t>状态</t>
+    <t>发送状态</t>
+  </si>
+  <si>
+    <t>回复</t>
   </si>
   <si>
     <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
@@ -493,6 +496,9 @@
   </si>
   <si>
     <t>BMC Psychology</t>
+  </si>
+  <si>
+    <t>mid-2025 back</t>
   </si>
   <si>
     <t>Self‑prioritization depends on assumed task‑relevance of self‑association</t>
@@ -1657,10 +1663,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:JL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M26" sqref="M26"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1672,13 +1678,14 @@
     <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
     <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="27.55" customWidth="1"/>
-    <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="23.4166666666667" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="67.0833333333333" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="34.125" customWidth="1"/>
+    <col min="14" max="14" width="13.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:13">
+    <row r="1" ht="15.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,6 +1724,9 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="15.5" hidden="1" spans="1:272">
@@ -1726,29 +1736,29 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2017,35 +2027,35 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1">
         <v>2020</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2314,29 +2324,29 @@
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1">
         <v>2020</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2605,37 +2615,39 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1">
         <v>2020</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.6</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -2900,33 +2912,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1">
         <v>2021</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3195,35 +3207,35 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1">
         <v>2020</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3491,35 +3503,35 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1">
         <v>2020</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3786,38 +3798,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="H9" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1">
         <v>2019</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4084,38 +4096,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" s="1">
         <v>2018</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4382,33 +4394,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1">
         <v>2021</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4676,38 +4688,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" s="1">
         <v>2021</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -4973,35 +4987,35 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="H13" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" s="1">
         <v>2020</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -5269,35 +5283,35 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J14" s="1">
         <v>2022</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -5565,32 +5579,32 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1">
         <v>2021</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -5859,35 +5873,35 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" s="1">
         <v>2023</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6155,33 +6169,33 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1">
         <v>2023</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -6448,38 +6462,38 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J18" s="1">
         <v>2023</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -6747,35 +6761,35 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="G19" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="H19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -7043,35 +7057,35 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J20" s="1">
         <v>2021</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7339,33 +7353,33 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J21" s="1">
         <v>2023</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -7632,38 +7646,38 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J22" s="1">
         <v>2022</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -7930,40 +7944,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J23" s="1">
         <v>2022</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -8228,38 +8244,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J24" s="1">
         <v>2022</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -8526,38 +8542,38 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -8824,38 +8840,38 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J26" s="1">
         <v>2021</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -9122,38 +9138,38 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -9420,38 +9436,38 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J28" s="1">
         <v>2024</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -9719,35 +9735,35 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J29" s="1">
         <v>2024</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -10287,22 +10303,22 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -10844,27 +10860,27 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J33" s="1">
         <v>2024</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -11132,27 +11148,27 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J34" s="1">
         <v>2024</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -11420,27 +11436,27 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J35" s="1">
         <v>2016</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -14459,9 +14475,9 @@
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K35" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="2">
-      <filters>
-        <filter val="√"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="√"/>
+      </customFilters>
     </filterColumn>
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$K$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="207">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,9 @@
     <t>回复</t>
   </si>
   <si>
+    <t>Co-Author</t>
+  </si>
+  <si>
     <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t>Sticking together? Re-binding previous other-associated stimuli interferes with self-verification but not partner-verification</t>
   </si>
   <si>
+    <t>Merryn D. Constable, Fruzsina Elekes, Natalie Sebanz, and Günther Knoblich</t>
+  </si>
+  <si>
     <t>https://osf.io/5zaej/</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
     <t>Temporal integration as “common currency” of brain and self-scale-free activity in resting-state EEG correlates with temporal delay effects on self-relatedness</t>
   </si>
   <si>
+    <t>Ivar R. Kolvoort,Soren Wainio-Theberge,Annemarie Wolff,Georg Northoff</t>
+  </si>
+  <si>
     <t>Ivar R. Kolvoort</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
     <t>Affective compatibility with the self modulates the self-prioritisation effect</t>
   </si>
   <si>
+    <t>Merryn Dale Constable , Maike Lena Becker , Ye-In Oh &amp; Günther Knoblich</t>
+  </si>
+  <si>
     <t>Merryn Dale Constable</t>
   </si>
   <si>
@@ -191,6 +203,9 @@
     <t>Prioritised self-referential processing is modulated by emotional arousal</t>
   </si>
   <si>
+    <t>Haoyue Qian, Zhiguo Wang, Chao Li, Xiangping Gao</t>
+  </si>
+  <si>
     <t>Xiangping Gao</t>
   </si>
   <si>
@@ -210,6 +225,9 @@
   </si>
   <si>
     <t>Understanding self-prioritisation: the prioritisation of self-relevant stimuli and its relation to the individual self-esteem</t>
+  </si>
+  <si>
+    <t>Sarah Schäfer and Christian Frings</t>
   </si>
   <si>
     <t>Sarah Schäfer</t>
@@ -250,6 +268,9 @@
     <t>Prioritization of arbitrary faces associated to self: An EEG study</t>
   </si>
   <si>
+    <t>Mateusz Woźniak, Dimitrios Kourtis, Gunther Knoblich</t>
+  </si>
+  <si>
     <t>Mateusz Wozniak</t>
   </si>
   <si>
@@ -289,6 +310,9 @@
     <t>Are Self-Related Items Unique? The Self-Prioritization Effect Revisited</t>
   </si>
   <si>
+    <t>Mayan Navon, Tal Makovski</t>
+  </si>
+  <si>
     <t>Mayan Navon</t>
   </si>
   <si>
@@ -301,9 +325,16 @@
     <t>Navon &amp; Makovski</t>
   </si>
   <si>
+    <t>Tal Makovski
+Mayan Navon</t>
+  </si>
+  <si>
     <t>Does Self-Associating a Geometric Shape Immediately Cause Attentional Prioritization?</t>
   </si>
   <si>
+    <t>Gabriela Orellana-Corrales, Christina Matschke, Ann-Katrin Wesslein</t>
+  </si>
+  <si>
     <t>Gabriela Orellana-Corrales</t>
   </si>
   <si>
@@ -322,6 +353,9 @@
     <t>More or less of me and you: self-relevance augments the effects of item probability on stimulus prioritization</t>
   </si>
   <si>
+    <t>Saga L. Svensson, Marius Golubickis, Hollie Maclean, Johanna K. Falbén, Linn M. Persson, Dimitra Tsamadi, Siobhan Caughey, Arash Sahraie, C. Neil Macrae</t>
+  </si>
+  <si>
     <t>Saga L. Svensson</t>
   </si>
   <si>
@@ -338,6 +372,9 @@
   </si>
   <si>
     <t>Romantic feedbacks influence self-relevant processing: the moderating effects of sex difference and facial attractiveness</t>
+  </si>
+  <si>
+    <t>Yang Xu, Yuan Yuan, Xiaochun Xie, Hui Tan, Lili Guan</t>
   </si>
   <si>
     <t>Lili Guan</t>
@@ -375,6 +412,9 @@
     <t>To see or not to see: the parallel processing of self-relevance and facial expressions</t>
   </si>
   <si>
+    <t>Tuo Liu, Jie Sui and Andrea Hildebrandt</t>
+  </si>
+  <si>
     <t>Tuo Liu</t>
   </si>
   <si>
@@ -393,6 +433,9 @@
     <t>Self-referencing prioritizes moral character on perceptual matching</t>
   </si>
   <si>
+    <t>Hu Chuan-Peng, Kaiping Peng, Jie Sui</t>
+  </si>
+  <si>
     <t>https://zenodo.org/records/8031086</t>
   </si>
   <si>
@@ -480,6 +523,11 @@
     <t>Journal of Experimental Psychology: Human Perception and Performance</t>
   </si>
   <si>
+    <t>Mario Dalmaso (Department of Social and Developmental Psychology, University of Padova)
+Marco Bertamini (Department of General Psychology, University of Padova)
+Michele Vicovaro</t>
+  </si>
+  <si>
     <t>How selves difer within and across cognitive domains: self-prioritisation, self-concept, and psychiatric traits</t>
   </si>
   <si>
@@ -622,6 +670,24 @@
   </si>
   <si>
     <t>Journal of Experimental Psychology:Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>Examining the dorsolateral and ventromedial prefrontal cortex involvement in the self-attention network: A randomized, sham-controlled, parallel group, double-blind, and multichannel HD-tDCS study.</t>
+  </si>
+  <si>
+    <t>Víctor Martínez-Pérez</t>
+  </si>
+  <si>
+    <t>victor.martinez5@um.es</t>
+  </si>
+  <si>
+    <t>Socio-cognitive training impacts emotional and perceptual self-salience but not self-other distinction.</t>
+  </si>
+  <si>
+    <t>Henryk Bukowski</t>
+  </si>
+  <si>
+    <t>hbbukowski@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1336,6 +1402,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1660,13 +1729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:JL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <selection pane="topRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1678,14 +1747,15 @@
     <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
     <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="27.55" customWidth="1"/>
-    <col min="9" max="9" width="23.4166666666667" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="67.0833333333333" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
     <col min="12" max="12" width="34.125" customWidth="1"/>
     <col min="14" max="14" width="13.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="75.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:14">
+    <row r="1" ht="15.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,37 +1798,40 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" hidden="1" spans="1:272">
+    <row r="2" ht="15.5" spans="1:272">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2027,35 +2100,37 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>2020</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2317,36 +2392,36 @@
       <c r="JK3" s="1"/>
       <c r="JL3" s="1"/>
     </row>
-    <row r="4" ht="31" hidden="1" spans="1:272">
+    <row r="4" ht="31" spans="1:272">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1">
         <v>2020</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2615,35 +2690,37 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1">
         <v>2020</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1">
         <v>1.6</v>
@@ -2907,38 +2984,38 @@
       <c r="JK5" s="1"/>
       <c r="JL5" s="1"/>
     </row>
-    <row r="6" ht="31" hidden="1" spans="1:272">
+    <row r="6" ht="31" spans="1:272">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1">
         <v>2021</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3207,35 +3284,37 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1">
         <v>2020</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3503,35 +3582,37 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1">
         <v>2020</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3798,38 +3879,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1">
         <v>2019</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4096,38 +4179,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1">
         <v>2018</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="M10" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4389,38 +4474,38 @@
       <c r="JK10" s="1"/>
       <c r="JL10" s="1"/>
     </row>
-    <row r="11" ht="15.5" hidden="1" spans="1:272">
+    <row r="11" ht="15.5" spans="1:272">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1">
         <v>2021</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4688,41 +4773,45 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1">
         <v>2021</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -4987,35 +5076,37 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1">
         <v>2020</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -5277,41 +5368,43 @@
       <c r="JK13" s="1"/>
       <c r="JL13" s="1"/>
     </row>
-    <row r="14" ht="31" spans="1:272">
+    <row r="14" ht="46.5" spans="1:272">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J14" s="1">
         <v>2022</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -5579,34 +5672,38 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J15" s="1">
         <v>2021</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -5873,35 +5970,37 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J16" s="1">
         <v>2023</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6169,33 +6268,35 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1">
         <v>2023</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -6462,38 +6563,38 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="J18" s="1">
         <v>2023</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -6761,35 +6862,35 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -7057,35 +7158,35 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J20" s="1">
         <v>2021</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7353,33 +7454,33 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J21" s="1">
         <v>2023</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -7641,46 +7742,50 @@
       <c r="JK21" s="1"/>
       <c r="JL21" s="1"/>
     </row>
-    <row r="22" ht="31" spans="1:272">
+    <row r="22" ht="46.5" spans="1:272">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J22" s="1">
         <v>2022</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -7944,41 +8049,41 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J23" s="1">
         <v>2022</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -8244,38 +8349,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J24" s="1">
         <v>2022</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -8542,38 +8647,38 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="11" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -8840,38 +8945,38 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J26" s="1">
         <v>2021</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -9138,38 +9243,38 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="11" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -9436,38 +9541,38 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="11" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J28" s="1">
         <v>2024</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -9735,35 +9840,35 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J29" s="1">
         <v>2024</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -10025,8 +10130,10 @@
       <c r="JK29" s="1"/>
       <c r="JL29" s="1"/>
     </row>
-    <row r="30" ht="15.5" hidden="1" spans="1:272">
-      <c r="A30" s="1"/>
+    <row r="30" ht="15.5" spans="1:272">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
@@ -10299,26 +10406,28 @@
       <c r="JK30" s="1"/>
       <c r="JL30" s="1"/>
     </row>
-    <row r="31" ht="31" hidden="1" spans="1:272">
-      <c r="A31" s="1"/>
+    <row r="31" ht="31" spans="1:272">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -10581,8 +10690,10 @@
       <c r="JK31" s="1"/>
       <c r="JL31" s="1"/>
     </row>
-    <row r="32" ht="15.5" hidden="1" spans="1:272">
-      <c r="A32" s="1"/>
+    <row r="32" ht="15.5" spans="1:272">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -10855,32 +10966,34 @@
       <c r="JK32" s="1"/>
       <c r="JL32" s="1"/>
     </row>
-    <row r="33" ht="31" hidden="1" spans="1:272">
-      <c r="A33" s="1"/>
+    <row r="33" ht="31" spans="1:272">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="J33" s="1">
         <v>2024</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -11143,32 +11256,34 @@
       <c r="JK33" s="1"/>
       <c r="JL33" s="1"/>
     </row>
-    <row r="34" ht="31" hidden="1" spans="1:272">
-      <c r="A34" s="1"/>
+    <row r="34" ht="31" spans="1:272">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J34" s="1">
         <v>2024</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -11431,32 +11546,34 @@
       <c r="JK34" s="1"/>
       <c r="JL34" s="1"/>
     </row>
-    <row r="35" ht="31" hidden="1" spans="1:272">
-      <c r="A35" s="1"/>
+    <row r="35" ht="31" spans="1:272">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="11" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="J35" s="1">
         <v>2016</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -11719,20 +11836,34 @@
       <c r="JK35" s="1"/>
       <c r="JL35" s="1"/>
     </row>
-    <row r="36" ht="15.5" spans="1:272">
-      <c r="A36" s="1"/>
+    <row r="36" ht="62" spans="1:272">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -11993,20 +12124,34 @@
       <c r="JK36" s="1"/>
       <c r="JL36" s="1"/>
     </row>
-    <row r="37" ht="15.5" spans="1:272">
-      <c r="A37" s="1"/>
+    <row r="37" ht="31" spans="1:272">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -14473,12 +14618,7 @@
       <c r="K46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K35" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="√"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K37" etc:filterBottomFollowUsedRange="0">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
     </extLst>
@@ -14535,6 +14675,9 @@
     <hyperlink ref="G23" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
     <hyperlink ref="G24" r:id="rId47" display="mgwozniak@gmail.com"/>
     <hyperlink ref="G29" r:id="rId48" display="letizia.amodeo@ugent.be"/>
+    <hyperlink ref="G36" r:id="rId49" display="victor.martinez5@um.es"/>
+    <hyperlink ref="G37" r:id="rId50" display="hbbukowski@gmail.com"/>
+    <hyperlink ref="G15" r:id="rId51" display="guanll353@nenu.edu.cn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$Q$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -71,7 +71,10 @@
     <t>发送状态</t>
   </si>
   <si>
-    <t>回复</t>
+    <t>对方回复</t>
+  </si>
+  <si>
+    <t>我方回复</t>
   </si>
   <si>
     <t>Co-Author</t>
@@ -430,6 +433,9 @@
     <t>Cognitive Research: Principles and Implications</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>Self-referencing prioritizes moral character on perceptual matching</t>
   </si>
   <si>
@@ -455,6 +461,11 @@
   </si>
   <si>
     <t>PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t>Christian Frings
+Marius Golubickis
+Bernhard Pastötter</t>
   </si>
   <si>
     <t>Self-processing in relation to emotion and reward processing in depression.</t>
@@ -526,6 +537,10 @@
     <t>Mario Dalmaso (Department of Social and Developmental Psychology, University of Padova)
 Marco Bertamini (Department of General Psychology, University of Padova)
 Michele Vicovaro</t>
+  </si>
+  <si>
+    <t>Sarah Schäfer
+Marius Golubickis</t>
   </si>
   <si>
     <t>How selves difer within and across cognitive domains: self-prioritisation, self-concept, and psychiatric traits</t>
@@ -1729,13 +1744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:JL46"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:JM46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E36" sqref="E36"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1748,14 +1763,16 @@
     <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="27.55" customWidth="1"/>
     <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="34.125" customWidth="1"/>
+    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="67.0833333333333" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="34.125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13.8333333333333" customWidth="1"/>
-    <col min="15" max="15" width="75.5" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="16" max="16" width="75.5" customWidth="1"/>
+    <col min="17" max="17" width="16.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:15">
+    <row r="1" ht="15.5" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,37 +1818,40 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" spans="1:272">
+    <row r="2" ht="15.5" hidden="1" spans="1:273">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2093,44 +2113,45 @@
       <c r="JJ2" s="1"/>
       <c r="JK2" s="1"/>
       <c r="JL2" s="1"/>
+      <c r="JM2" s="1"/>
     </row>
-    <row r="3" ht="31" spans="1:272">
+    <row r="3" ht="31" hidden="1" spans="1:273">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1">
         <v>2020</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2391,37 +2412,38 @@
       <c r="JJ3" s="1"/>
       <c r="JK3" s="1"/>
       <c r="JL3" s="1"/>
+      <c r="JM3" s="1"/>
     </row>
-    <row r="4" ht="31" spans="1:272">
+    <row r="4" ht="31" hidden="1" spans="1:273">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1">
         <v>2020</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2683,44 +2705,45 @@
       <c r="JJ4" s="1"/>
       <c r="JK4" s="1"/>
       <c r="JL4" s="1"/>
+      <c r="JM4" s="1"/>
     </row>
-    <row r="5" ht="46.5" spans="1:272">
+    <row r="5" ht="46.5" hidden="1" spans="1:273">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1">
         <v>2020</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1">
         <v>1.6</v>
@@ -2983,39 +3006,40 @@
       <c r="JJ5" s="1"/>
       <c r="JK5" s="1"/>
       <c r="JL5" s="1"/>
+      <c r="JM5" s="1"/>
     </row>
-    <row r="6" ht="31" spans="1:272">
+    <row r="6" ht="31" hidden="1" spans="1:273">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1">
         <v>2021</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3277,44 +3301,45 @@
       <c r="JJ6" s="1"/>
       <c r="JK6" s="1"/>
       <c r="JL6" s="1"/>
+      <c r="JM6" s="1"/>
     </row>
-    <row r="7" ht="31" spans="1:272">
+    <row r="7" ht="31" hidden="1" spans="1:273">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1">
         <v>2020</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3575,44 +3600,45 @@
       <c r="JJ7" s="1"/>
       <c r="JK7" s="1"/>
       <c r="JL7" s="1"/>
+      <c r="JM7" s="1"/>
     </row>
-    <row r="8" ht="31" spans="1:272">
+    <row r="8" ht="31" hidden="1" spans="1:273">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1">
         <v>2020</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3873,46 +3899,47 @@
       <c r="JJ8" s="1"/>
       <c r="JK8" s="1"/>
       <c r="JL8" s="1"/>
+      <c r="JM8" s="1"/>
     </row>
-    <row r="9" ht="31" spans="1:272">
+    <row r="9" ht="31" hidden="1" spans="1:273">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1">
         <v>2019</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4173,48 +4200,51 @@
       <c r="JJ9" s="1"/>
       <c r="JK9" s="1"/>
       <c r="JL9" s="1"/>
+      <c r="JM9" s="1"/>
     </row>
-    <row r="10" ht="15.5" spans="1:272">
+    <row r="10" ht="15.5" spans="1:273">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="H10" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1">
         <v>2018</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -4473,39 +4503,40 @@
       <c r="JJ10" s="1"/>
       <c r="JK10" s="1"/>
       <c r="JL10" s="1"/>
+      <c r="JM10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:272">
+    <row r="11" ht="15.5" hidden="1" spans="1:273">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1">
         <v>2021</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4767,52 +4798,55 @@
       <c r="JJ11" s="1"/>
       <c r="JK11" s="1"/>
       <c r="JL11" s="1"/>
+      <c r="JM11" s="1"/>
     </row>
-    <row r="12" ht="31" spans="1:272">
+    <row r="12" ht="31" hidden="1" spans="1:273">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J12" s="1">
         <v>2021</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -5069,44 +5103,45 @@
       <c r="JJ12" s="1"/>
       <c r="JK12" s="1"/>
       <c r="JL12" s="1"/>
+      <c r="JM12" s="1"/>
     </row>
-    <row r="13" ht="31" spans="1:272">
+    <row r="13" ht="31" hidden="1" spans="1:273">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1">
         <v>2020</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -5367,44 +5402,45 @@
       <c r="JJ13" s="1"/>
       <c r="JK13" s="1"/>
       <c r="JL13" s="1"/>
+      <c r="JM13" s="1"/>
     </row>
-    <row r="14" ht="46.5" spans="1:272">
+    <row r="14" ht="46.5" hidden="1" spans="1:273">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J14" s="1">
         <v>2022</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -5665,47 +5701,52 @@
       <c r="JJ14" s="1"/>
       <c r="JK14" s="1"/>
       <c r="JL14" s="1"/>
+      <c r="JM14" s="1"/>
     </row>
-    <row r="15" ht="31" spans="1:272">
+    <row r="15" ht="31" hidden="1" spans="1:273">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J15" s="1">
         <v>2021</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -5963,46 +6004,49 @@
       <c r="JJ15" s="1"/>
       <c r="JK15" s="1"/>
       <c r="JL15" s="1"/>
+      <c r="JM15" s="1"/>
     </row>
-    <row r="16" ht="31" spans="1:272">
+    <row r="16" ht="31" hidden="1" spans="1:273">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J16" s="1">
         <v>2023</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -6261,44 +6305,47 @@
       <c r="JJ16" s="1"/>
       <c r="JK16" s="1"/>
       <c r="JL16" s="1"/>
+      <c r="JM16" s="1"/>
     </row>
-    <row r="17" ht="31" spans="1:272">
+    <row r="17" ht="31" hidden="1" spans="1:273">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1">
         <v>2023</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -6557,48 +6604,53 @@
       <c r="JJ17" s="1"/>
       <c r="JK17" s="1"/>
       <c r="JL17" s="1"/>
+      <c r="JM17" s="1"/>
     </row>
-    <row r="18" ht="31" spans="1:272">
+    <row r="18" ht="46.5" hidden="1" spans="1:273">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J18" s="1">
         <v>2023</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -6855,44 +6907,47 @@
       <c r="JJ18" s="1"/>
       <c r="JK18" s="1"/>
       <c r="JL18" s="1"/>
+      <c r="JM18" s="1"/>
     </row>
-    <row r="19" ht="31" spans="1:272">
+    <row r="19" ht="31" hidden="1" spans="1:273">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -7151,42 +7206,43 @@
       <c r="JJ19" s="1"/>
       <c r="JK19" s="1"/>
       <c r="JL19" s="1"/>
+      <c r="JM19" s="1"/>
     </row>
-    <row r="20" ht="31" spans="1:272">
+    <row r="20" ht="31" hidden="1" spans="1:273">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J20" s="1">
         <v>2021</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7447,40 +7503,41 @@
       <c r="JJ20" s="1"/>
       <c r="JK20" s="1"/>
       <c r="JL20" s="1"/>
+      <c r="JM20" s="1"/>
     </row>
-    <row r="21" ht="31" spans="1:272">
+    <row r="21" ht="31" hidden="1" spans="1:273">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J21" s="1">
         <v>2023</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -7741,53 +7798,56 @@
       <c r="JJ21" s="1"/>
       <c r="JK21" s="1"/>
       <c r="JL21" s="1"/>
+      <c r="JM21" s="1"/>
     </row>
-    <row r="22" ht="46.5" spans="1:272">
+    <row r="22" ht="46.5" hidden="1" spans="1:273">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J22" s="1">
         <v>2022</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -8043,47 +8103,48 @@
       <c r="JJ22" s="1"/>
       <c r="JK22" s="1"/>
       <c r="JL22" s="1"/>
+      <c r="JM22" s="1"/>
     </row>
-    <row r="23" ht="31" spans="1:272">
+    <row r="23" ht="31" hidden="1" spans="1:273">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J23" s="1">
         <v>2022</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -8343,46 +8404,49 @@
       <c r="JJ23" s="1"/>
       <c r="JK23" s="1"/>
       <c r="JL23" s="1"/>
+      <c r="JM23" s="1"/>
     </row>
-    <row r="24" ht="31" spans="1:272">
+    <row r="24" ht="31" spans="1:273">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" s="1">
         <v>2022</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -8641,46 +8705,49 @@
       <c r="JJ24" s="1"/>
       <c r="JK24" s="1"/>
       <c r="JL24" s="1"/>
+      <c r="JM24" s="1"/>
     </row>
-    <row r="25" ht="31" spans="1:272">
+    <row r="25" ht="31" hidden="1" spans="1:273">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -8939,44 +9006,45 @@
       <c r="JJ25" s="1"/>
       <c r="JK25" s="1"/>
       <c r="JL25" s="1"/>
+      <c r="JM25" s="1"/>
     </row>
-    <row r="26" ht="31" spans="1:272">
+    <row r="26" ht="31" hidden="1" spans="1:273">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J26" s="1">
         <v>2021</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -9237,46 +9305,49 @@
       <c r="JJ26" s="1"/>
       <c r="JK26" s="1"/>
       <c r="JL26" s="1"/>
+      <c r="JM26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:272">
+    <row r="27" ht="15.5" hidden="1" spans="1:273">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -9535,44 +9606,45 @@
       <c r="JJ27" s="1"/>
       <c r="JK27" s="1"/>
       <c r="JL27" s="1"/>
+      <c r="JM27" s="1"/>
     </row>
-    <row r="28" ht="31" spans="1:272">
+    <row r="28" ht="31" hidden="1" spans="1:273">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J28" s="1">
         <v>2024</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -9833,42 +9905,43 @@
       <c r="JJ28" s="1"/>
       <c r="JK28" s="1"/>
       <c r="JL28" s="1"/>
+      <c r="JM28" s="1"/>
     </row>
-    <row r="29" ht="31" spans="1:272">
+    <row r="29" ht="31" hidden="1" spans="1:273">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J29" s="1">
         <v>2024</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -10129,8 +10202,9 @@
       <c r="JJ29" s="1"/>
       <c r="JK29" s="1"/>
       <c r="JL29" s="1"/>
+      <c r="JM29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:272">
+    <row r="30" ht="15.5" hidden="1" spans="1:273">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10405,29 +10479,30 @@
       <c r="JJ30" s="1"/>
       <c r="JK30" s="1"/>
       <c r="JL30" s="1"/>
+      <c r="JM30" s="1"/>
     </row>
-    <row r="31" ht="31" spans="1:272">
+    <row r="31" ht="31" hidden="1" spans="1:273">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -10689,8 +10764,9 @@
       <c r="JJ31" s="1"/>
       <c r="JK31" s="1"/>
       <c r="JL31" s="1"/>
+      <c r="JM31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:272">
+    <row r="32" ht="15.5" hidden="1" spans="1:273">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10965,35 +11041,36 @@
       <c r="JJ32" s="1"/>
       <c r="JK32" s="1"/>
       <c r="JL32" s="1"/>
+      <c r="JM32" s="1"/>
     </row>
-    <row r="33" ht="31" spans="1:272">
+    <row r="33" ht="31" hidden="1" spans="1:273">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J33" s="1">
         <v>2024</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -11255,35 +11332,36 @@
       <c r="JJ33" s="1"/>
       <c r="JK33" s="1"/>
       <c r="JL33" s="1"/>
+      <c r="JM33" s="1"/>
     </row>
-    <row r="34" ht="31" spans="1:272">
+    <row r="34" ht="31" hidden="1" spans="1:273">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J34" s="1">
         <v>2024</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -11545,35 +11623,36 @@
       <c r="JJ34" s="1"/>
       <c r="JK34" s="1"/>
       <c r="JL34" s="1"/>
+      <c r="JM34" s="1"/>
     </row>
-    <row r="35" ht="31" spans="1:272">
+    <row r="35" ht="31" hidden="1" spans="1:273">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J35" s="1">
         <v>2016</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -11835,34 +11914,35 @@
       <c r="JJ35" s="1"/>
       <c r="JK35" s="1"/>
       <c r="JL35" s="1"/>
+      <c r="JM35" s="1"/>
     </row>
-    <row r="36" ht="62" spans="1:272">
+    <row r="36" ht="62" hidden="1" spans="1:273">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -12123,34 +12203,35 @@
       <c r="JJ36" s="1"/>
       <c r="JK36" s="1"/>
       <c r="JL36" s="1"/>
+      <c r="JM36" s="1"/>
     </row>
-    <row r="37" ht="31" spans="1:272">
+    <row r="37" ht="31" hidden="1" spans="1:273">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -12411,8 +12492,9 @@
       <c r="JJ37" s="1"/>
       <c r="JK37" s="1"/>
       <c r="JL37" s="1"/>
+      <c r="JM37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:272">
+    <row r="38" ht="15.5" spans="1:273">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -12685,8 +12767,9 @@
       <c r="JJ38" s="1"/>
       <c r="JK38" s="1"/>
       <c r="JL38" s="1"/>
+      <c r="JM38" s="1"/>
     </row>
-    <row r="39" ht="15.5" spans="1:272">
+    <row r="39" ht="15.5" spans="1:273">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -12959,8 +13042,9 @@
       <c r="JJ39" s="1"/>
       <c r="JK39" s="1"/>
       <c r="JL39" s="1"/>
+      <c r="JM39" s="1"/>
     </row>
-    <row r="40" ht="15.5" spans="1:272">
+    <row r="40" ht="15.5" spans="1:273">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -13233,8 +13317,9 @@
       <c r="JJ40" s="1"/>
       <c r="JK40" s="1"/>
       <c r="JL40" s="1"/>
+      <c r="JM40" s="1"/>
     </row>
-    <row r="41" ht="15.5" spans="1:272">
+    <row r="41" ht="15.5" spans="1:273">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -13507,8 +13592,9 @@
       <c r="JJ41" s="1"/>
       <c r="JK41" s="1"/>
       <c r="JL41" s="1"/>
+      <c r="JM41" s="1"/>
     </row>
-    <row r="42" ht="15.5" spans="1:272">
+    <row r="42" ht="15.5" spans="1:273">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13781,8 +13867,9 @@
       <c r="JJ42" s="1"/>
       <c r="JK42" s="1"/>
       <c r="JL42" s="1"/>
+      <c r="JM42" s="1"/>
     </row>
-    <row r="43" ht="15.5" spans="1:272">
+    <row r="43" ht="15.5" spans="1:273">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -14055,8 +14142,9 @@
       <c r="JJ43" s="1"/>
       <c r="JK43" s="1"/>
       <c r="JL43" s="1"/>
+      <c r="JM43" s="1"/>
     </row>
-    <row r="44" ht="15.5" spans="1:272">
+    <row r="44" ht="15.5" spans="1:273">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -14329,8 +14417,9 @@
       <c r="JJ44" s="1"/>
       <c r="JK44" s="1"/>
       <c r="JL44" s="1"/>
+      <c r="JM44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:272">
+    <row r="45" ht="15.5" spans="1:273">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -14603,6 +14692,7 @@
       <c r="JJ45" s="1"/>
       <c r="JK45" s="1"/>
       <c r="JL45" s="1"/>
+      <c r="JM45" s="1"/>
     </row>
     <row r="46" ht="15.5" spans="1:11">
       <c r="A46" s="1"/>
@@ -14618,10 +14708,18 @@
       <c r="K46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K37" etc:filterBottomFollowUsedRange="0">
-    <extLst>
-      <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
-    </extLst>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q37" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="√"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Mateusz Wozniak"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="K29" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -341,7 +341,7 @@
     <t>Gabriela Orellana-Corrales</t>
   </si>
   <si>
-    <t>gabriela.orellana-corrales@uni-tuebingen.de</t>
+    <t>gabyorellanac@gmail.com</t>
   </si>
   <si>
     <t>https://osf.io/3ke4f/</t>
@@ -474,7 +474,7 @@
     <t>Catherine Hobbs</t>
   </si>
   <si>
-    <t>c.hobbs@bath.ac.uk</t>
+    <t>c.hobbs@bristol.ac.uk;</t>
   </si>
   <si>
     <t>https://researchdata.bath.ac.uk/924/</t>
@@ -1375,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1417,9 +1417,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1747,10 +1744,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:JM46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+      <selection pane="topRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2115,7 +2112,7 @@
       <c r="JL2" s="1"/>
       <c r="JM2" s="1"/>
     </row>
-    <row r="3" ht="31" hidden="1" spans="1:273">
+    <row r="3" ht="31" spans="1:273">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2150,7 +2147,7 @@
       <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="1"/>
@@ -2445,7 +2442,7 @@
       <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2707,7 +2704,7 @@
       <c r="JL4" s="1"/>
       <c r="JM4" s="1"/>
     </row>
-    <row r="5" ht="46.5" hidden="1" spans="1:273">
+    <row r="5" ht="46.5" spans="1:273">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2742,11 +2739,11 @@
       <c r="L5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="1">
-        <v>1.6</v>
+      <c r="N5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -3041,7 +3038,7 @@
       <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -3303,7 +3300,7 @@
       <c r="JL6" s="1"/>
       <c r="JM6" s="1"/>
     </row>
-    <row r="7" ht="31" hidden="1" spans="1:273">
+    <row r="7" ht="31" spans="1:273">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3338,7 +3335,7 @@
       <c r="L7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="1"/>
@@ -3602,7 +3599,7 @@
       <c r="JL7" s="1"/>
       <c r="JM7" s="1"/>
     </row>
-    <row r="8" ht="31" hidden="1" spans="1:273">
+    <row r="8" ht="31" spans="1:273">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3637,11 +3634,15 @@
       <c r="L8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3901,7 +3902,7 @@
       <c r="JL8" s="1"/>
       <c r="JM8" s="1"/>
     </row>
-    <row r="9" ht="31" hidden="1" spans="1:273">
+    <row r="9" ht="31" spans="1:273">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4239,10 +4240,10 @@
       <c r="L10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O10" s="1"/>
@@ -4538,8 +4539,8 @@
       <c r="L11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -4800,7 +4801,7 @@
       <c r="JL11" s="1"/>
       <c r="JM11" s="1"/>
     </row>
-    <row r="12" ht="31" hidden="1" spans="1:273">
+    <row r="12" ht="31" spans="1:273">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4835,10 +4836,10 @@
       <c r="L12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -5105,7 +5106,7 @@
       <c r="JL12" s="1"/>
       <c r="JM12" s="1"/>
     </row>
-    <row r="13" ht="31" hidden="1" spans="1:273">
+    <row r="13" ht="31" spans="1:273">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5140,7 +5141,7 @@
       <c r="L13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="1"/>
@@ -5404,7 +5405,7 @@
       <c r="JL13" s="1"/>
       <c r="JM13" s="1"/>
     </row>
-    <row r="14" ht="46.5" hidden="1" spans="1:273">
+    <row r="14" ht="46.5" spans="1:273">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5439,7 +5440,7 @@
       <c r="L14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N14" s="1"/>
@@ -5703,7 +5704,7 @@
       <c r="JL14" s="1"/>
       <c r="JM14" s="1"/>
     </row>
-    <row r="15" ht="31" hidden="1" spans="1:273">
+    <row r="15" ht="31" spans="1:273">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5738,10 +5739,10 @@
       <c r="L15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -6006,7 +6007,7 @@
       <c r="JL15" s="1"/>
       <c r="JM15" s="1"/>
     </row>
-    <row r="16" ht="31" hidden="1" spans="1:273">
+    <row r="16" ht="31" spans="1:273">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6041,13 +6042,15 @@
       <c r="L16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -6307,7 +6310,7 @@
       <c r="JL16" s="1"/>
       <c r="JM16" s="1"/>
     </row>
-    <row r="17" ht="31" hidden="1" spans="1:273">
+    <row r="17" ht="31" spans="1:273">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6340,13 +6343,15 @@
       <c r="L17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6606,7 +6611,7 @@
       <c r="JL17" s="1"/>
       <c r="JM17" s="1"/>
     </row>
-    <row r="18" ht="46.5" hidden="1" spans="1:273">
+    <row r="18" ht="46.5" spans="1:273">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6641,14 +6646,14 @@
       <c r="L18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
         <v>132</v>
       </c>
       <c r="Q18" s="1"/>
@@ -6909,7 +6914,7 @@
       <c r="JL18" s="1"/>
       <c r="JM18" s="1"/>
     </row>
-    <row r="19" ht="31" hidden="1" spans="1:273">
+    <row r="19" ht="31" spans="1:273">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6942,12 +6947,10 @@
       <c r="L19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -7208,7 +7211,7 @@
       <c r="JL19" s="1"/>
       <c r="JM19" s="1"/>
     </row>
-    <row r="20" ht="31" hidden="1" spans="1:273">
+    <row r="20" ht="31" spans="1:273">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7241,11 +7244,15 @@
       <c r="L20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="N20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -7505,7 +7512,7 @@
       <c r="JL20" s="1"/>
       <c r="JM20" s="1"/>
     </row>
-    <row r="21" ht="31" hidden="1" spans="1:273">
+    <row r="21" ht="31" spans="1:273">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7536,7 +7543,7 @@
       <c r="L21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N21" s="1"/>
@@ -7800,7 +7807,7 @@
       <c r="JL21" s="1"/>
       <c r="JM21" s="1"/>
     </row>
-    <row r="22" ht="46.5" hidden="1" spans="1:273">
+    <row r="22" ht="46.5" spans="1:273">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -7835,17 +7842,17 @@
       <c r="L22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="3" t="s">
         <v>156</v>
       </c>
       <c r="R22" s="1"/>
@@ -8105,7 +8112,7 @@
       <c r="JL22" s="1"/>
       <c r="JM22" s="1"/>
     </row>
-    <row r="23" ht="31" hidden="1" spans="1:273">
+    <row r="23" ht="31" spans="1:273">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8140,7 +8147,7 @@
       <c r="L23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -8441,10 +8448,10 @@
       <c r="L24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O24" s="1"/>
@@ -8707,7 +8714,7 @@
       <c r="JL24" s="1"/>
       <c r="JM24" s="1"/>
     </row>
-    <row r="25" ht="31" hidden="1" spans="1:273">
+    <row r="25" ht="31" spans="1:273">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8742,13 +8749,15 @@
       <c r="L25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -9008,7 +9017,7 @@
       <c r="JL25" s="1"/>
       <c r="JM25" s="1"/>
     </row>
-    <row r="26" ht="31" hidden="1" spans="1:273">
+    <row r="26" ht="31" spans="1:273">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9043,7 +9052,7 @@
       <c r="L26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N26" s="1"/>
@@ -9307,7 +9316,7 @@
       <c r="JL26" s="1"/>
       <c r="JM26" s="1"/>
     </row>
-    <row r="27" ht="15.5" hidden="1" spans="1:273">
+    <row r="27" ht="15.5" spans="1:273">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -9342,13 +9351,15 @@
       <c r="L27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -9608,7 +9619,7 @@
       <c r="JL27" s="1"/>
       <c r="JM27" s="1"/>
     </row>
-    <row r="28" ht="31" hidden="1" spans="1:273">
+    <row r="28" ht="31" spans="1:273">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9643,7 +9654,7 @@
       <c r="L28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="1"/>
@@ -9907,7 +9918,7 @@
       <c r="JL28" s="1"/>
       <c r="JM28" s="1"/>
     </row>
-    <row r="29" ht="31" hidden="1" spans="1:273">
+    <row r="29" ht="31" spans="1:273">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9940,7 +9951,7 @@
       <c r="L29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N29" s="1"/>
@@ -10219,7 +10230,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -10504,7 +10515,7 @@
       <c r="L31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M31" s="1"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10781,7 +10792,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -11072,7 +11083,7 @@
       <c r="L33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="1"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -11363,7 +11374,7 @@
       <c r="L34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -11654,7 +11665,7 @@
       <c r="L35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="1"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -11916,7 +11927,7 @@
       <c r="JL35" s="1"/>
       <c r="JM35" s="1"/>
     </row>
-    <row r="36" ht="62" hidden="1" spans="1:273">
+    <row r="36" ht="62" spans="1:273">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11941,10 +11952,12 @@
       <c r="L36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -12205,7 +12218,7 @@
       <c r="JL36" s="1"/>
       <c r="JM36" s="1"/>
     </row>
-    <row r="37" ht="31" hidden="1" spans="1:273">
+    <row r="37" ht="31" spans="1:273">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -12230,7 +12243,7 @@
       <c r="L37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N37" s="1"/>
@@ -14710,14 +14723,9 @@
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q37" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="2">
-      <filters>
-        <filter val="√"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Mateusz Wozniak"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="√"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -14733,7 +14741,7 @@
     <hyperlink ref="G6" r:id="rId7" display="skumar@brookes.ac.uk"/>
     <hyperlink ref="G11" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
     <hyperlink ref="G12" r:id="rId9" display="mayanna@post.bgu.ac.il" tooltip="mailto:mayanna@post.bgu.ac.il"/>
-    <hyperlink ref="G13" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de" tooltip="mailto:gabriela.orellana-corrales@uni-tuebingen.de"/>
+    <hyperlink ref="G13" r:id="rId10" display="gabyorellanac@gmail.com" tooltip="mailto:gabyorellanac@gmail.com"/>
     <hyperlink ref="G17" r:id="rId3" display="hcp4715@gmail.com"/>
     <hyperlink ref="G25" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
     <hyperlink ref="G27" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
@@ -14768,7 +14776,7 @@
     <hyperlink ref="G5" r:id="rId41" display="i.r.kolvoort@uva.nl" tooltip="mailto:i.r.kolvoort@uva.nl"/>
     <hyperlink ref="G14" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
     <hyperlink ref="G18" r:id="rId43" display="pastoetter@uni-trier.de"/>
-    <hyperlink ref="G19" r:id="rId44" display="c.hobbs@bath.ac.uk"/>
+    <hyperlink ref="G19" r:id="rId44" display="c.hobbs@bristol.ac.uk;" tooltip="mailto:c.hobbs@bristol.ac.uk;"/>
     <hyperlink ref="G22" r:id="rId45" display="michele.vicovaro@unipd.it"/>
     <hyperlink ref="G23" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
     <hyperlink ref="G24" r:id="rId47" display="mgwozniak@gmail.com"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>Template_2</t>
+  </si>
+  <si>
+    <t>Ivar Kolvoort
+Georg Northoff</t>
   </si>
   <si>
     <t>CC BY 4.0</t>
@@ -694,6 +698,10 @@
   </si>
   <si>
     <t>victor.martinez5@um.es</t>
+  </si>
+  <si>
+    <t>Prof Lucía B. Palmero
+Víctor Martínez-Pérez</t>
   </si>
   <si>
     <t>Socio-cognitive training impacts emotional and perceptual self-salience but not self-other distinction.</t>
@@ -1744,10 +1752,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:JM46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N5" sqref="N5"/>
+      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2746,7 +2754,9 @@
         <v>23</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -3010,30 +3020,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1">
         <v>2021</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>22</v>
@@ -3309,19 +3319,19 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
@@ -3330,7 +3340,7 @@
         <v>2020</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>44</v>
@@ -3608,28 +3618,28 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1">
         <v>2020</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>44</v>
@@ -3907,37 +3917,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1">
         <v>2019</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>23</v>
@@ -4208,37 +4218,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1">
         <v>2018</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>23</v>
@@ -4511,24 +4521,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1">
         <v>2021</v>
@@ -4537,7 +4547,7 @@
         <v>28</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -4806,28 +4816,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J12" s="1">
         <v>2021</v>
@@ -4846,7 +4856,7 @@
         <v>23</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -5115,28 +5125,28 @@
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J13" s="1">
         <v>2020</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>44</v>
@@ -5414,28 +5424,28 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J14" s="1">
         <v>2022</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>44</v>
@@ -5713,31 +5723,31 @@
         <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J15" s="1">
         <v>2021</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>23</v>
@@ -6016,28 +6026,28 @@
         <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J16" s="1">
         <v>2023</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>36</v>
@@ -6046,7 +6056,7 @@
         <v>23</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>23</v>
@@ -6319,10 +6329,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>31</v>
@@ -6331,7 +6341,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>34</v>
@@ -6347,7 +6357,7 @@
         <v>23</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>23</v>
@@ -6616,35 +6626,35 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1">
         <v>2023</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>23</v>
@@ -6654,7 +6664,7 @@
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -6923,26 +6933,26 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>44</v>
@@ -7220,20 +7230,20 @@
         <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J20" s="1">
         <v>2021</v>
@@ -7248,7 +7258,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>23</v>
@@ -7521,27 +7531,27 @@
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J21" s="1">
         <v>2023</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>23</v>
@@ -7812,35 +7822,35 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J22" s="1">
         <v>2022</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>23</v>
@@ -7850,10 +7860,10 @@
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -8117,41 +8127,41 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J23" s="1">
         <v>2022</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -8418,35 +8428,35 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J24" s="1">
         <v>2022</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>23</v>
@@ -8719,41 +8729,41 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>23</v>
@@ -9022,35 +9032,35 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J26" s="1">
         <v>2021</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>23</v>
@@ -9321,41 +9331,41 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>23</v>
@@ -9624,35 +9634,35 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J28" s="1">
         <v>2024</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>23</v>
@@ -9927,26 +9937,26 @@
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J29" s="1">
         <v>2024</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>44</v>
@@ -10498,22 +10508,22 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="1"/>
@@ -11061,24 +11071,24 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J33" s="1">
         <v>2024</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>22</v>
@@ -11352,24 +11362,24 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J34" s="1">
         <v>2024</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>22</v>
@@ -11643,24 +11653,24 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J35" s="1">
         <v>2016</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>22</v>
@@ -11936,14 +11946,14 @@
         <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -11959,7 +11969,9 @@
         <v>23</v>
       </c>
       <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="P36" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -12227,21 +12239,21 @@
         <v>23</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>23</v>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -1749,13 +1749,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:JM46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="topRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1763,14 +1763,15 @@
     <col min="1" max="1" width="4.40833333333333" customWidth="1"/>
     <col min="2" max="2" width="16.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="5" width="52.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="52.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="52.0833333333333" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
     <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
     <col min="8" max="8" width="27.55" customWidth="1"/>
     <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="67.0833333333333" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="34.125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="34.125" customWidth="1"/>
     <col min="14" max="14" width="13.8333333333333" customWidth="1"/>
     <col min="15" max="15" width="8.75" customWidth="1"/>
     <col min="16" max="16" width="75.5" customWidth="1"/>
@@ -1827,7 +1828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="15.5" hidden="1" spans="1:273">
+    <row r="2" ht="15.5" spans="1:273">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2419,7 +2420,7 @@
       <c r="JL3" s="1"/>
       <c r="JM3" s="1"/>
     </row>
-    <row r="4" ht="31" hidden="1" spans="1:273">
+    <row r="4" ht="31" spans="1:273">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2753,7 +2754,9 @@
       <c r="N5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P5" s="3" t="s">
         <v>45</v>
       </c>
@@ -3015,7 +3018,7 @@
       <c r="JL5" s="1"/>
       <c r="JM5" s="1"/>
     </row>
-    <row r="6" ht="31" hidden="1" spans="1:273">
+    <row r="6" ht="31" spans="1:273">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4516,7 +4519,7 @@
       <c r="JL10" s="1"/>
       <c r="JM10" s="1"/>
     </row>
-    <row r="11" ht="15.5" hidden="1" spans="1:273">
+    <row r="11" ht="15.5" spans="1:273">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -10225,7 +10228,7 @@
       <c r="JL29" s="1"/>
       <c r="JM29" s="1"/>
     </row>
-    <row r="30" ht="15.5" hidden="1" spans="1:273">
+    <row r="30" ht="15.5" spans="1:273">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10240,7 +10243,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -10502,7 +10505,7 @@
       <c r="JL30" s="1"/>
       <c r="JM30" s="1"/>
     </row>
-    <row r="31" ht="31" hidden="1" spans="1:273">
+    <row r="31" ht="31" spans="1:273">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10525,7 +10528,7 @@
       <c r="L31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10787,7 +10790,7 @@
       <c r="JL31" s="1"/>
       <c r="JM31" s="1"/>
     </row>
-    <row r="32" ht="15.5" hidden="1" spans="1:273">
+    <row r="32" ht="15.5" spans="1:273">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10802,7 +10805,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="6"/>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -11064,7 +11067,7 @@
       <c r="JL32" s="1"/>
       <c r="JM32" s="1"/>
     </row>
-    <row r="33" ht="31" hidden="1" spans="1:273">
+    <row r="33" ht="31" spans="1:273">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11093,7 +11096,7 @@
       <c r="L33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="6"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -11355,7 +11358,7 @@
       <c r="JL33" s="1"/>
       <c r="JM33" s="1"/>
     </row>
-    <row r="34" ht="31" hidden="1" spans="1:273">
+    <row r="34" ht="31" spans="1:273">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11384,7 +11387,7 @@
       <c r="L34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="6"/>
+      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -11646,7 +11649,7 @@
       <c r="JL34" s="1"/>
       <c r="JM34" s="1"/>
     </row>
-    <row r="35" ht="31" hidden="1" spans="1:273">
+    <row r="35" ht="31" spans="1:273">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11675,7 +11678,7 @@
       <c r="L35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="6"/>
+      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -14734,11 +14737,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q37" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="√"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$R$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="237">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Journal</t>
   </si>
   <si>
+    <t>File_Name</t>
+  </si>
+  <si>
     <t>邮件内容</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>Acta Psychologica</t>
   </si>
   <si>
+    <t>Constable_2020_AP</t>
+  </si>
+  <si>
     <t>Template_2+询问P1、P2对应的Identity</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
   </si>
   <si>
     <t>Human Brain Mapping</t>
+  </si>
+  <si>
+    <t>Kolvoort_2020_HBM</t>
   </si>
   <si>
     <t>Template_2</t>
@@ -207,6 +216,9 @@
     <t>Cognition and Emotion</t>
   </si>
   <si>
+    <t>Constable_2020_CE</t>
+  </si>
+  <si>
     <t>Prioritised self-referential processing is modulated by emotional arousal</t>
   </si>
   <si>
@@ -228,6 +240,9 @@
     <t>Quarterly Journal of Experimental Psychology</t>
   </si>
   <si>
+    <t>Qian_2019_QJEP</t>
+  </si>
+  <si>
     <t>CC-BY-SA 4.0</t>
   </si>
   <si>
@@ -250,6 +265,9 @@
   </si>
   <si>
     <t>Journal of Cognitive Psychology</t>
+  </si>
+  <si>
+    <t>Schaefer_2019_CP</t>
   </si>
   <si>
     <r>
@@ -293,6 +311,9 @@
     <t>PloS one</t>
   </si>
   <si>
+    <t>Wozniak_2018_PLOS</t>
+  </si>
+  <si>
     <t>CC BY-NC-ND</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
   </si>
   <si>
     <t>Navon &amp; Makovski</t>
+  </si>
+  <si>
+    <t>Navon_2021</t>
   </si>
   <si>
     <t>Tal Makovski
@@ -357,6 +381,9 @@
     <t>Experimental Psychology</t>
   </si>
   <si>
+    <t>Orellana-Corrales_2021_EP</t>
+  </si>
+  <si>
     <t>More or less of me and you: self-relevance augments the effects of item probability on stimulus prioritization</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>Psychological Research</t>
   </si>
   <si>
+    <t>Svensson_2021_PR</t>
+  </si>
+  <si>
     <t>Romantic feedbacks influence self-relevant processing: the moderating effects of sex difference and facial attractiveness</t>
   </si>
   <si>
@@ -394,6 +424,9 @@
   </si>
   <si>
     <t>Current Psychology</t>
+  </si>
+  <si>
+    <t>Yang_2021_CP</t>
   </si>
   <si>
     <r>
@@ -437,6 +470,9 @@
     <t>Cognitive Research: Principles and Implications</t>
   </si>
   <si>
+    <t>Liu_2023_CP</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -449,6 +485,9 @@
     <t>https://zenodo.org/records/8031086</t>
   </si>
   <si>
+    <t>Hu_2023</t>
+  </si>
+  <si>
     <t>The oscillatory fingerprints of self-prioritization: Novel markers in spectral EEG for self-relevant processing</t>
   </si>
   <si>
@@ -465,6 +504,9 @@
   </si>
   <si>
     <t>PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t>Haciahmet_2023_Psy</t>
   </si>
   <si>
     <t>Christian Frings
@@ -490,6 +532,9 @@
     <t>Psychological Medicine</t>
   </si>
   <si>
+    <t>Hobbs_2023_PM</t>
+  </si>
+  <si>
     <t>The roles of the LpSTS and DLPFC in self-prioritization: A transcranial magnetic stimulation study</t>
   </si>
   <si>
@@ -505,6 +550,9 @@
     <t>Liang et al.</t>
   </si>
   <si>
+    <t>Liang_2021_HBM</t>
+  </si>
+  <si>
     <t>The Functional Self: The Minimal Self-Concept Is Protected Against Negative Content</t>
   </si>
   <si>
@@ -536,6 +584,9 @@
   </si>
   <si>
     <t>Journal of Experimental Psychology: Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>Vicovaro_2022_EPHPP</t>
   </si>
   <si>
     <t>Mario Dalmaso (Department of Social and Developmental Psychology, University of Padova)
@@ -565,7 +616,7 @@
     <t>BMC Psychology</t>
   </si>
   <si>
-    <t>mid-2025 back</t>
+    <t>Perrykkad_2022_BMC</t>
   </si>
   <si>
     <t>Self‑prioritization depends on assumed task‑relevance of self‑association</t>
@@ -577,6 +628,9 @@
     <t>https://osf.io/35wp9</t>
   </si>
   <si>
+    <t>Wozniak_2022_PR</t>
+  </si>
+  <si>
     <t>Decoding individual differences in self-prioritization from the resting-state functional connectome</t>
   </si>
   <si>
@@ -589,6 +643,9 @@
     <t>NeuroImage</t>
   </si>
   <si>
+    <t>Zhang_2023_NI</t>
+  </si>
+  <si>
     <t>Kalai Hung</t>
   </si>
   <si>
@@ -601,6 +658,9 @@
     <t>International Journal of Environmental Research and Public Health</t>
   </si>
   <si>
+    <t>Feldborg_2021_ERPH</t>
+  </si>
+  <si>
     <t>Electrophysiological correlates of self-prioritization</t>
   </si>
   <si>
@@ -616,6 +676,9 @@
     <t>Consciousness and Cognition</t>
   </si>
   <si>
+    <t>Sui_2023_CC</t>
+  </si>
+  <si>
     <t>Self-prioritization effect in the attentional blink paradigm: Attention-based or familiarity-based effect?</t>
   </si>
   <si>
@@ -631,6 +694,9 @@
     <t>V Martínez-Pérez et al.</t>
   </si>
   <si>
+    <t>Martinez-Perez_2024_CC</t>
+  </si>
+  <si>
     <t>Electrophysiological correlates of self‑related processing in adults with autism</t>
   </si>
   <si>
@@ -644,6 +710,9 @@
   </si>
   <si>
     <t>Cognitive, Affective, &amp; Behavioral Neuroscience</t>
+  </si>
+  <si>
+    <t>Amodeo_2024_CABN</t>
   </si>
   <si>
     <t>-</t>
@@ -711,6 +780,9 @@
   </si>
   <si>
     <t>hbbukowski@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucía B. Palmero</t>
   </si>
 </sst>
 </file>
@@ -906,7 +978,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -922,12 +994,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,7 +1325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,16 +1349,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1301,16 +1367,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1319,10 +1388,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,10 +1400,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1343,10 +1412,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1355,10 +1424,10 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1367,10 +1436,10 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,11 +1448,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,9 +1487,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1750,12 +1813,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:JM46"/>
+  <dimension ref="A1:JN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P31" sqref="P31"/>
+      <selection pane="topRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1771,14 +1834,14 @@
     <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="34.125" customWidth="1"/>
-    <col min="14" max="14" width="13.8333333333333" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
-    <col min="16" max="16" width="75.5" customWidth="1"/>
-    <col min="17" max="17" width="16.175" customWidth="1"/>
+    <col min="12" max="13" width="34.125" customWidth="1"/>
+    <col min="15" max="15" width="13.8333333333333" customWidth="1"/>
+    <col min="16" max="16" width="8.75" customWidth="1"/>
+    <col min="17" max="17" width="75.5" customWidth="1"/>
+    <col min="18" max="18" width="16.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:16">
+    <row r="1" ht="15.5" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1878,7 @@
       <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1827,39 +1890,42 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" spans="1:273">
+    <row r="2" ht="15.5" spans="1:274">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2120,46 +2186,49 @@
       <c r="JK2" s="1"/>
       <c r="JL2" s="1"/>
       <c r="JM2" s="1"/>
+      <c r="JN2" s="1"/>
     </row>
-    <row r="3" ht="31" spans="1:273">
+    <row r="3" ht="31" spans="1:274">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1">
         <v>2020</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2419,39 +2488,40 @@
       <c r="JK3" s="1"/>
       <c r="JL3" s="1"/>
       <c r="JM3" s="1"/>
+      <c r="JN3" s="1"/>
     </row>
-    <row r="4" ht="31" spans="1:273">
+    <row r="4" ht="31" spans="1:274">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1">
         <v>2020</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2712,55 +2782,58 @@
       <c r="JK4" s="1"/>
       <c r="JL4" s="1"/>
       <c r="JM4" s="1"/>
+      <c r="JN4" s="1"/>
     </row>
-    <row r="5" ht="46.5" spans="1:273">
+    <row r="5" ht="46.5" spans="1:274">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1">
         <v>2020</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -3017,42 +3090,43 @@
       <c r="JK5" s="1"/>
       <c r="JL5" s="1"/>
       <c r="JM5" s="1"/>
+      <c r="JN5" s="1"/>
     </row>
-    <row r="6" ht="31" spans="1:273">
+    <row r="6" ht="31" spans="1:274">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1">
         <v>2021</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -3312,46 +3386,49 @@
       <c r="JK6" s="1"/>
       <c r="JL6" s="1"/>
       <c r="JM6" s="1"/>
+      <c r="JN6" s="1"/>
     </row>
-    <row r="7" ht="31" spans="1:273">
+    <row r="7" ht="31" spans="1:274">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1">
         <v>2020</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -3611,52 +3688,55 @@
       <c r="JK7" s="1"/>
       <c r="JL7" s="1"/>
       <c r="JM7" s="1"/>
+      <c r="JN7" s="1"/>
     </row>
-    <row r="8" ht="31" spans="1:273">
+    <row r="8" ht="31" spans="1:274">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1">
         <v>2020</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3914,48 +3994,51 @@
       <c r="JK8" s="1"/>
       <c r="JL8" s="1"/>
       <c r="JM8" s="1"/>
+      <c r="JN8" s="1"/>
     </row>
-    <row r="9" ht="31" spans="1:273">
+    <row r="9" ht="31" spans="1:274">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J9" s="1">
         <v>2019</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -4215,51 +4298,54 @@
       <c r="JK9" s="1"/>
       <c r="JL9" s="1"/>
       <c r="JM9" s="1"/>
+      <c r="JN9" s="1"/>
     </row>
-    <row r="10" ht="15.5" spans="1:273">
+    <row r="10" ht="15.5" spans="1:274">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1">
         <v>2018</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>23</v>
+        <v>87</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4518,43 +4604,44 @@
       <c r="JK10" s="1"/>
       <c r="JL10" s="1"/>
       <c r="JM10" s="1"/>
+      <c r="JN10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:273">
+    <row r="11" ht="15.5" spans="1:274">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1">
         <v>2021</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -4813,55 +4900,58 @@
       <c r="JK11" s="1"/>
       <c r="JL11" s="1"/>
       <c r="JM11" s="1"/>
+      <c r="JN11" s="1"/>
     </row>
-    <row r="12" ht="31" spans="1:273">
+    <row r="12" ht="31" spans="1:274">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1">
         <v>2021</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>23</v>
+        <v>101</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5118,46 +5208,49 @@
       <c r="JK12" s="1"/>
       <c r="JL12" s="1"/>
       <c r="JM12" s="1"/>
+      <c r="JN12" s="1"/>
     </row>
-    <row r="13" ht="31" spans="1:273">
+    <row r="13" ht="31" spans="1:274">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J13" s="1">
         <v>2020</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -5417,46 +5510,49 @@
       <c r="JK13" s="1"/>
       <c r="JL13" s="1"/>
       <c r="JM13" s="1"/>
+      <c r="JN13" s="1"/>
     </row>
-    <row r="14" ht="46.5" spans="1:273">
+    <row r="14" ht="46.5" spans="1:274">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J14" s="1">
         <v>2022</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -5716,53 +5812,58 @@
       <c r="JK14" s="1"/>
       <c r="JL14" s="1"/>
       <c r="JM14" s="1"/>
+      <c r="JN14" s="1"/>
     </row>
-    <row r="15" ht="31" spans="1:273">
+    <row r="15" ht="31" spans="1:274">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J15" s="1">
         <v>2021</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>23</v>
+        <v>125</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6019,53 +6120,58 @@
       <c r="JK15" s="1"/>
       <c r="JL15" s="1"/>
       <c r="JM15" s="1"/>
+      <c r="JN15" s="1"/>
     </row>
-    <row r="16" ht="31" spans="1:273">
+    <row r="16" ht="31" spans="1:274">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J16" s="1">
         <v>2023</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>23</v>
+        <v>134</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6322,51 +6428,56 @@
       <c r="JK16" s="1"/>
       <c r="JL16" s="1"/>
       <c r="JM16" s="1"/>
+      <c r="JN16" s="1"/>
     </row>
-    <row r="17" ht="31" spans="1:273">
+    <row r="17" ht="31" spans="1:274">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>126</v>
+        <v>34</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1">
         <v>2023</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>23</v>
+        <v>139</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6623,53 +6734,58 @@
       <c r="JK17" s="1"/>
       <c r="JL17" s="1"/>
       <c r="JM17" s="1"/>
+      <c r="JN17" s="1"/>
     </row>
-    <row r="18" ht="46.5" spans="1:273">
+    <row r="18" ht="46.5" spans="1:274">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J18" s="1">
         <v>2023</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6926,44 +7042,47 @@
       <c r="JK18" s="1"/>
       <c r="JL18" s="1"/>
       <c r="JM18" s="1"/>
+      <c r="JN18" s="1"/>
     </row>
-    <row r="19" ht="31" spans="1:273">
+    <row r="19" ht="31" spans="1:274">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -7223,50 +7342,53 @@
       <c r="JK19" s="1"/>
       <c r="JL19" s="1"/>
       <c r="JM19" s="1"/>
+      <c r="JN19" s="1"/>
     </row>
-    <row r="20" ht="31" spans="1:273">
+    <row r="20" ht="31" spans="1:274">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J20" s="1">
         <v>2021</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>23</v>
+        <v>160</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -7524,42 +7646,43 @@
       <c r="JK20" s="1"/>
       <c r="JL20" s="1"/>
       <c r="JM20" s="1"/>
+      <c r="JN20" s="1"/>
     </row>
-    <row r="21" ht="31" spans="1:273">
+    <row r="21" ht="31" spans="1:274">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J21" s="1">
         <v>2023</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -7819,56 +7942,61 @@
       <c r="JK21" s="1"/>
       <c r="JL21" s="1"/>
       <c r="JM21" s="1"/>
+      <c r="JN21" s="1"/>
     </row>
-    <row r="22" ht="46.5" spans="1:273">
+    <row r="22" ht="46.5" spans="1:274">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>153</v>
+        <v>168</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J22" s="1">
         <v>2022</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>23</v>
+        <v>172</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P22" s="3" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R22" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -8124,47 +8252,48 @@
       <c r="JK22" s="1"/>
       <c r="JL22" s="1"/>
       <c r="JM22" s="1"/>
+      <c r="JN22" s="1"/>
     </row>
-    <row r="23" ht="31" spans="1:273">
+    <row r="23" ht="31" spans="1:274">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J23" s="1">
         <v>2022</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -8425,49 +8554,52 @@
       <c r="JK23" s="1"/>
       <c r="JL23" s="1"/>
       <c r="JM23" s="1"/>
+      <c r="JN23" s="1"/>
     </row>
-    <row r="24" ht="31" spans="1:273">
+    <row r="24" ht="31" spans="1:274">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J24" s="1">
         <v>2022</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>23</v>
+        <v>185</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -8726,53 +8858,58 @@
       <c r="JK24" s="1"/>
       <c r="JL24" s="1"/>
       <c r="JM24" s="1"/>
+      <c r="JN24" s="1"/>
     </row>
-    <row r="25" ht="31" spans="1:273">
+    <row r="25" ht="31" spans="1:274">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="11" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>23</v>
+        <v>190</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -9029,46 +9166,49 @@
       <c r="JK25" s="1"/>
       <c r="JL25" s="1"/>
       <c r="JM25" s="1"/>
+      <c r="JN25" s="1"/>
     </row>
-    <row r="26" ht="31" spans="1:273">
+    <row r="26" ht="31" spans="1:274">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="J26" s="1">
         <v>2021</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -9328,53 +9468,58 @@
       <c r="JK26" s="1"/>
       <c r="JL26" s="1"/>
       <c r="JM26" s="1"/>
+      <c r="JN26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:273">
+    <row r="27" ht="15.5" spans="1:274">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="11" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>23</v>
+        <v>201</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -9631,46 +9776,49 @@
       <c r="JK27" s="1"/>
       <c r="JL27" s="1"/>
       <c r="JM27" s="1"/>
+      <c r="JN27" s="1"/>
     </row>
-    <row r="28" ht="31" spans="1:273">
+    <row r="28" ht="31" spans="1:274">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="11" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J28" s="1">
         <v>2024</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -9930,44 +10078,47 @@
       <c r="JK28" s="1"/>
       <c r="JL28" s="1"/>
       <c r="JM28" s="1"/>
+      <c r="JN28" s="1"/>
     </row>
-    <row r="29" ht="31" spans="1:273">
+    <row r="29" ht="31" spans="1:274">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J29" s="1">
         <v>2024</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -10227,8 +10378,9 @@
       <c r="JK29" s="1"/>
       <c r="JL29" s="1"/>
       <c r="JM29" s="1"/>
+      <c r="JN29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:273">
+    <row r="30" ht="15.5" spans="1:274">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10504,31 +10656,32 @@
       <c r="JK30" s="1"/>
       <c r="JL30" s="1"/>
       <c r="JM30" s="1"/>
+      <c r="JN30" s="1"/>
     </row>
-    <row r="31" ht="31" spans="1:273">
+    <row r="31" ht="31" spans="1:274">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10789,8 +10942,9 @@
       <c r="JK31" s="1"/>
       <c r="JL31" s="1"/>
       <c r="JM31" s="1"/>
+      <c r="JN31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:273">
+    <row r="32" ht="15.5" spans="1:274">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11066,37 +11220,38 @@
       <c r="JK32" s="1"/>
       <c r="JL32" s="1"/>
       <c r="JM32" s="1"/>
+      <c r="JN32" s="1"/>
     </row>
-    <row r="33" ht="31" spans="1:273">
+    <row r="33" ht="31" spans="1:274">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J33" s="1">
         <v>2024</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -11357,37 +11512,38 @@
       <c r="JK33" s="1"/>
       <c r="JL33" s="1"/>
       <c r="JM33" s="1"/>
+      <c r="JN33" s="1"/>
     </row>
-    <row r="34" ht="31" spans="1:273">
+    <row r="34" ht="31" spans="1:274">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="J34" s="1">
         <v>2024</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -11648,37 +11804,38 @@
       <c r="JK34" s="1"/>
       <c r="JL34" s="1"/>
       <c r="JM34" s="1"/>
+      <c r="JN34" s="1"/>
     </row>
-    <row r="35" ht="31" spans="1:273">
+    <row r="35" ht="31" spans="1:274">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="11" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J35" s="1">
         <v>2016</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M35" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -11939,43 +12096,44 @@
       <c r="JK35" s="1"/>
       <c r="JL35" s="1"/>
       <c r="JM35" s="1"/>
+      <c r="JN35" s="1"/>
     </row>
-    <row r="36" ht="62" spans="1:273">
+    <row r="36" ht="62" spans="1:274">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>23</v>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q36" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -12232,36 +12390,37 @@
       <c r="JK36" s="1"/>
       <c r="JL36" s="1"/>
       <c r="JM36" s="1"/>
+      <c r="JN36" s="1"/>
     </row>
-    <row r="37" ht="31" spans="1:273">
+    <row r="37" ht="31" spans="1:274">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -12521,14 +12680,17 @@
       <c r="JK37" s="1"/>
       <c r="JL37" s="1"/>
       <c r="JM37" s="1"/>
+      <c r="JN37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:273">
+    <row r="38" ht="15.5" spans="1:274">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -12796,8 +12958,9 @@
       <c r="JK38" s="1"/>
       <c r="JL38" s="1"/>
       <c r="JM38" s="1"/>
+      <c r="JN38" s="1"/>
     </row>
-    <row r="39" ht="15.5" spans="1:273">
+    <row r="39" ht="15.5" spans="1:274">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -13071,8 +13234,9 @@
       <c r="JK39" s="1"/>
       <c r="JL39" s="1"/>
       <c r="JM39" s="1"/>
+      <c r="JN39" s="1"/>
     </row>
-    <row r="40" ht="15.5" spans="1:273">
+    <row r="40" ht="15.5" spans="1:274">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -13346,8 +13510,9 @@
       <c r="JK40" s="1"/>
       <c r="JL40" s="1"/>
       <c r="JM40" s="1"/>
+      <c r="JN40" s="1"/>
     </row>
-    <row r="41" ht="15.5" spans="1:273">
+    <row r="41" ht="15.5" spans="1:274">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -13621,8 +13786,9 @@
       <c r="JK41" s="1"/>
       <c r="JL41" s="1"/>
       <c r="JM41" s="1"/>
+      <c r="JN41" s="1"/>
     </row>
-    <row r="42" ht="15.5" spans="1:273">
+    <row r="42" ht="15.5" spans="1:274">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13896,8 +14062,9 @@
       <c r="JK42" s="1"/>
       <c r="JL42" s="1"/>
       <c r="JM42" s="1"/>
+      <c r="JN42" s="1"/>
     </row>
-    <row r="43" ht="15.5" spans="1:273">
+    <row r="43" ht="15.5" spans="1:274">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -14171,8 +14338,9 @@
       <c r="JK43" s="1"/>
       <c r="JL43" s="1"/>
       <c r="JM43" s="1"/>
+      <c r="JN43" s="1"/>
     </row>
-    <row r="44" ht="15.5" spans="1:273">
+    <row r="44" ht="15.5" spans="1:274">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -14446,8 +14614,9 @@
       <c r="JK44" s="1"/>
       <c r="JL44" s="1"/>
       <c r="JM44" s="1"/>
+      <c r="JN44" s="1"/>
     </row>
-    <row r="45" ht="15.5" spans="1:273">
+    <row r="45" ht="15.5" spans="1:274">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -14721,6 +14890,7 @@
       <c r="JK45" s="1"/>
       <c r="JL45" s="1"/>
       <c r="JM45" s="1"/>
+      <c r="JN45" s="1"/>
     </row>
     <row r="46" ht="15.5" spans="1:11">
       <c r="A46" s="1"/>
@@ -14736,7 +14906,7 @@
       <c r="K46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Q37" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:R38" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -14785,7 +14955,7 @@
     <hyperlink ref="H28" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
     <hyperlink ref="G5" r:id="rId41" display="i.r.kolvoort@uva.nl" tooltip="mailto:i.r.kolvoort@uva.nl"/>
     <hyperlink ref="G14" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
-    <hyperlink ref="G18" r:id="rId43" display="pastoetter@uni-trier.de"/>
+    <hyperlink ref="G18" r:id="rId43" display="pastoetter@uni-trier.de" tooltip="mailto:pastoetter@uni-trier.de"/>
     <hyperlink ref="G19" r:id="rId44" display="c.hobbs@bristol.ac.uk;" tooltip="mailto:c.hobbs@bristol.ac.uk;"/>
     <hyperlink ref="G22" r:id="rId45" display="michele.vicovaro@unipd.it"/>
     <hyperlink ref="G23" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="12660" windowHeight="10120"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="237">
   <si>
     <t>ID</t>
   </si>
@@ -1812,13 +1812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:JN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H33" sqref="H33"/>
+      <selection pane="topRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1894,7 +1894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:274">
+    <row r="2" ht="15.5" hidden="1" spans="1:274">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2188,7 +2188,7 @@
       <c r="JM2" s="1"/>
       <c r="JN2" s="1"/>
     </row>
-    <row r="3" ht="31" spans="1:274">
+    <row r="3" ht="31" hidden="1" spans="1:274">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="JM3" s="1"/>
       <c r="JN3" s="1"/>
     </row>
-    <row r="4" ht="31" spans="1:274">
+    <row r="4" ht="31" hidden="1" spans="1:274">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="JM5" s="1"/>
       <c r="JN5" s="1"/>
     </row>
-    <row r="6" ht="31" spans="1:274">
+    <row r="6" ht="31" hidden="1" spans="1:274">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="JM6" s="1"/>
       <c r="JN6" s="1"/>
     </row>
-    <row r="7" ht="31" spans="1:274">
+    <row r="7" ht="31" hidden="1" spans="1:274">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="JM8" s="1"/>
       <c r="JN8" s="1"/>
     </row>
-    <row r="9" ht="31" spans="1:274">
+    <row r="9" ht="31" hidden="1" spans="1:274">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="JM10" s="1"/>
       <c r="JN10" s="1"/>
     </row>
-    <row r="11" ht="15.5" spans="1:274">
+    <row r="11" ht="15.5" hidden="1" spans="1:274">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5210,7 +5210,7 @@
       <c r="JM12" s="1"/>
       <c r="JN12" s="1"/>
     </row>
-    <row r="13" ht="31" spans="1:274">
+    <row r="13" ht="31" hidden="1" spans="1:274">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="JM13" s="1"/>
       <c r="JN13" s="1"/>
     </row>
-    <row r="14" ht="46.5" spans="1:274">
+    <row r="14" ht="46.5" hidden="1" spans="1:274">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="JM18" s="1"/>
       <c r="JN18" s="1"/>
     </row>
-    <row r="19" ht="31" spans="1:274">
+    <row r="19" ht="31" hidden="1" spans="1:274">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="JM20" s="1"/>
       <c r="JN20" s="1"/>
     </row>
-    <row r="21" ht="31" spans="1:274">
+    <row r="21" ht="31" hidden="1" spans="1:274">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="JM22" s="1"/>
       <c r="JN22" s="1"/>
     </row>
-    <row r="23" ht="31" spans="1:274">
+    <row r="23" ht="31" hidden="1" spans="1:274">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -9168,7 +9168,7 @@
       <c r="JM25" s="1"/>
       <c r="JN25" s="1"/>
     </row>
-    <row r="26" ht="31" spans="1:274">
+    <row r="26" ht="31" hidden="1" spans="1:274">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9778,7 +9778,7 @@
       <c r="JM27" s="1"/>
       <c r="JN27" s="1"/>
     </row>
-    <row r="28" ht="31" spans="1:274">
+    <row r="28" ht="31" hidden="1" spans="1:274">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -10119,7 +10119,9 @@
       <c r="N29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="1"/>
+      <c r="O29" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -10380,7 +10382,7 @@
       <c r="JM29" s="1"/>
       <c r="JN29" s="1"/>
     </row>
-    <row r="30" ht="15.5" spans="1:274">
+    <row r="30" ht="15.5" hidden="1" spans="1:274">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10658,7 +10660,7 @@
       <c r="JM30" s="1"/>
       <c r="JN30" s="1"/>
     </row>
-    <row r="31" ht="31" spans="1:274">
+    <row r="31" ht="31" hidden="1" spans="1:274">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10944,7 +10946,7 @@
       <c r="JM31" s="1"/>
       <c r="JN31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:274">
+    <row r="32" ht="15.5" hidden="1" spans="1:274">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11222,7 +11224,7 @@
       <c r="JM32" s="1"/>
       <c r="JN32" s="1"/>
     </row>
-    <row r="33" ht="31" spans="1:274">
+    <row r="33" ht="31" hidden="1" spans="1:274">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11514,7 +11516,7 @@
       <c r="JM33" s="1"/>
       <c r="JN33" s="1"/>
     </row>
-    <row r="34" ht="31" spans="1:274">
+    <row r="34" ht="31" hidden="1" spans="1:274">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11806,7 +11808,7 @@
       <c r="JM34" s="1"/>
       <c r="JN34" s="1"/>
     </row>
-    <row r="35" ht="31" spans="1:274">
+    <row r="35" ht="31" hidden="1" spans="1:274">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -12392,7 +12394,7 @@
       <c r="JM36" s="1"/>
       <c r="JN36" s="1"/>
     </row>
-    <row r="37" ht="31" spans="1:274">
+    <row r="37" ht="31" hidden="1" spans="1:274">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -12682,7 +12684,7 @@
       <c r="JM37" s="1"/>
       <c r="JN37" s="1"/>
     </row>
-    <row r="38" ht="15.5" spans="1:274">
+    <row r="38" ht="15.5" hidden="1" spans="1:274">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -14907,6 +14909,12 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:R38" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="14">
+      <customFilters>
+        <customFilter operator="equal" val="√"/>
+        <customFilter operator="equal" val="ok"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -14961,7 +14969,7 @@
     <hyperlink ref="G23" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
     <hyperlink ref="G24" r:id="rId47" display="mgwozniak@gmail.com"/>
     <hyperlink ref="G29" r:id="rId48" display="letizia.amodeo@ugent.be"/>
-    <hyperlink ref="G36" r:id="rId49" display="victor.martinez5@um.es"/>
+    <hyperlink ref="G36" r:id="rId49" display="victor.martinez5@um.es" tooltip="mailto:victor.martinez5@um.es"/>
     <hyperlink ref="G37" r:id="rId50" display="hbbukowski@gmail.com"/>
     <hyperlink ref="G15" r:id="rId51" display="guanll353@nenu.edu.cn"/>
   </hyperlinks>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12660" windowHeight="10120"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,9 @@
     <t>Co-Author</t>
   </si>
   <si>
+    <t>Others Paper</t>
+  </si>
+  <si>
     <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
   </si>
   <si>
     <t>Template_2+询问P1、P2对应的Identity</t>
+  </si>
+  <si>
+    <t>√ √</t>
   </si>
   <si>
     <t>Good Me Bad Me: Prioritization of the Good-Self During Perceptual Decision-Making</t>
@@ -241,6 +247,10 @@
   </si>
   <si>
     <t>Qian_2019_QJEP</t>
+  </si>
+  <si>
+    <t>Xiangping Gao
+Haoyue Qian</t>
   </si>
   <si>
     <t>CC-BY-SA 4.0</t>
@@ -290,6 +300,11 @@
     </r>
   </si>
   <si>
+    <t>Sarah Schäfer
+Marel Pauly
+Dirk Wentura</t>
+  </si>
+  <si>
     <t>Prioritization of arbitrary faces associated to self: An EEG study</t>
   </si>
   <si>
@@ -598,6 +613,9 @@
 Marius Golubickis</t>
   </si>
   <si>
+    <t>Vicovaro, M., Dalmaso, M., &amp; Bertamini, M. (2022). Towards the boundaries of self-prioritization: Associating the self with asymmetric shapes disrupts the self-prioritization effect. Journal of Expeirmental Psychology: Human Perception and Performance, 48(9), 972–986. https://doi.org/10.1037/xhp0001036. DATA AVAILABLE HERE: https://doi.org/10.17605/OSF.IO/FE3JW</t>
+  </si>
+  <si>
     <t>How selves difer within and across cognitive domains: self-prioritisation, self-concept, and psychiatric traits</t>
   </si>
   <si>
@@ -746,6 +764,9 @@
   </si>
   <si>
     <t>mario.dalmaso@unipd.it</t>
+  </si>
+  <si>
+    <t>△</t>
   </si>
   <si>
     <t>Expanding and Retracting From the Self: Gains and Costs in Switching Self-Associations</t>
@@ -1449,7 +1470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1488,6 +1509,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1812,13 +1836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:JN46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G40" sqref="G40"/>
+      <selection pane="topRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1826,22 +1850,22 @@
     <col min="1" max="1" width="4.40833333333333" customWidth="1"/>
     <col min="2" max="2" width="16.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="52.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="55.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="52.0833333333333" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
     <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="27.55" customWidth="1"/>
-    <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
-    <col min="12" max="13" width="34.125" customWidth="1"/>
-    <col min="15" max="15" width="13.8333333333333" customWidth="1"/>
-    <col min="16" max="16" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="27.55" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.4166666666667" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="67.0833333333333" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="34.125" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="8.75" customWidth="1"/>
     <col min="17" max="17" width="75.5" customWidth="1"/>
     <col min="18" max="18" width="16.175" customWidth="1"/>
+    <col min="19" max="19" width="89.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:17">
+    <row r="1" ht="15.5" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1893,38 +1917,41 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" ht="15.5" hidden="1" spans="1:274">
+    <row r="2" ht="15.5" spans="1:274">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2188,46 +2215,46 @@
       <c r="JM2" s="1"/>
       <c r="JN2" s="1"/>
     </row>
-    <row r="3" ht="31" hidden="1" spans="1:274">
+    <row r="3" ht="31" spans="1:274">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1">
         <v>2020</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2490,37 +2517,37 @@
       <c r="JM3" s="1"/>
       <c r="JN3" s="1"/>
     </row>
-    <row r="4" ht="31" hidden="1" spans="1:274">
+    <row r="4" ht="31" spans="1:274">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1">
         <v>2020</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2790,49 +2817,49 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1">
         <v>2020</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -3092,39 +3119,39 @@
       <c r="JM5" s="1"/>
       <c r="JN5" s="1"/>
     </row>
-    <row r="6" ht="31" hidden="1" spans="1:274">
+    <row r="6" ht="31" spans="1:274">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1">
         <v>2021</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="1"/>
@@ -3388,46 +3415,46 @@
       <c r="JM6" s="1"/>
       <c r="JN6" s="1"/>
     </row>
-    <row r="7" ht="31" hidden="1" spans="1:274">
+    <row r="7" ht="31" spans="1:274">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1">
         <v>2020</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -3696,48 +3723,50 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1">
         <v>2020</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -3996,52 +4025,56 @@
       <c r="JM8" s="1"/>
       <c r="JN8" s="1"/>
     </row>
-    <row r="9" ht="31" hidden="1" spans="1:274">
+    <row r="9" ht="46.5" spans="1:274">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1">
         <v>2019</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -4305,46 +4338,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1">
         <v>2018</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -4606,39 +4639,39 @@
       <c r="JM10" s="1"/>
       <c r="JN10" s="1"/>
     </row>
-    <row r="11" ht="15.5" hidden="1" spans="1:274">
+    <row r="11" ht="15.5" spans="1:274">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J11" s="1">
         <v>2021</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -4907,53 +4940,55 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1">
         <v>2021</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -5210,46 +5245,46 @@
       <c r="JM12" s="1"/>
       <c r="JN12" s="1"/>
     </row>
-    <row r="13" ht="31" hidden="1" spans="1:274">
+    <row r="13" ht="31" spans="1:274">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J13" s="1">
         <v>2020</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -5512,46 +5547,46 @@
       <c r="JM13" s="1"/>
       <c r="JN13" s="1"/>
     </row>
-    <row r="14" ht="46.5" hidden="1" spans="1:274">
+    <row r="14" ht="46.5" spans="1:274">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J14" s="1">
         <v>2022</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -5820,49 +5855,49 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J15" s="1">
         <v>2021</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -6128,49 +6163,49 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J16" s="1">
         <v>2023</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -6436,47 +6471,47 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1">
         <v>2023</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -6741,50 +6776,50 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J18" s="1">
         <v>2023</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -7044,44 +7079,44 @@
       <c r="JM18" s="1"/>
       <c r="JN18" s="1"/>
     </row>
-    <row r="19" ht="31" hidden="1" spans="1:274">
+    <row r="19" ht="31" spans="1:274">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -7350,44 +7385,44 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J20" s="1">
         <v>2021</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -7648,40 +7683,40 @@
       <c r="JM20" s="1"/>
       <c r="JN20" s="1"/>
     </row>
-    <row r="21" ht="31" hidden="1" spans="1:274">
+    <row r="21" ht="31" spans="1:274">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J21" s="1">
         <v>2023</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -7944,60 +7979,62 @@
       <c r="JM21" s="1"/>
       <c r="JN21" s="1"/>
     </row>
-    <row r="22" ht="46.5" spans="1:274">
+    <row r="22" ht="62" spans="1:274">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J22" s="1">
         <v>2022</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S22" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -8254,46 +8291,46 @@
       <c r="JM22" s="1"/>
       <c r="JN22" s="1"/>
     </row>
-    <row r="23" ht="31" hidden="1" spans="1:274">
+    <row r="23" ht="31" spans="1:274">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J23" s="1">
         <v>2022</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -8561,44 +8598,44 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J24" s="1">
         <v>2022</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -8865,51 +8902,49 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -9168,46 +9203,46 @@
       <c r="JM25" s="1"/>
       <c r="JN25" s="1"/>
     </row>
-    <row r="26" ht="31" hidden="1" spans="1:274">
+    <row r="26" ht="31" spans="1:274">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J26" s="1">
         <v>2021</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -9475,51 +9510,49 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -9778,46 +9811,46 @@
       <c r="JM27" s="1"/>
       <c r="JN27" s="1"/>
     </row>
-    <row r="28" ht="31" hidden="1" spans="1:274">
+    <row r="28" ht="31" spans="1:274">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J28" s="1">
         <v>2024</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -10086,41 +10119,41 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J29" s="1">
         <v>2024</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -10382,7 +10415,7 @@
       <c r="JM29" s="1"/>
       <c r="JN29" s="1"/>
     </row>
-    <row r="30" ht="15.5" hidden="1" spans="1:274">
+    <row r="30" ht="15.5" spans="1:274">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10660,21 +10693,21 @@
       <c r="JM30" s="1"/>
       <c r="JN30" s="1"/>
     </row>
-    <row r="31" ht="31" hidden="1" spans="1:274">
+    <row r="31" ht="31" spans="1:274">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -10682,7 +10715,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -10946,7 +10979,7 @@
       <c r="JM31" s="1"/>
       <c r="JN31" s="1"/>
     </row>
-    <row r="32" ht="15.5" hidden="1" spans="1:274">
+    <row r="32" ht="15.5" spans="1:274">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11224,35 +11257,35 @@
       <c r="JM32" s="1"/>
       <c r="JN32" s="1"/>
     </row>
-    <row r="33" ht="31" hidden="1" spans="1:274">
+    <row r="33" ht="31" spans="1:274">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J33" s="1">
         <v>2024</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -11516,38 +11549,42 @@
       <c r="JM33" s="1"/>
       <c r="JN33" s="1"/>
     </row>
-    <row r="34" ht="31" hidden="1" spans="1:274">
+    <row r="34" ht="31" spans="1:274">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="J34" s="1">
         <v>2024</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -11808,35 +11845,35 @@
       <c r="JM34" s="1"/>
       <c r="JN34" s="1"/>
     </row>
-    <row r="35" ht="31" hidden="1" spans="1:274">
+    <row r="35" ht="31" spans="1:274">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J35" s="1">
         <v>2016</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -12106,17 +12143,17 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -12124,17 +12161,17 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -12394,23 +12431,23 @@
       <c r="JM36" s="1"/>
       <c r="JN36" s="1"/>
     </row>
-    <row r="37" ht="31" hidden="1" spans="1:274">
+    <row r="37" ht="31" spans="1:274">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -12418,10 +12455,10 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -12684,14 +12721,14 @@
       <c r="JM37" s="1"/>
       <c r="JN37" s="1"/>
     </row>
-    <row r="38" ht="15.5" hidden="1" spans="1:274">
+    <row r="38" ht="15.5" spans="1:274">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -14909,12 +14946,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:R38" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="14">
-      <customFilters>
-        <customFilter operator="equal" val="√"/>
-        <customFilter operator="equal" val="ok"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="255">
   <si>
     <t>ID</t>
   </si>
@@ -409,6 +409,9 @@
     <t>Orellana-Corrales_2021_EP</t>
   </si>
   <si>
+    <t>√√</t>
+  </si>
+  <si>
     <t>More or less of me and you: self-relevance augments the effects of item probability on stimulus prioritization</t>
   </si>
   <si>
@@ -516,6 +519,10 @@
     <t>The oscillatory fingerprints of self-prioritization: Novel markers in spectral EEG for self-relevant processing</t>
   </si>
   <si>
+    <t>Céline C. Haciahmet,Marius Golubickis
+,Sarah Schäfer,Christian Frings,Bernhard Pastötter</t>
+  </si>
+  <si>
     <t>Bernhard Pastötter</t>
   </si>
   <si>
@@ -542,6 +549,9 @@
     <t>Self-processing in relation to emotion and reward processing in depression.</t>
   </si>
   <si>
+    <t>Catherine Hobbs,Jie Sui,David Kesslerc,Marcus R Munafò,Katherine S Button</t>
+  </si>
+  <si>
     <t>Catherine Hobbs</t>
   </si>
   <si>
@@ -563,6 +573,9 @@
     <t>The roles of the LpSTS and DLPFC in self-prioritization: A transcranial magnetic stimulation study</t>
   </si>
   <si>
+    <t>Qiongdan Liang,Bozhen Zhang,Sinan Fu,Jie Sui,Fei Wang</t>
+  </si>
+  <si>
     <t>Fei Wang</t>
   </si>
   <si>
@@ -593,7 +606,13 @@
     <t>No Trial-leve data</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>Towards The Boundaries of Self-Prioritization: Associating The Self With Asymmetric Shapes Disrupts The Self-Prioritization Effect</t>
+  </si>
+  <si>
+    <t>Michele Vicovaro,Mario Dalmaso,Marco Bertamini</t>
   </si>
   <si>
     <t>Michele Vicovaro</t>
@@ -629,6 +648,9 @@
     <t>How selves difer within and across cognitive domains: self-prioritisation, self-concept, and psychiatric traits</t>
   </si>
   <si>
+    <t>Kelsey Perrykkad,Jakob Hohwy</t>
+  </si>
+  <si>
     <t>Kelsey Perrykkad</t>
   </si>
   <si>
@@ -650,6 +672,9 @@
     <t>Self‑prioritization depends on assumed task‑relevance of self‑association</t>
   </si>
   <si>
+    <t>Mateusz Woźniak,Guenther Knoblich</t>
+  </si>
+  <si>
     <t>https://osf.io/35wp9</t>
   </si>
   <si>
@@ -657,6 +682,9 @@
   </si>
   <si>
     <t>Decoding individual differences in self-prioritization from the resting-state functional connectome</t>
+  </si>
+  <si>
+    <t>Yongfa Zhang,Fei Wang,Jie Sui</t>
   </si>
   <si>
     <t>https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497</t>
@@ -1486,7 +1514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1528,9 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1855,13 +1880,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:JN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="70" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" zoomScaleSheetLayoutView="70" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O37" sqref="O37"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1870,13 +1895,13 @@
     <col min="2" max="2" width="16.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="55.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="52.0833333333333" customWidth="1"/>
-    <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
-    <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="27.55" customWidth="1"/>
-    <col min="9" max="9" width="23.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="67.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
+    <col min="6" max="6" width="24.5833333333333" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40.0833333333333" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.55" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.4166666666667" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="67.0833333333333" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="34.125" customWidth="1"/>
     <col min="15" max="16" width="8.75" customWidth="1"/>
     <col min="17" max="17" width="75.5" customWidth="1"/>
@@ -1943,7 +1968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="15.5" hidden="1" spans="1:274">
+    <row r="2" ht="15.5" spans="1:274">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2237,7 +2262,7 @@
       <c r="JM2" s="2"/>
       <c r="JN2" s="2"/>
     </row>
-    <row r="3" ht="31" hidden="1" spans="1:274">
+    <row r="3" ht="31" spans="1:274">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2539,7 +2564,7 @@
       <c r="JM3" s="2"/>
       <c r="JN3" s="2"/>
     </row>
-    <row r="4" ht="31" hidden="1" spans="1:274">
+    <row r="4" ht="31" spans="1:274">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3141,7 +3166,7 @@
       <c r="JM5" s="2"/>
       <c r="JN5" s="2"/>
     </row>
-    <row r="6" ht="31" hidden="1" spans="1:274">
+    <row r="6" ht="31" spans="1:274">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3437,7 +3462,7 @@
       <c r="JM6" s="2"/>
       <c r="JN6" s="2"/>
     </row>
-    <row r="7" ht="31" hidden="1" spans="1:274">
+    <row r="7" ht="31" spans="1:274">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4667,7 +4692,7 @@
       <c r="JM10" s="2"/>
       <c r="JN10" s="2"/>
     </row>
-    <row r="11" ht="15.5" hidden="1" spans="1:274">
+    <row r="11" ht="15.5" spans="1:274">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5273,7 +5298,7 @@
       <c r="JM12" s="2"/>
       <c r="JN12" s="2"/>
     </row>
-    <row r="13" ht="31" hidden="1" spans="1:274">
+    <row r="13" ht="31" spans="1:274">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5312,7 +5337,7 @@
         <v>50</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5575,7 +5600,7 @@
       <c r="JM13" s="2"/>
       <c r="JN13" s="2"/>
     </row>
-    <row r="14" ht="46.5" hidden="1" spans="1:274">
+    <row r="14" ht="46.5" spans="1:274">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5584,37 +5609,37 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J14" s="2">
         <v>2022</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -5886,34 +5911,34 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J15" s="2">
         <v>2021</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>26</v>
@@ -5925,7 +5950,7 @@
         <v>26</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -6194,31 +6219,31 @@
         <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J16" s="2">
         <v>2023</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>41</v>
@@ -6227,7 +6252,7 @@
         <v>26</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>26</v>
@@ -6502,10 +6527,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>36</v>
@@ -6514,7 +6539,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>39</v>
@@ -6524,7 +6549,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>41</v>
@@ -6533,7 +6558,7 @@
         <v>26</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>26</v>
@@ -6810,29 +6835,31 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J18" s="2">
         <v>2023</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>83</v>
@@ -6847,7 +6874,7 @@
         <v>26</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -7107,7 +7134,7 @@
       <c r="JM18" s="2"/>
       <c r="JN18" s="2"/>
     </row>
-    <row r="19" ht="31" hidden="1" spans="1:274">
+    <row r="19" ht="31" spans="1:274">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -7116,35 +7143,37 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J19" s="2">
         <v>2023</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -7416,20 +7445,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>164</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J20" s="2">
         <v>2021</v>
@@ -7438,7 +7469,7 @@
         <v>48</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>50</v>
@@ -7447,7 +7478,7 @@
         <v>26</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>26</v>
@@ -7713,7 +7744,7 @@
       <c r="JM20" s="2"/>
       <c r="JN20" s="2"/>
     </row>
-    <row r="21" ht="31" hidden="1" spans="1:274">
+    <row r="21" ht="31" spans="1:274">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -7722,18 +7753,18 @@
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J21" s="2">
         <v>2023</v>
@@ -7743,10 +7774,10 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -8020,29 +8051,31 @@
         <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J22" s="2">
         <v>2022</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>83</v>
@@ -8057,13 +8090,13 @@
         <v>26</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -8321,7 +8354,7 @@
       <c r="JM22" s="2"/>
       <c r="JN22" s="2"/>
     </row>
-    <row r="23" ht="31" hidden="1" spans="1:274">
+    <row r="23" ht="31" spans="1:274">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8332,35 +8365,37 @@
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>188</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J23" s="2">
         <v>2022</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>83</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -8634,9 +8669,11 @@
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>87</v>
       </c>
@@ -8644,7 +8681,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>90</v>
@@ -8653,10 +8690,10 @@
         <v>2022</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>83</v>
@@ -8938,29 +8975,31 @@
         <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="F25" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J25" s="2">
         <v>2023</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>83</v>
@@ -8969,7 +9008,7 @@
         <v>26</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>26</v>
@@ -9246,29 +9285,29 @@
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J26" s="2">
         <v>2021</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>83</v>
@@ -9277,7 +9316,7 @@
         <v>26</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>26</v>
@@ -9554,29 +9593,29 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="11" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J27" s="2">
         <v>2023</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>83</v>
@@ -9585,7 +9624,7 @@
         <v>26</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>26</v>
@@ -9851,7 +9890,7 @@
       <c r="JM27" s="2"/>
       <c r="JN27" s="2"/>
     </row>
-    <row r="28" ht="31" hidden="1" spans="1:274">
+    <row r="28" ht="31" spans="1:274">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9862,35 +9901,35 @@
         <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="11" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="J28" s="2">
         <v>2024</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>83</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -10162,29 +10201,29 @@
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J29" s="2">
         <v>2024</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>50</v>
@@ -10198,8 +10237,8 @@
       <c r="P29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q29" s="14" t="s">
-        <v>221</v>
+      <c r="Q29" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -10459,7 +10498,7 @@
       <c r="JM29" s="2"/>
       <c r="JN29" s="2"/>
     </row>
-    <row r="30" ht="15.5" hidden="1" spans="1:274">
+    <row r="30" ht="15.5" spans="1:274">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -10737,21 +10776,21 @@
       <c r="JM30" s="2"/>
       <c r="JN30" s="2"/>
     </row>
-    <row r="31" ht="31" hidden="1" spans="1:274">
+    <row r="31" ht="31" spans="1:274">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
       <c r="G31" s="5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -10759,7 +10798,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -11023,7 +11062,7 @@
       <c r="JM31" s="2"/>
       <c r="JN31" s="2"/>
     </row>
-    <row r="32" ht="15.5" hidden="1" spans="1:274">
+    <row r="32" ht="15.5" spans="1:274">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -11301,31 +11340,31 @@
       <c r="JM32" s="2"/>
       <c r="JN32" s="2"/>
     </row>
-    <row r="33" ht="31" hidden="1" spans="1:274">
+    <row r="33" ht="31" spans="1:274">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="J33" s="2">
         <v>2024</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
@@ -11600,37 +11639,37 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="J34" s="2">
         <v>2024</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -11891,31 +11930,31 @@
       <c r="JM34" s="2"/>
       <c r="JN34" s="2"/>
     </row>
-    <row r="35" ht="31" hidden="1" spans="1:274">
+    <row r="35" ht="31" spans="1:274">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="11" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="J35" s="2">
         <v>2016</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
@@ -12192,14 +12231,14 @@
         <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -12217,7 +12256,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -12477,7 +12516,7 @@
       <c r="JM36" s="2"/>
       <c r="JN36" s="2"/>
     </row>
-    <row r="37" ht="31" hidden="1" spans="1:274">
+    <row r="37" ht="31" spans="1:274">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -12486,14 +12525,14 @@
         <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -12504,7 +12543,7 @@
         <v>83</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -12767,14 +12806,14 @@
       <c r="JM37" s="2"/>
       <c r="JN37" s="2"/>
     </row>
-    <row r="38" ht="15.5" hidden="1" spans="1:274">
+    <row r="38" ht="15.5" spans="1:274">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -14992,13 +15031,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:R38" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="△"/>
-        <filter val="√"/>
-        <filter val="ok"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -15044,7 +15076,7 @@
     <hyperlink ref="H23" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
     <hyperlink ref="H24" r:id="rId38" display="https://osf.io/35wp9"/>
     <hyperlink ref="H25" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
-    <hyperlink ref="H28" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
+    <hyperlink ref="H28" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a" tooltip="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
     <hyperlink ref="G5" r:id="rId41" display="i.r.kolvoort@uva.nl" tooltip="mailto:i.r.kolvoort@uva.nl"/>
     <hyperlink ref="G14" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
     <hyperlink ref="G18" r:id="rId43" display="pastoetter@uni-trier.de" tooltip="mailto:pastoetter@uni-trier.de"/>
@@ -15086,29 +15118,29 @@
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J1" s="2">
         <v>2021</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>83</v>
@@ -15117,7 +15149,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>26</v>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="280">
   <si>
     <t>ID</t>
   </si>
@@ -319,30 +319,6 @@
 Mayan Navon</t>
   </si>
   <si>
-    <t>Does Self-Associating a Geometric Shape Immediately Cause Attentional Prioritization?</t>
-  </si>
-  <si>
-    <t>Gabriela Orellana-Corrales, Christina Matschke, Ann-Katrin Wesslein</t>
-  </si>
-  <si>
-    <t>Gabriela Orellana-Corrales</t>
-  </si>
-  <si>
-    <t>gabyorellanac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://osf.io/3ke4f/</t>
-  </si>
-  <si>
-    <t>G Orellana-Corrales et al.</t>
-  </si>
-  <si>
-    <t>Experimental Psychology</t>
-  </si>
-  <si>
-    <t>Orellana-Corrales_2021_EP</t>
-  </si>
-  <si>
     <t>More or less of me and you: self-relevance augments the effects of item probability on stimulus prioritization</t>
   </si>
   <si>
@@ -568,6 +544,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Dalmaso, M., Vicovaro, M., Sarodo, A., &amp; Watanabe, K. (2024). The self can be associated with novel faces of in-group and out-group members: A cross-cultural study. </t>
     </r>
     <r>
@@ -776,6 +758,9 @@
     <t>Electrophysiological correlates of self‑related processing in adults with autism</t>
   </si>
   <si>
+    <t>Letizia Amodeo,Judith Goris,Annabel D. Nijhof,Jan R. Wiersema</t>
+  </si>
+  <si>
     <t>Letizia Amodeo</t>
   </si>
   <si>
@@ -839,9 +824,6 @@
     <t>Bukowski_2021_AP</t>
   </si>
   <si>
-    <t>TO DO</t>
-  </si>
-  <si>
     <t>Examining the dorsolateral and ventromedial prefrontal cortex involvement in the self-attention network: A randomized, sham-controlled, parallel group, double-blind, and multichannel HD-tDCS study.</t>
   </si>
   <si>
@@ -860,7 +842,7 @@
     <t>Frontiersin</t>
   </si>
   <si>
-    <t>Prof Lucía B. Palmero
+    <t>Lucía B. Palmero
 Víctor Martínez-Pérez</t>
   </si>
   <si>
@@ -915,18 +897,18 @@
     <t>Template_1</t>
   </si>
   <si>
+    <t>Good Me Bad Me: Prioritization of the Good-Self During Perceptual Decision-Making</t>
+  </si>
+  <si>
+    <t>https://osf.io/4zvkm/</t>
+  </si>
+  <si>
+    <t>Collabra: Psychology</t>
+  </si>
+  <si>
     <t>○</t>
   </si>
   <si>
-    <t>Good Me Bad Me: Prioritization of the Good-Self During Perceptual Decision-Making</t>
-  </si>
-  <si>
-    <t>https://osf.io/4zvkm/</t>
-  </si>
-  <si>
-    <t>Collabra: Psychology</t>
-  </si>
-  <si>
     <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
   </si>
   <si>
@@ -969,6 +951,9 @@
     <t>Schäfer et al.</t>
   </si>
   <si>
+    <t>Experimental Psychology</t>
+  </si>
+  <si>
     <t>Saliency at first sight: instant identity referential advantage toward a newly met partner</t>
   </si>
   <si>
@@ -1003,6 +988,27 @@
   </si>
   <si>
     <t>Journal of Experimental Psychology:Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>Does Self-Associating a Geometric Shape Immediately Cause Attentional Prioritization?</t>
+  </si>
+  <si>
+    <t>Gabriela Orellana-Corrales, Christina Matschke, Ann-Katrin Wesslein</t>
+  </si>
+  <si>
+    <t>Gabriela Orellana-Corrales</t>
+  </si>
+  <si>
+    <t>gabyorellanac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://osf.io/3ke4f/</t>
+  </si>
+  <si>
+    <t>G Orellana-Corrales et al.</t>
+  </si>
+  <si>
+    <t>Orellana-Corrales_2021_EP</t>
   </si>
 </sst>
 </file>
@@ -1051,14 +1057,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1675,7 +1681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,9 +1689,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1709,10 +1712,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1721,16 +1730,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2060,11 +2063,11 @@
   <dimension ref="A1:JO37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2125,10 +2128,10 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -2155,25 +2158,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2191,16 +2194,18 @@
       <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2464,22 +2469,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2500,16 +2505,16 @@
       <c r="N3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="S3" s="1"/>
@@ -2775,25 +2780,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2811,16 +2816,18 @@
       <c r="N4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -3084,25 +3091,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3120,16 +3127,16 @@
       <c r="N5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="S5" s="1"/>
@@ -3397,25 +3404,25 @@
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -3433,20 +3440,20 @@
       <c r="N6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="5" t="s">
         <v>67</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="6"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -3710,25 +3717,25 @@
       <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -3746,10 +3753,10 @@
       <c r="N7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -3759,7 +3766,7 @@
         <v>71</v>
       </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="U7" s="1"/>
@@ -4025,25 +4032,25 @@
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -4059,16 +4066,16 @@
       <c r="N8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>86</v>
       </c>
       <c r="S8" s="1"/>
@@ -4329,37 +4336,37 @@
       <c r="JN8" s="1"/>
       <c r="JO8" s="1"/>
     </row>
-    <row r="9" ht="31" spans="1:275">
+    <row r="9" ht="46.5" spans="1:275">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K9" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>93</v>
@@ -4370,7 +4377,7 @@
       <c r="N9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P9" s="1"/>
@@ -4634,53 +4641,59 @@
       <c r="JN9" s="1"/>
       <c r="JO9" s="1"/>
     </row>
-    <row r="10" ht="46.5" spans="1:275">
+    <row r="10" ht="31" spans="1:275">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="1">
-        <v>2022</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="O10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -4944,53 +4957,53 @@
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
+      <c r="I11" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K11" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="8" t="s">
-        <v>20</v>
+      <c r="P11" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5250,52 +5263,50 @@
       <c r="JN11" s="1"/>
       <c r="JO11" s="1"/>
     </row>
-    <row r="12" ht="31" spans="1:275">
+    <row r="12" ht="15.5" spans="1:275">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>112</v>
+      <c r="E12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="7" t="s">
         <v>115</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12" s="1">
         <v>2023</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>120</v>
+      <c r="P12" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>20</v>
@@ -5561,56 +5572,60 @@
       <c r="JN12" s="1"/>
       <c r="JO12" s="1"/>
     </row>
-    <row r="13" ht="15.5" spans="1:275">
+    <row r="13" ht="46.5" spans="1:275">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="K13" s="1">
         <v>2023</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="M13" s="1" t="s">
         <v>127</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>120</v>
+      <c r="P13" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>20</v>
+      <c r="R13" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5870,61 +5885,53 @@
       <c r="JN13" s="1"/>
       <c r="JO13" s="1"/>
     </row>
-    <row r="14" ht="46.5" spans="1:275">
+    <row r="14" ht="31" spans="1:275">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>132</v>
       </c>
+      <c r="I14" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K14" s="1">
         <v>2023</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -6188,48 +6195,54 @@
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>138</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>141</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>142</v>
       </c>
       <c r="K15" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="O15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -6488,61 +6501,67 @@
       <c r="JN15" s="1"/>
       <c r="JO15" s="1"/>
     </row>
-    <row r="16" ht="31" spans="1:275">
+    <row r="16" ht="69" customHeight="1" spans="1:275">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2021</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>151</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="P16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="R16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -6799,67 +6818,59 @@
       <c r="JN16" s="1"/>
       <c r="JO16" s="1"/>
     </row>
-    <row r="17" ht="69" customHeight="1" spans="1:275">
+    <row r="17" ht="31" spans="1:275">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>156</v>
       </c>
+      <c r="G17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K17" s="1">
         <v>2022</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>162</v>
-      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -7123,50 +7134,54 @@
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="K18" s="1">
         <v>2022</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="8" t="s">
+      <c r="O18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="P18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -7430,54 +7445,56 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="K19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="M19" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>20</v>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -7741,49 +7758,49 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="G20" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K20" s="1">
-        <v>2023</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>120</v>
+      <c r="P20" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>20</v>
@@ -8049,54 +8066,54 @@
       <c r="JN20" s="1"/>
       <c r="JO20" s="1"/>
     </row>
-    <row r="21" ht="31" spans="1:275">
+    <row r="21" ht="15.5" spans="1:275">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2023</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K21" s="1">
-        <v>2021</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>120</v>
+      <c r="P21" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>20</v>
@@ -8362,60 +8379,60 @@
       <c r="JN21" s="1"/>
       <c r="JO21" s="1"/>
     </row>
-    <row r="22" ht="15.5" spans="1:275">
+    <row r="22" ht="46.5" spans="1:275">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>193</v>
       </c>
       <c r="K22" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>20</v>
+      <c r="R22" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -8675,59 +8692,57 @@
       <c r="JN22" s="1"/>
       <c r="JO22" s="1"/>
     </row>
-    <row r="23" ht="46.5" spans="1:275">
+    <row r="23" ht="62" spans="1:275">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="K23" s="1">
         <v>2024</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>202</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="17" t="s">
+      <c r="R23" s="5" t="s">
         <v>203</v>
       </c>
       <c r="S23" s="1"/>
@@ -8988,57 +9003,55 @@
       <c r="JN23" s="1"/>
       <c r="JO23" s="1"/>
     </row>
-    <row r="24" ht="62" spans="1:275">
+    <row r="24" ht="15.5" spans="1:275">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H24" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>35</v>
+      <c r="H24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K24" s="1">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>210</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -9297,32 +9310,30 @@
       <c r="JN24" s="1"/>
       <c r="JO24" s="1"/>
     </row>
-    <row r="25" ht="15.5" spans="1:275">
+    <row r="25" ht="31" spans="1:275">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>212</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>215</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -9340,7 +9351,7 @@
       <c r="N25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="1"/>
@@ -9604,51 +9615,49 @@
       <c r="JN25" s="1"/>
       <c r="JO25" s="1"/>
     </row>
-    <row r="26" ht="31" spans="1:275">
+    <row r="26" ht="62" spans="1:275">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2021</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="P26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -9907,51 +9916,57 @@
       <c r="JN26" s="1"/>
       <c r="JO26" s="1"/>
     </row>
-    <row r="27" ht="62" spans="1:275">
+    <row r="27" ht="31" spans="1:275">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="K27" s="1">
         <v>2020</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M27" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="N27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="6" t="s">
-        <v>232</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -10210,54 +10225,42 @@
       <c r="JN27" s="1"/>
       <c r="JO27" s="1"/>
     </row>
-    <row r="28" ht="31" spans="1:275">
+    <row r="28" ht="15.5" spans="1:275">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2020</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>233</v>
-      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -10517,41 +10520,45 @@
       <c r="JN28" s="1"/>
       <c r="JO28" s="1"/>
     </row>
-    <row r="29" ht="15.5" spans="1:275">
+    <row r="29" ht="31" spans="1:275">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="K29" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -10816,44 +10823,42 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1" t="s">
+      <c r="J30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K30" s="1">
-        <v>2021</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>250</v>
+        <v>111</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -11115,46 +11120,48 @@
       <c r="JN30" s="1"/>
       <c r="JO30" s="1"/>
     </row>
-    <row r="31" ht="31" spans="1:275">
+    <row r="31" ht="15.5" spans="1:275">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F31" s="8"/>
+      <c r="E31" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>252</v>
+        <v>23</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="K31" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M31" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="N31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -11416,50 +11423,52 @@
       <c r="JN31" s="1"/>
       <c r="JO31" s="1"/>
     </row>
-    <row r="32" ht="15.5" spans="1:275">
+    <row r="32" ht="31" spans="1:275">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="1">
-        <v>2019</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="N32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q32" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>225</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -11724,47 +11733,43 @@
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="C33" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="K33" s="1">
+        <v>2023</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K33" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q33" s="18" t="s">
-        <v>233</v>
-      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -12029,42 +12034,30 @@
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="K34" s="1">
-        <v>2023</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -12330,27 +12323,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="15" t="s">
-        <v>270</v>
+      <c r="N35" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -12620,30 +12617,30 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>273</v>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K36" s="1">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -12912,33 +12909,45 @@
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="C37" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
         <v>278</v>
       </c>
       <c r="K37" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="L37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O37" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -13205,64 +13214,64 @@
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="L24" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
-    <hyperlink ref="H32" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="L23" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="H31" r:id="rId2" display="merryndconstable@gmail.com"/>
     <hyperlink ref="H2" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
-    <hyperlink ref="H31" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="H30" r:id="rId3" display="hcp4715@gmail.com"/>
     <hyperlink ref="H4" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
     <hyperlink ref="H5" r:id="rId4" display="gaoxp@shnu.edu.cn" tooltip="mailto:gaoxp@shnu.edu.cn"/>
     <hyperlink ref="H6" r:id="rId5" display="schaefer@psychologie-forum-muenster.de" tooltip="mailto:schaefer@psychologie-forum-muenster.de"/>
     <hyperlink ref="H7" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
-    <hyperlink ref="H30" r:id="rId7" display="skumar@brookes.ac.uk"/>
-    <hyperlink ref="H25" r:id="rId8" display="marius.golubickis@abdn.ac.uk" tooltip="mailto:marius.golubickis@abdn.ac.uk"/>
+    <hyperlink ref="H29" r:id="rId7" display="skumar@brookes.ac.uk"/>
+    <hyperlink ref="H24" r:id="rId8" display="marius.golubickis@abdn.ac.uk" tooltip="mailto:marius.golubickis@abdn.ac.uk"/>
     <hyperlink ref="H8" r:id="rId9" display="mayanna@post.bgu.ac.il" tooltip="mailto:mayanna@post.bgu.ac.il"/>
-    <hyperlink ref="H9" r:id="rId10" display="gabyorellanac@gmail.com" tooltip="mailto:gabyorellanac@gmail.com"/>
-    <hyperlink ref="H13" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="H20" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
-    <hyperlink ref="H22" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
-    <hyperlink ref="H23" r:id="rId13" display="lfuentes@um.es" tooltip="mailto:lfuentes@um.es"/>
-    <hyperlink ref="H35" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
-    <hyperlink ref="H34" r:id="rId15" display="wentura@mx.uni-saarland.de" tooltip="mailto:wentura@mx.uni-saarland.de"/>
-    <hyperlink ref="H36" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
-    <hyperlink ref="H33" r:id="rId17" display="mario.dalmaso@unipd.it"/>
-    <hyperlink ref="H37" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
-    <hyperlink ref="I32" r:id="rId19" display="https://osf.io/sejw7/"/>
+    <hyperlink ref="H37" r:id="rId10" display="gabyorellanac@gmail.com" tooltip="mailto:gabyorellanac@gmail.com"/>
+    <hyperlink ref="H12" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="H19" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
+    <hyperlink ref="H21" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
+    <hyperlink ref="H22" r:id="rId13" display="lfuentes@um.es" tooltip="mailto:lfuentes@um.es"/>
+    <hyperlink ref="H34" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
+    <hyperlink ref="H33" r:id="rId15" display="wentura@mx.uni-saarland.de" tooltip="mailto:wentura@mx.uni-saarland.de"/>
+    <hyperlink ref="H35" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
+    <hyperlink ref="H32" r:id="rId17" display="mario.dalmaso@unipd.it"/>
+    <hyperlink ref="H36" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
+    <hyperlink ref="I31" r:id="rId19" display="https://osf.io/sejw7/"/>
     <hyperlink ref="I2" r:id="rId20" display="https://osf.io/5zaej/"/>
-    <hyperlink ref="I31" r:id="rId21" display="https://osf.io/4zvkm/"/>
-    <hyperlink ref="I30" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
+    <hyperlink ref="I30" r:id="rId21" display="https://osf.io/4zvkm/"/>
+    <hyperlink ref="I29" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
     <hyperlink ref="I4" r:id="rId23" display="https://osf.io/khyjq/"/>
     <hyperlink ref="I5" r:id="rId24" display="https://osf.io/bw27c"/>
     <hyperlink ref="I6" r:id="rId25" display="http://dx.doi.org/10.23668/psycharchives.2642"/>
     <hyperlink ref="I7" r:id="rId26" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
-    <hyperlink ref="I25" r:id="rId27" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
+    <hyperlink ref="I24" r:id="rId27" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
     <hyperlink ref="I8" r:id="rId28" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="I9" r:id="rId29" display="https://osf.io/3ke4f/"/>
-    <hyperlink ref="I10" r:id="rId30" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="I12" r:id="rId31" display="https://osf.io/4n6j7/"/>
-    <hyperlink ref="I13" r:id="rId32" display="https://zenodo.org/records/8031086"/>
-    <hyperlink ref="I14" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
-    <hyperlink ref="I15" r:id="rId34" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
-    <hyperlink ref="I16" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
-    <hyperlink ref="I17" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
-    <hyperlink ref="I18" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
-    <hyperlink ref="I19" r:id="rId38" display="https://osf.io/35wp9"/>
-    <hyperlink ref="I20" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
-    <hyperlink ref="I23" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a" tooltip="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
+    <hyperlink ref="I37" r:id="rId29" display="https://osf.io/3ke4f/" tooltip="https://osf.io/3ke4f/"/>
+    <hyperlink ref="I9" r:id="rId30" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="I11" r:id="rId31" display="https://osf.io/4n6j7/"/>
+    <hyperlink ref="I12" r:id="rId32" display="https://zenodo.org/records/8031086"/>
+    <hyperlink ref="I13" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
+    <hyperlink ref="I14" r:id="rId34" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
+    <hyperlink ref="I15" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
+    <hyperlink ref="I16" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="I17" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
+    <hyperlink ref="I18" r:id="rId38" display="https://osf.io/35wp9"/>
+    <hyperlink ref="I19" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
+    <hyperlink ref="I22" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a" tooltip="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
     <hyperlink ref="H3" r:id="rId41" display="i.r.kolvoort@uva.nl" tooltip="mailto:i.r.kolvoort@uva.nl"/>
-    <hyperlink ref="H10" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
-    <hyperlink ref="H14" r:id="rId43" display="pastoetter@uni-trier.de" tooltip="mailto:pastoetter@uni-trier.de"/>
-    <hyperlink ref="H15" r:id="rId44" display="c.hobbs@bristol.ac.uk;" tooltip="mailto:c.hobbs@bristol.ac.uk;"/>
-    <hyperlink ref="H17" r:id="rId45" display="michele.vicovaro@unipd.it"/>
-    <hyperlink ref="H18" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
-    <hyperlink ref="H19" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
-    <hyperlink ref="H24" r:id="rId47" display="letizia.amodeo@ugent.be"/>
-    <hyperlink ref="H27" r:id="rId48" display="victor.martinez5@um.es" tooltip="mailto:victor.martinez5@um.es"/>
-    <hyperlink ref="H26" r:id="rId49" display="hbbukowski@gmail.com"/>
-    <hyperlink ref="H21" r:id="rId50" display="hongjl18@mails.tsinghua.edu.cn" tooltip="mailto:hongjl18@mails.tsinghua.edu.cn"/>
-    <hyperlink ref="H11" r:id="rId51" display="guanll353@nenu.edu.cn"/>
-    <hyperlink ref="I28" r:id="rId52" display="https://osf.io/2q9w7/" tooltip="https://osf.io/2q9w7/"/>
-    <hyperlink ref="I27" r:id="rId53" display="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full" tooltip="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full"/>
-    <hyperlink ref="I26" r:id="rId54" display="https://osf.io/pcv3u/"/>
+    <hyperlink ref="H9" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
+    <hyperlink ref="H13" r:id="rId43" display="pastoetter@uni-trier.de" tooltip="mailto:pastoetter@uni-trier.de"/>
+    <hyperlink ref="H14" r:id="rId44" display="c.hobbs@bristol.ac.uk;" tooltip="mailto:c.hobbs@bristol.ac.uk;"/>
+    <hyperlink ref="H16" r:id="rId45" display="michele.vicovaro@unipd.it"/>
+    <hyperlink ref="H17" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
+    <hyperlink ref="H18" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
+    <hyperlink ref="H23" r:id="rId47" display="letizia.amodeo@ugent.be"/>
+    <hyperlink ref="H26" r:id="rId48" display="victor.martinez5@um.es" tooltip="mailto:victor.martinez5@um.es"/>
+    <hyperlink ref="H25" r:id="rId49" display="hbbukowski@gmail.com"/>
+    <hyperlink ref="H20" r:id="rId50" display="hongjl18@mails.tsinghua.edu.cn" tooltip="mailto:hongjl18@mails.tsinghua.edu.cn"/>
+    <hyperlink ref="H10" r:id="rId51" display="guanll353@nenu.edu.cn"/>
+    <hyperlink ref="I27" r:id="rId52" display="https://osf.io/2q9w7/" tooltip="https://osf.io/2q9w7/"/>
+    <hyperlink ref="I26" r:id="rId53" display="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full" tooltip="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full"/>
+    <hyperlink ref="I25" r:id="rId54" display="https://osf.io/pcv3u/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="283">
   <si>
     <t>ID</t>
   </si>
@@ -96,141 +96,61 @@
     <t>√</t>
   </si>
   <si>
-    <t>Sticking together? Re-binding previous other-associated stimuli interferes with self-verification but not partner-verification</t>
-  </si>
-  <si>
-    <t>Merryn D. Constable, Fruzsina Elekes, Natalie Sebanz, and Günther Knoblich</t>
-  </si>
-  <si>
-    <t>Merryn D. Constable</t>
-  </si>
-  <si>
-    <t>merryndconstable@gmail.com</t>
-  </si>
-  <si>
-    <t>https://osf.io/5zaej/</t>
-  </si>
-  <si>
-    <t>Constable &amp; Knoblich</t>
+    <t>Electrophysiological correlates of self‑related processing in adults with autism</t>
+  </si>
+  <si>
+    <t>Letizia Amodeo,Judith Goris,Annabel D. Nijhof,Jan R. Wiersema</t>
+  </si>
+  <si>
+    <t>Letizia Amodeo</t>
+  </si>
+  <si>
+    <t>letizia.amodeo@ugent.be</t>
+  </si>
+  <si>
+    <t>Can be obtained via request</t>
+  </si>
+  <si>
+    <t>L Amodeo et al.</t>
+  </si>
+  <si>
+    <t>Cognitive, Affective, &amp; Behavioral Neuroscience</t>
+  </si>
+  <si>
+    <t>Amodeo_2024_CABN</t>
+  </si>
+  <si>
+    <t>Template_2</t>
+  </si>
+  <si>
+    <t>Letizia Amodeo
+Judith Goris
+Annabel D. Nijhof
+Jan R. Wiersema</t>
+  </si>
+  <si>
+    <t>Socio-cognitive training impacts emotional and perceptual self-salience but not self-other distinction.</t>
+  </si>
+  <si>
+    <t>Henryk Bukowski,Boryana Todorova,Magdalena Boch,Giorgia Silani,Claus Lamm</t>
+  </si>
+  <si>
+    <t>Henryk Bukowski</t>
+  </si>
+  <si>
+    <t>hbbukowski@gmail.com</t>
+  </si>
+  <si>
+    <t>https://osf.io/pcv3u/</t>
+  </si>
+  <si>
+    <t>Henryk Bukowski et al.</t>
   </si>
   <si>
     <t>Acta Psychologica</t>
   </si>
   <si>
-    <t>Constable_2020_AP</t>
-  </si>
-  <si>
-    <t>Template_2+询问P1、P2对应的Identity</t>
-  </si>
-  <si>
-    <t>√√</t>
-  </si>
-  <si>
-    <t>Temporal integration as “common currency” of brain and self-scale-free activity in resting-state EEG correlates with temporal delay effects on self-relatedness</t>
-  </si>
-  <si>
-    <t>Ivar R. Kolvoort,Soren Wainio-Theberge,Annemarie Wolff,Georg Northoff</t>
-  </si>
-  <si>
-    <t>Ivar R. Kolvoort</t>
-  </si>
-  <si>
-    <t>i.r.kolvoort@uva.nl</t>
-  </si>
-  <si>
-    <t>Can be obtained via request</t>
-  </si>
-  <si>
-    <t>IR Kolvoort et al.</t>
-  </si>
-  <si>
-    <t>Human Brain Mapping</t>
-  </si>
-  <si>
-    <t>Kolvoort_2020_HBM</t>
-  </si>
-  <si>
-    <t>Template_2</t>
-  </si>
-  <si>
-    <t>Ivar Kolvoort
-Georg Northoff</t>
-  </si>
-  <si>
-    <t>Affective compatibility with the self modulates the self-prioritisation effect</t>
-  </si>
-  <si>
-    <t>Merryn Dale Constable , Maike Lena Becker , Ye-In Oh &amp; Günther Knoblich</t>
-  </si>
-  <si>
-    <t>Merryn Dale Constable</t>
-  </si>
-  <si>
-    <t>https://osf.io/khyjq/</t>
-  </si>
-  <si>
-    <t>Constable et al.</t>
-  </si>
-  <si>
-    <t>Cognition and Emotion</t>
-  </si>
-  <si>
-    <t>Constable_2020_CE</t>
-  </si>
-  <si>
-    <t>Prioritised self-referential processing is modulated by emotional arousal</t>
-  </si>
-  <si>
-    <t>Haoyue Qian, Zhiguo Wang, Chao Li, Xiangping Gao</t>
-  </si>
-  <si>
-    <t>Xiangping Gao</t>
-  </si>
-  <si>
-    <t>gaoxp@shnu.edu.cn</t>
-  </si>
-  <si>
-    <t>https://osf.io/bw27c</t>
-  </si>
-  <si>
-    <t>Qian et al.</t>
-  </si>
-  <si>
-    <t>Quarterly Journal of Experimental Psychology</t>
-  </si>
-  <si>
-    <t>Qian_2019_QJEP</t>
-  </si>
-  <si>
-    <t>Xiangping Gao
-Haoyue Qian</t>
-  </si>
-  <si>
-    <t>CC-BY-SA 4.0</t>
-  </si>
-  <si>
-    <t>Understanding self-prioritisation: the prioritisation of self-relevant stimuli and its relation to the individual self-esteem</t>
-  </si>
-  <si>
-    <t>Sarah Schäfer and Christian Frings</t>
-  </si>
-  <si>
-    <t>Sarah Schäfer</t>
-  </si>
-  <si>
-    <t>schaefer@psychologie-forum-muenster.de</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.23668/psycharchives.2642</t>
-  </si>
-  <si>
-    <t>Schäfer &amp; Frings</t>
-  </si>
-  <si>
-    <t>Journal of Cognitive Psychology</t>
-  </si>
-  <si>
-    <t>Schaefer_2019_CP</t>
+    <t>Bukowski_2021_AP</t>
   </si>
   <si>
     <r>
@@ -253,36 +173,91 @@
     </r>
   </si>
   <si>
-    <t>Sarah Schäfer
-Marel Pauly
-Dirk Wentura</t>
-  </si>
-  <si>
-    <t>CC BY 4.0</t>
-  </si>
-  <si>
-    <t>Prioritization of arbitrary faces associated to self: An EEG study</t>
-  </si>
-  <si>
-    <t>Mateusz Woźniak, Dimitrios Kourtis, Gunther Knoblich</t>
-  </si>
-  <si>
-    <t>Mateusz Wozniak</t>
-  </si>
-  <si>
-    <t>mgwozniak@gmail.com</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025</t>
-  </si>
-  <si>
-    <t>Woźniak et al.</t>
-  </si>
-  <si>
-    <t>PloS one</t>
-  </si>
-  <si>
-    <t>Wozniak_2018_PLOS</t>
+    <t>√√</t>
+  </si>
+  <si>
+    <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
+  </si>
+  <si>
+    <t>Merryn D. Constable</t>
+  </si>
+  <si>
+    <t>merryndconstable@gmail.com</t>
+  </si>
+  <si>
+    <t>https://osf.io/sejw7/</t>
+  </si>
+  <si>
+    <t>Constable et al.</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Psychology:  Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>Constable_2019_EPHPP</t>
+  </si>
+  <si>
+    <t>Template_1</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>Sticking together? Re-binding previous other-associated stimuli interferes with self-verification but not partner-verification</t>
+  </si>
+  <si>
+    <t>Merryn D. Constable, Fruzsina Elekes, Natalie Sebanz, and Günther Knoblich</t>
+  </si>
+  <si>
+    <t>https://osf.io/5zaej/</t>
+  </si>
+  <si>
+    <t>Constable &amp; Knoblich</t>
+  </si>
+  <si>
+    <t>Constable_2020_AP</t>
+  </si>
+  <si>
+    <t>Template_2+询问P1、P2对应的Identity</t>
+  </si>
+  <si>
+    <t>Affective compatibility with the self modulates the self-prioritisation effect</t>
+  </si>
+  <si>
+    <t>Merryn Dale Constable , Maike Lena Becker , Ye-In Oh &amp; Günther Knoblich</t>
+  </si>
+  <si>
+    <t>Merryn Dale Constable</t>
+  </si>
+  <si>
+    <t>https://osf.io/khyjq/</t>
+  </si>
+  <si>
+    <t>Cognition and Emotion</t>
+  </si>
+  <si>
+    <t>Constable_2020_CE</t>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>The self can be associated with novel faces of in-group and out-group members: A cross-cultural study</t>
+  </si>
+  <si>
+    <t>Mario Dalmaso</t>
+  </si>
+  <si>
+    <t>mario.dalmaso@unipd.it</t>
+  </si>
+  <si>
+    <t>Mario Dalmaso et al.</t>
+  </si>
+  <si>
+    <t>Consciousness and Cognition</t>
+  </si>
+  <si>
+    <t>Dalmaso_2024_CC</t>
   </si>
   <si>
     <t>2022.https://osf.io/f2bg6/ √
@@ -291,148 +266,55 @@
 2022.https://osf.io/qsr4e/√</t>
   </si>
   <si>
-    <t>CC0 1.0 Universal</t>
-  </si>
-  <si>
-    <t>Are Self-Related Items Unique? The Self-Prioritization Effect Revisited</t>
-  </si>
-  <si>
-    <t>Mayan Navon, Tal Makovski</t>
-  </si>
-  <si>
-    <t>Mayan Navon</t>
-  </si>
-  <si>
-    <t>mayanna@post.bgu.ac.il</t>
-  </si>
-  <si>
-    <t>https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9</t>
-  </si>
-  <si>
-    <t>Navon &amp; Makovski</t>
-  </si>
-  <si>
-    <t>Navon_2021</t>
-  </si>
-  <si>
-    <t>Tal Makovski
-Mayan Navon</t>
-  </si>
-  <si>
-    <t>More or less of me and you: self-relevance augments the effects of item probability on stimulus prioritization</t>
-  </si>
-  <si>
-    <t>Saga L. Svensson, Marius Golubickis, Hollie Maclean, Johanna K. Falbén, Linn M. Persson, Dimitra Tsamadi, Siobhan Caughey, Arash Sahraie, C. Neil Macrae</t>
-  </si>
-  <si>
-    <t>Saga L. Svensson</t>
-  </si>
-  <si>
-    <t>s.svensson.19@abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>https://osf.io/cj7fp/</t>
-  </si>
-  <si>
-    <t>Svensson et al.</t>
-  </si>
-  <si>
-    <t>Psychological Research</t>
-  </si>
-  <si>
-    <t>Svensson_2021_PR</t>
-  </si>
-  <si>
-    <t>Romantic feedbacks influence self-relevant processing: the moderating effects of sex difference and facial attractiveness</t>
-  </si>
-  <si>
-    <t>Yang Xu, Yuan Yuan, Xiaochun Xie, Hui Tan, Lili Guan</t>
-  </si>
-  <si>
-    <t>Lili Guan</t>
-  </si>
-  <si>
-    <t>guanll353@nenu.edu.cn</t>
-  </si>
-  <si>
-    <t>Xu et al.</t>
-  </si>
-  <si>
-    <t>Current Psychology</t>
-  </si>
-  <si>
-    <t>Xu_2021_CP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Template_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（未公开数据）</t>
-    </r>
-  </si>
-  <si>
-    <t>To see or not to see: the parallel processing of self-relevance and facial expressions</t>
-  </si>
-  <si>
-    <t>Tuo Liu, Jie Sui and Andrea Hildebrandt</t>
-  </si>
-  <si>
-    <t>Tuo Liu</t>
-  </si>
-  <si>
-    <t>tuo.liu@uol.de</t>
-  </si>
-  <si>
-    <t>https://osf.io/4n6j7/</t>
-  </si>
-  <si>
-    <t>Liu et al.</t>
-  </si>
-  <si>
-    <t>Cognitive Research: Principles and Implications</t>
-  </si>
-  <si>
-    <t>Liu_2023_CP</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>CC BY 4.0</t>
+  </si>
+  <si>
+    <t>Perceiving the Self and Emotions with an Anxious Mind:Evidence from an Implicit Perceptual Task</t>
+  </si>
+  <si>
+    <t>Michella Feldborg,Naomi A. Lee,Kalai Hung,Kaiping Peng,Jie Sui</t>
+  </si>
+  <si>
+    <t>Kalai Hung</t>
+  </si>
+  <si>
+    <t>hongjl18@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>M Feldborg et al.</t>
+  </si>
+  <si>
+    <t>International Journal of Environmental Research and Public Health</t>
+  </si>
+  <si>
+    <t>Feldborg_2021_ERPH</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>Self-referencing prioritizes moral character on perceptual matching</t>
-  </si>
-  <si>
-    <t>Hu Chuan-Peng, Kaiping Peng, Jie Sui</t>
-  </si>
-  <si>
-    <t>Chuan-Peng Hu</t>
-  </si>
-  <si>
-    <t>hcp4715@gmail.com</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/8031086</t>
-  </si>
-  <si>
-    <t>Hu et al.</t>
-  </si>
-  <si>
-    <t>Hu_2023</t>
+    <t>CC BY-NC-ND</t>
+  </si>
+  <si>
+    <t>Judging me and you: Task design modulates self-prioritization</t>
+  </si>
+  <si>
+    <t>Marius Golubickis,C. Neil Macrae</t>
+  </si>
+  <si>
+    <t>Marius Golubickis</t>
+  </si>
+  <si>
+    <t>marius.golubickis@abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>https://osf.io/8bktn/</t>
+  </si>
+  <si>
+    <t>Golubickis &amp; Macrae</t>
+  </si>
+  <si>
+    <t>Golubickis_2021_AP</t>
   </si>
   <si>
     <t>The oscillatory fingerprints of self-prioritization: Novel markers in spectral EEG for self-relevant processing</t>
@@ -489,6 +371,55 @@
     <t>Hobbs_2023_PM</t>
   </si>
   <si>
+    <t>Self-referencing prioritizes moral character on perceptual matching</t>
+  </si>
+  <si>
+    <t>Hu Chuan-Peng, Kaiping Peng, Jie Sui</t>
+  </si>
+  <si>
+    <t>Chuan-Peng Hu</t>
+  </si>
+  <si>
+    <t>hcp4715@gmail.com</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8031086</t>
+  </si>
+  <si>
+    <t>Hu et al.</t>
+  </si>
+  <si>
+    <t>Hu_2023</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Temporal integration as “common currency” of brain and self-scale-free activity in resting-state EEG correlates with temporal delay effects on self-relatedness</t>
+  </si>
+  <si>
+    <t>Ivar R. Kolvoort,Soren Wainio-Theberge,Annemarie Wolff,Georg Northoff</t>
+  </si>
+  <si>
+    <t>Ivar R. Kolvoort</t>
+  </si>
+  <si>
+    <t>i.r.kolvoort@uva.nl</t>
+  </si>
+  <si>
+    <t>IR Kolvoort et al.</t>
+  </si>
+  <si>
+    <t>Human Brain Mapping</t>
+  </si>
+  <si>
+    <t>Kolvoort_2020_HBM</t>
+  </si>
+  <si>
+    <t>Ivar Kolvoort
+Georg Northoff</t>
+  </si>
+  <si>
     <t>The roles of the LpSTS and DLPFC in self-prioritization: A transcranial magnetic stimulation study</t>
   </si>
   <si>
@@ -510,37 +441,54 @@
     <t>Liang_2021_HBM</t>
   </si>
   <si>
-    <t>Towards The Boundaries of Self-Prioritization: Associating The Self With Asymmetric Shapes Disrupts The Self-Prioritization Effect</t>
-  </si>
-  <si>
-    <t>Michele Vicovaro,Mario Dalmaso,Marco Bertamini</t>
-  </si>
-  <si>
-    <t>Michele Vicovaro</t>
-  </si>
-  <si>
-    <t>michele.vicovaro@unipd.it</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/FE3JW</t>
-  </si>
-  <si>
-    <t>Vicovaro et al.</t>
-  </si>
-  <si>
-    <t>Journal of Experimental Psychology: Human Perception and Performance</t>
-  </si>
-  <si>
-    <t>Vicovaro_2022_EPHPP</t>
-  </si>
-  <si>
-    <t>Mario Dalmaso (Department of Social and Developmental Psychology, University of Padova)
-Marco Bertamini (Department of General Psychology, University of Padova)
-Michele Vicovaro</t>
-  </si>
-  <si>
-    <t>Sarah Schäfer
-Marius Golubickis</t>
+    <t>To see or not to see: the parallel processing of self-relevance and facial expressions</t>
+  </si>
+  <si>
+    <t>Tuo Liu, Jie Sui and Andrea Hildebrandt</t>
+  </si>
+  <si>
+    <t>Tuo Liu</t>
+  </si>
+  <si>
+    <t>tuo.liu@uol.de</t>
+  </si>
+  <si>
+    <t>https://osf.io/4n6j7/</t>
+  </si>
+  <si>
+    <t>Liu et al.</t>
+  </si>
+  <si>
+    <t>Cognitive Research: Principles and Implications</t>
+  </si>
+  <si>
+    <t>Liu_2023_CP</t>
+  </si>
+  <si>
+    <t>Self-prioritization effect in the attentional blink paradigm: Attention-based or familiarity-based effect?</t>
+  </si>
+  <si>
+    <t>Víctor Martínez-Perez,Alejandro Sandoval-Lentisco,Miriam Tortajada,Lucía B. Palmero,Guillermo Campoy,Luis J. Fuentes</t>
+  </si>
+  <si>
+    <t>Luis J. Fuentes</t>
+  </si>
+  <si>
+    <t>lfuentes@um.es</t>
+  </si>
+  <si>
+    <t>https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a</t>
+  </si>
+  <si>
+    <t>V Martínez-Pérez et al.</t>
+  </si>
+  <si>
+    <t>Martinez-Perez_2024_CC</t>
+  </si>
+  <si>
+    <t>Victor Martinez-Perez,
+Lucía B. Palmero,
+Luis J. Fuentes</t>
   </si>
   <si>
     <r>
@@ -630,6 +578,58 @@
     </r>
   </si>
   <si>
+    <t>CC0 1.0 Universal</t>
+  </si>
+  <si>
+    <t>Are Self-Related Items Unique? The Self-Prioritization Effect Revisited</t>
+  </si>
+  <si>
+    <t>Mayan Navon, Tal Makovski</t>
+  </si>
+  <si>
+    <t>Mayan Navon</t>
+  </si>
+  <si>
+    <t>mayanna@post.bgu.ac.il</t>
+  </si>
+  <si>
+    <t>https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9</t>
+  </si>
+  <si>
+    <t>Navon &amp; Makovski</t>
+  </si>
+  <si>
+    <t>Navon_2021</t>
+  </si>
+  <si>
+    <t>Tal Makovski
+Mayan Navon</t>
+  </si>
+  <si>
+    <t>Does Self-Associating a Geometric Shape Immediately Cause Attentional Prioritization?</t>
+  </si>
+  <si>
+    <t>Gabriela Orellana-Corrales, Christina Matschke, Ann-Katrin Wesslein</t>
+  </si>
+  <si>
+    <t>Gabriela Orellana-Corrales</t>
+  </si>
+  <si>
+    <t>gabyorellanac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://osf.io/3ke4f/</t>
+  </si>
+  <si>
+    <t>G Orellana-Corrales et al.</t>
+  </si>
+  <si>
+    <t>Experimental Psychology</t>
+  </si>
+  <si>
+    <t>Orellana-Corrales_2021_EP</t>
+  </si>
+  <si>
     <t>How selves difer within and across cognitive domains: self-prioritisation, self-concept, and psychiatric traits</t>
   </si>
   <si>
@@ -654,6 +654,189 @@
     <t>Perrykkad_2022_BMC</t>
   </si>
   <si>
+    <t>Prioritised self-referential processing is modulated by emotional arousal</t>
+  </si>
+  <si>
+    <t>Haoyue Qian, Zhiguo Wang, Chao Li, Xiangping Gao</t>
+  </si>
+  <si>
+    <t>Xiangping Gao</t>
+  </si>
+  <si>
+    <t>gaoxp@shnu.edu.cn</t>
+  </si>
+  <si>
+    <t>https://osf.io/bw27c</t>
+  </si>
+  <si>
+    <t>Qian et al.</t>
+  </si>
+  <si>
+    <t>Quarterly Journal of Experimental Psychology</t>
+  </si>
+  <si>
+    <t>Qian_2019_QJEP</t>
+  </si>
+  <si>
+    <t>Xiangping Gao
+Haoyue Qian</t>
+  </si>
+  <si>
+    <t>CC-BY-SA 4.0</t>
+  </si>
+  <si>
+    <t>Understanding self-prioritisation: the prioritisation of self-relevant stimuli and its relation to the individual self-esteem</t>
+  </si>
+  <si>
+    <t>Sarah Schäfer and Christian Frings</t>
+  </si>
+  <si>
+    <t>Sarah Schäfer</t>
+  </si>
+  <si>
+    <t>schaefer@psychologie-forum-muenster.de</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.23668/psycharchives.2642</t>
+  </si>
+  <si>
+    <t>Schäfer &amp; Frings</t>
+  </si>
+  <si>
+    <t>Journal of Cognitive Psychology</t>
+  </si>
+  <si>
+    <t>Schaefer_2019_CP</t>
+  </si>
+  <si>
+    <t>Sarah Schäfer
+Marel Pauly
+Dirk Wentura</t>
+  </si>
+  <si>
+    <t>Electrophysiological correlates of self-prioritization</t>
+  </si>
+  <si>
+    <t>Jie Sui,Xun He,Marius Golubickis,Saga L. Svensson,C. Neil Macrae</t>
+  </si>
+  <si>
+    <t>Jie Sui</t>
+  </si>
+  <si>
+    <t>jie.sui@abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>J Sui et al.</t>
+  </si>
+  <si>
+    <t>Sui_2023_CC</t>
+  </si>
+  <si>
+    <t>Sui_2014</t>
+  </si>
+  <si>
+    <t>Unpublish</t>
+  </si>
+  <si>
+    <t>Sui_2015</t>
+  </si>
+  <si>
+    <t>More or less of me and you: self-relevance augments the effects of item probability on stimulus prioritization</t>
+  </si>
+  <si>
+    <t>Saga L. Svensson, Marius Golubickis, Hollie Maclean, Johanna K. Falbén, Linn M. Persson, Dimitra Tsamadi, Siobhan Caughey, Arash Sahraie, C. Neil Macrae</t>
+  </si>
+  <si>
+    <t>Saga L. Svensson</t>
+  </si>
+  <si>
+    <t>s.svensson.19@abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>https://osf.io/cj7fp/</t>
+  </si>
+  <si>
+    <t>Svensson et al.</t>
+  </si>
+  <si>
+    <t>Psychological Research</t>
+  </si>
+  <si>
+    <t>Svensson_2021_PR</t>
+  </si>
+  <si>
+    <t>Towards The Boundaries of Self-Prioritization: Associating The Self With Asymmetric Shapes Disrupts The Self-Prioritization Effect</t>
+  </si>
+  <si>
+    <t>Michele Vicovaro,Mario Dalmaso,Marco Bertamini</t>
+  </si>
+  <si>
+    <t>Michele Vicovaro</t>
+  </si>
+  <si>
+    <t>michele.vicovaro@unipd.it</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/FE3JW</t>
+  </si>
+  <si>
+    <t>Vicovaro et al.</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Psychology: Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>Vicovaro_2022_EPHPP</t>
+  </si>
+  <si>
+    <t>Mario Dalmaso (Department of Social and Developmental Psychology, University of Padova)
+Marco Bertamini (Department of General Psychology, University of Padova)
+Michele Vicovaro</t>
+  </si>
+  <si>
+    <t>Sarah Schäfer
+Marius Golubickis</t>
+  </si>
+  <si>
+    <t>Prioritization of arbitrary faces associated to self: An EEG study</t>
+  </si>
+  <si>
+    <t>Mateusz Woźniak, Dimitrios Kourtis, Gunther Knoblich</t>
+  </si>
+  <si>
+    <t>Mateusz Wozniak</t>
+  </si>
+  <si>
+    <t>mgwozniak@gmail.com</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025</t>
+  </si>
+  <si>
+    <t>Woźniak et al.</t>
+  </si>
+  <si>
+    <t>PloS one</t>
+  </si>
+  <si>
+    <t>Wozniak_2018_PLOS</t>
+  </si>
+  <si>
+    <t>Stranger to my face: Top-down and bottom-up effects underlying prioritization of images of one’s face</t>
+  </si>
+  <si>
+    <t>Mateusz Woźniak,Jakob Hohwy</t>
+  </si>
+  <si>
+    <t>https://osf.io/2q9w7/</t>
+  </si>
+  <si>
+    <t>PLoS One</t>
+  </si>
+  <si>
+    <t>Wozniak_2020_PLOS</t>
+  </si>
+  <si>
     <t>Self‑prioritization depends on assumed task‑relevance of self‑association</t>
   </si>
   <si>
@@ -666,7 +849,45 @@
     <t>Wozniak_2022_PR</t>
   </si>
   <si>
-    <t>CC BY-NC-ND</t>
+    <t>Romantic feedbacks influence self-relevant processing: the moderating effects of sex difference and facial attractiveness</t>
+  </si>
+  <si>
+    <t>Yang Xu, Yuan Yuan, Xiaochun Xie, Hui Tan, Lili Guan</t>
+  </si>
+  <si>
+    <t>Lili Guan</t>
+  </si>
+  <si>
+    <t>guanll353@nenu.edu.cn</t>
+  </si>
+  <si>
+    <t>Xu et al.</t>
+  </si>
+  <si>
+    <t>Current Psychology</t>
+  </si>
+  <si>
+    <t>Xu_2021_CP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Template_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（未公开数据）</t>
+    </r>
   </si>
   <si>
     <t>Decoding individual differences in self-prioritization from the resting-state functional connectome</t>
@@ -685,143 +906,6 @@
   </si>
   <si>
     <t>Zhang_2023_NI</t>
-  </si>
-  <si>
-    <t>Perceiving the Self and Emotions with an Anxious Mind:Evidence from an Implicit Perceptual Task</t>
-  </si>
-  <si>
-    <t>Michella Feldborg,Naomi A. Lee,Kalai Hung,Kaiping Peng,Jie Sui</t>
-  </si>
-  <si>
-    <t>Kalai Hung</t>
-  </si>
-  <si>
-    <t>hongjl18@mails.tsinghua.edu.cn</t>
-  </si>
-  <si>
-    <t>M Feldborg et al.</t>
-  </si>
-  <si>
-    <t>International Journal of Environmental Research and Public Health</t>
-  </si>
-  <si>
-    <t>Feldborg_2021_ERPH</t>
-  </si>
-  <si>
-    <t>Electrophysiological correlates of self-prioritization</t>
-  </si>
-  <si>
-    <t>Jie Sui,Xun He,Marius Golubickis,Saga L. Svensson,C. Neil Macrae</t>
-  </si>
-  <si>
-    <t>Jie Sui</t>
-  </si>
-  <si>
-    <t>jie.sui@abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>J Sui et al.</t>
-  </si>
-  <si>
-    <t>Consciousness and Cognition</t>
-  </si>
-  <si>
-    <t>Sui_2023_CC</t>
-  </si>
-  <si>
-    <t>Self-prioritization effect in the attentional blink paradigm: Attention-based or familiarity-based effect?</t>
-  </si>
-  <si>
-    <t>Víctor Martínez-Perez,Alejandro Sandoval-Lentisco,Miriam Tortajada,Lucía B. Palmero,Guillermo Campoy,Luis J. Fuentes</t>
-  </si>
-  <si>
-    <t>Luis J. Fuentes</t>
-  </si>
-  <si>
-    <t>lfuentes@um.es</t>
-  </si>
-  <si>
-    <t>https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a</t>
-  </si>
-  <si>
-    <t>V Martínez-Pérez et al.</t>
-  </si>
-  <si>
-    <t>Martinez-Perez_2024_CC</t>
-  </si>
-  <si>
-    <t>Victor Martinez-Perez,
-Lucía B. Palmero,
-Luis J. Fuentes</t>
-  </si>
-  <si>
-    <t>Electrophysiological correlates of self‑related processing in adults with autism</t>
-  </si>
-  <si>
-    <t>Letizia Amodeo,Judith Goris,Annabel D. Nijhof,Jan R. Wiersema</t>
-  </si>
-  <si>
-    <t>Letizia Amodeo</t>
-  </si>
-  <si>
-    <t>letizia.amodeo@ugent.be</t>
-  </si>
-  <si>
-    <t>L Amodeo et al.</t>
-  </si>
-  <si>
-    <t>Cognitive, Affective, &amp; Behavioral Neuroscience</t>
-  </si>
-  <si>
-    <t>Amodeo_2024_CABN</t>
-  </si>
-  <si>
-    <t>Letizia Amodeo
-Judith Goris
-Annabel D. Nijhof
-Jan R. Wiersema</t>
-  </si>
-  <si>
-    <t>Judging me and you: Task design modulates self-prioritization</t>
-  </si>
-  <si>
-    <t>Marius Golubickis,C. Neil Macrae</t>
-  </si>
-  <si>
-    <t>Marius Golubickis</t>
-  </si>
-  <si>
-    <t>marius.golubickis@abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>https://osf.io/8bktn/</t>
-  </si>
-  <si>
-    <t>Golubickis &amp; Macrae</t>
-  </si>
-  <si>
-    <t>Golubickis_2021_AP</t>
-  </si>
-  <si>
-    <t>Socio-cognitive training impacts emotional and perceptual self-salience but not self-other distinction.</t>
-  </si>
-  <si>
-    <t>Henryk Bukowski,Boryana Todorova,Magdalena Boch,Giorgia Silani,Claus Lamm</t>
-  </si>
-  <si>
-    <t>Henryk Bukowski</t>
-  </si>
-  <si>
-    <t>hbbukowski@gmail.com</t>
-  </si>
-  <si>
-    <t>https://osf.io/pcv3u/</t>
-  </si>
-  <si>
-    <t>Henryk Bukowski et al.</t>
-  </si>
-  <si>
-    <t>Bukowski_2021_AP</t>
   </si>
   <si>
     <t>Examining the dorsolateral and ventromedial prefrontal cortex involvement in the self-attention network: A randomized, sham-controlled, parallel group, double-blind, and multichannel HD-tDCS study.</t>
@@ -846,24 +930,6 @@
 Víctor Martínez-Pérez</t>
   </si>
   <si>
-    <t>△</t>
-  </si>
-  <si>
-    <t>Stranger to my face: Top-down and bottom-up effects underlying prioritization of images of one’s face</t>
-  </si>
-  <si>
-    <t>Mateusz Woźniak,Jakob Hohwy</t>
-  </si>
-  <si>
-    <t>https://osf.io/2q9w7/</t>
-  </si>
-  <si>
-    <t>PLoS One</t>
-  </si>
-  <si>
-    <t>Wozniak_2020_PLOS</t>
-  </si>
-  <si>
     <t>△/×</t>
   </si>
   <si>
@@ -894,9 +960,6 @@
     <t>European Journal of Neuroscience</t>
   </si>
   <si>
-    <t>Template_1</t>
-  </si>
-  <si>
     <t>Good Me Bad Me: Prioritization of the Good-Self During Perceptual Decision-Making</t>
   </si>
   <si>
@@ -906,36 +969,6 @@
     <t>Collabra: Psychology</t>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>Relevant for Us? We-Prioritization in Cognitive Processing</t>
-  </si>
-  <si>
-    <t>https://osf.io/sejw7/</t>
-  </si>
-  <si>
-    <t>Journal of Experimental Psychology:  Human Perception and Performance</t>
-  </si>
-  <si>
-    <t>Constable_2019_EPHPP</t>
-  </si>
-  <si>
-    <t>The self can be associated with novel faces of in-group and out-group members: A cross-cultural study</t>
-  </si>
-  <si>
-    <t>Mario Dalmaso</t>
-  </si>
-  <si>
-    <t>mario.dalmaso@unipd.it</t>
-  </si>
-  <si>
-    <t>Mario Dalmaso et al.</t>
-  </si>
-  <si>
-    <t>Dalmaso_2024_CC</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -951,9 +984,6 @@
     <t>Schäfer et al.</t>
   </si>
   <si>
-    <t>Experimental Psychology</t>
-  </si>
-  <si>
     <t>Saliency at first sight: instant identity referential advantage toward a newly met partner</t>
   </si>
   <si>
@@ -988,27 +1018,6 @@
   </si>
   <si>
     <t>Journal of Experimental Psychology:Human Perception and Performance</t>
-  </si>
-  <si>
-    <t>Does Self-Associating a Geometric Shape Immediately Cause Attentional Prioritization?</t>
-  </si>
-  <si>
-    <t>Gabriela Orellana-Corrales, Christina Matschke, Ann-Katrin Wesslein</t>
-  </si>
-  <si>
-    <t>Gabriela Orellana-Corrales</t>
-  </si>
-  <si>
-    <t>gabyorellanac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://osf.io/3ke4f/</t>
-  </si>
-  <si>
-    <t>G Orellana-Corrales et al.</t>
-  </si>
-  <si>
-    <t>Orellana-Corrales_2021_EP</t>
   </si>
 </sst>
 </file>
@@ -1044,9 +1053,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="MyriadPro-Light"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1056,15 +1071,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MyriadPro-Light"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1703,11 +1712,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1715,13 +1724,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1730,11 +1739,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2059,15 +2068,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:JO37"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:JO39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2153,7 +2162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="31" spans="1:275">
+    <row r="2" ht="62" spans="1:275">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2176,14 +2185,14 @@
       <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>27</v>
@@ -2194,17 +2203,17 @@
       <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>23</v>
+      <c r="R2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -2464,7 +2473,7 @@
       <c r="JN2" s="1"/>
       <c r="JO2" s="1"/>
     </row>
-    <row r="3" ht="46.5" spans="1:275">
+    <row r="3" ht="31" hidden="1" spans="1:275">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2487,14 +2496,14 @@
       <c r="H3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>37</v>
@@ -2505,18 +2514,12 @@
       <c r="N3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="O3" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2775,28 +2778,24 @@
       <c r="JN3" s="1"/>
       <c r="JO3" s="1"/>
     </row>
-    <row r="4" ht="31" spans="1:275">
+    <row r="4" ht="15.5" spans="1:275">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>44</v>
@@ -2805,7 +2804,7 @@
         <v>45</v>
       </c>
       <c r="K4" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>46</v>
@@ -2814,20 +2813,16 @@
         <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -3098,18 +3093,18 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3119,25 +3114,25 @@
         <v>2020</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="O5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>56</v>
+      <c r="R5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -3397,13 +3392,11 @@
       <c r="JN5" s="1"/>
       <c r="JO5" s="1"/>
     </row>
-    <row r="6" ht="46.5" spans="1:275">
+    <row r="6" ht="31" spans="1:275">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -3411,46 +3404,46 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="M6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2019</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>67</v>
+      <c r="R6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="5"/>
@@ -3714,60 +3707,52 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -4030,7 +4015,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -4038,45 +4023,47 @@
       <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>80</v>
+      <c r="E8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K8" s="1">
         <v>2021</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
+      <c r="P8" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>86</v>
+      <c r="R8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -4336,11 +4323,13 @@
       <c r="JN8" s="1"/>
       <c r="JO8" s="1"/>
     </row>
-    <row r="9" ht="46.5" spans="1:275">
+    <row r="9" ht="15.5" hidden="1" spans="1:275">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
@@ -4348,37 +4337,37 @@
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>30</v>
+      <c r="O9" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -4641,11 +4630,13 @@
       <c r="JN9" s="1"/>
       <c r="JO9" s="1"/>
     </row>
-    <row r="10" ht="31" spans="1:275">
+    <row r="10" ht="46.5" spans="1:275">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
@@ -4653,46 +4644,46 @@
         <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K10" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>97</v>
+      <c r="R10" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -4952,7 +4943,7 @@
       <c r="JN10" s="1"/>
       <c r="JO10" s="1"/>
     </row>
-    <row r="11" ht="31" spans="1:275">
+    <row r="11" ht="31" hidden="1" spans="1:275">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4963,48 +4954,42 @@
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>104</v>
+      <c r="E11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K11" s="1">
         <v>2023</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -5274,39 +5259,39 @@
       <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>114</v>
+      <c r="E12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K12" s="1">
         <v>2023</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>112</v>
+      <c r="P12" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>20</v>
@@ -5576,9 +5561,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
@@ -5586,46 +5569,46 @@
         <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K13" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5896,42 +5879,48 @@
       <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>130</v>
+      <c r="E14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K14" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -6201,41 +6190,41 @@
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>138</v>
+      <c r="E15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K15" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>112</v>
+      <c r="P15" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>20</v>
@@ -6506,7 +6495,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -6515,52 +6504,50 @@
         <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K16" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="R16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -6823,7 +6810,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -6832,43 +6819,45 @@
         <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K17" s="1">
-        <v>2022</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="P17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -7127,61 +7116,53 @@
       <c r="JN17" s="1"/>
       <c r="JO17" s="1"/>
     </row>
-    <row r="18" ht="31" spans="1:275">
+    <row r="18" ht="31" hidden="1" spans="1:275">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
+      <c r="B18" s="1"/>
+      <c r="C18" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="K18" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -7445,7 +7426,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
@@ -7453,48 +7434,44 @@
       <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2022</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2023</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -7757,56 +7734,54 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2021</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="N20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
+      <c r="P20" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>20</v>
+      <c r="R20" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -8066,12 +8041,12 @@
       <c r="JN20" s="1"/>
       <c r="JO20" s="1"/>
     </row>
-    <row r="21" ht="15.5" spans="1:275">
+    <row r="21" ht="46.5" spans="1:275">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
@@ -8079,47 +8054,47 @@
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K21" s="1">
-        <v>2023</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="N21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>112</v>
+      <c r="P21" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>20</v>
+      <c r="R21" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -8379,12 +8354,12 @@
       <c r="JN21" s="1"/>
       <c r="JO21" s="1"/>
     </row>
-    <row r="22" ht="46.5" spans="1:275">
+    <row r="22" ht="15.5" spans="1:275">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>20</v>
@@ -8392,47 +8367,47 @@
       <c r="D22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>190</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1">
+        <v>2023</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K22" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="8" t="s">
         <v>20</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>195</v>
+      <c r="R22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -8692,59 +8667,39 @@
       <c r="JN22" s="1"/>
       <c r="JO22" s="1"/>
     </row>
-    <row r="23" ht="62" spans="1:275">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
+    <row r="23" ht="15.5" spans="1:275">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>20</v>
+      <c r="P23" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="5" t="s">
-        <v>203</v>
-      </c>
+      <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -9004,53 +8959,37 @@
       <c r="JO23" s="1"/>
     </row>
     <row r="24" ht="15.5" spans="1:275">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>167</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2021</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="P24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -9310,9 +9249,9 @@
       <c r="JN24" s="1"/>
       <c r="JO24" s="1"/>
     </row>
-    <row r="25" ht="31" spans="1:275">
+    <row r="25" ht="46.5" hidden="1" spans="1:275">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
@@ -9322,37 +9261,37 @@
         <v>20</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="K25" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -9615,50 +9554,64 @@
       <c r="JN25" s="1"/>
       <c r="JO25" s="1"/>
     </row>
-    <row r="26" ht="62" spans="1:275">
+    <row r="26" ht="46.5" spans="1:275">
       <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E26" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="K26" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M26" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="R26" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="S26" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -9916,57 +9869,61 @@
       <c r="JN26" s="1"/>
       <c r="JO26" s="1"/>
     </row>
-    <row r="27" ht="31" spans="1:275">
+    <row r="27" ht="15.5" spans="1:275">
       <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="11" t="s">
-        <v>225</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="K27" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="R27" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -10225,42 +10182,56 @@
       <c r="JN27" s="1"/>
       <c r="JO27" s="1"/>
     </row>
-    <row r="28" ht="15.5" spans="1:275">
+    <row r="28" ht="31" spans="1:275">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="11" t="s">
-        <v>231</v>
+      <c r="C28" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="O28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -10522,45 +10493,59 @@
     </row>
     <row r="29" ht="31" spans="1:275">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="K29" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M29" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="N29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -10821,47 +10806,57 @@
     </row>
     <row r="30" ht="31" spans="1:275">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F30" s="7"/>
+      <c r="E30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="G30" s="1" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="K30" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M30" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="N30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -11120,51 +11115,61 @@
       <c r="JN30" s="1"/>
       <c r="JO30" s="1"/>
     </row>
-    <row r="31" ht="15.5" spans="1:275">
+    <row r="31" ht="31" spans="1:275">
       <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1" t="s">
-        <v>23</v>
+      <c r="E31" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="K31" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -11423,53 +11428,49 @@
       <c r="JN31" s="1"/>
       <c r="JO31" s="1"/>
     </row>
-    <row r="32" ht="31" spans="1:275">
+    <row r="32" ht="62" spans="1:275">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K32" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -11728,46 +11729,40 @@
       <c r="JN32" s="1"/>
       <c r="JO32" s="1"/>
     </row>
-    <row r="33" ht="31" spans="1:275">
+    <row r="33" ht="15.5" spans="1:275">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K33" s="1">
-        <v>2023</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>260</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>232</v>
+      <c r="N33" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -12029,35 +12024,45 @@
       <c r="JN33" s="1"/>
       <c r="JO33" s="1"/>
     </row>
-    <row r="34" ht="31" spans="1:275">
+    <row r="34" ht="31" hidden="1" spans="1:275">
       <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3" t="s">
-        <v>255</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="6" t="s">
+      <c r="K34" s="1">
+        <v>2021</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -12320,37 +12325,45 @@
     </row>
     <row r="35" ht="31" spans="1:275">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="1" t="s">
+      <c r="J35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -12613,37 +12626,45 @@
     </row>
     <row r="36" ht="31" spans="1:275">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
+      <c r="C36" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E36" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="K36" s="1">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>272</v>
+        <v>159</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="N36" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -12904,50 +12925,34 @@
       <c r="JN36" s="1"/>
       <c r="JO36" s="1"/>
     </row>
-    <row r="37" ht="31" spans="1:275">
+    <row r="37" ht="31" hidden="1" spans="1:275">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="13" t="s">
-        <v>245</v>
+      <c r="C37" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K37" s="1">
-        <v>2020</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -13209,69 +13214,667 @@
       <c r="JN37" s="1"/>
       <c r="JO37" s="1"/>
     </row>
+    <row r="38" ht="31" hidden="1" spans="1:275">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
+      <c r="CW38" s="1"/>
+      <c r="CX38" s="1"/>
+      <c r="CY38" s="1"/>
+      <c r="CZ38" s="1"/>
+      <c r="DA38" s="1"/>
+      <c r="DB38" s="1"/>
+      <c r="DC38" s="1"/>
+      <c r="DD38" s="1"/>
+      <c r="DE38" s="1"/>
+      <c r="DF38" s="1"/>
+      <c r="DG38" s="1"/>
+      <c r="DH38" s="1"/>
+      <c r="DI38" s="1"/>
+      <c r="DJ38" s="1"/>
+      <c r="DK38" s="1"/>
+      <c r="DL38" s="1"/>
+      <c r="DM38" s="1"/>
+      <c r="DN38" s="1"/>
+      <c r="DO38" s="1"/>
+      <c r="DP38" s="1"/>
+      <c r="DQ38" s="1"/>
+      <c r="DR38" s="1"/>
+      <c r="DS38" s="1"/>
+      <c r="DT38" s="1"/>
+      <c r="DU38" s="1"/>
+      <c r="DV38" s="1"/>
+      <c r="DW38" s="1"/>
+      <c r="DX38" s="1"/>
+      <c r="DY38" s="1"/>
+      <c r="DZ38" s="1"/>
+      <c r="EA38" s="1"/>
+      <c r="EB38" s="1"/>
+      <c r="EC38" s="1"/>
+      <c r="ED38" s="1"/>
+      <c r="EE38" s="1"/>
+      <c r="EF38" s="1"/>
+      <c r="EG38" s="1"/>
+      <c r="EH38" s="1"/>
+      <c r="EI38" s="1"/>
+      <c r="EJ38" s="1"/>
+      <c r="EK38" s="1"/>
+      <c r="EL38" s="1"/>
+      <c r="EM38" s="1"/>
+      <c r="EN38" s="1"/>
+      <c r="EO38" s="1"/>
+      <c r="EP38" s="1"/>
+      <c r="EQ38" s="1"/>
+      <c r="ER38" s="1"/>
+      <c r="ES38" s="1"/>
+      <c r="ET38" s="1"/>
+      <c r="EU38" s="1"/>
+      <c r="EV38" s="1"/>
+      <c r="EW38" s="1"/>
+      <c r="EX38" s="1"/>
+      <c r="EY38" s="1"/>
+      <c r="EZ38" s="1"/>
+      <c r="FA38" s="1"/>
+      <c r="FB38" s="1"/>
+      <c r="FC38" s="1"/>
+      <c r="FD38" s="1"/>
+      <c r="FE38" s="1"/>
+      <c r="FF38" s="1"/>
+      <c r="FG38" s="1"/>
+      <c r="FH38" s="1"/>
+      <c r="FI38" s="1"/>
+      <c r="FJ38" s="1"/>
+      <c r="FK38" s="1"/>
+      <c r="FL38" s="1"/>
+      <c r="FM38" s="1"/>
+      <c r="FN38" s="1"/>
+      <c r="FO38" s="1"/>
+      <c r="FP38" s="1"/>
+      <c r="FQ38" s="1"/>
+      <c r="FR38" s="1"/>
+      <c r="FS38" s="1"/>
+      <c r="FT38" s="1"/>
+      <c r="FU38" s="1"/>
+      <c r="FV38" s="1"/>
+      <c r="FW38" s="1"/>
+      <c r="FX38" s="1"/>
+      <c r="FY38" s="1"/>
+      <c r="FZ38" s="1"/>
+      <c r="GA38" s="1"/>
+      <c r="GB38" s="1"/>
+      <c r="GC38" s="1"/>
+      <c r="GD38" s="1"/>
+      <c r="GE38" s="1"/>
+      <c r="GF38" s="1"/>
+      <c r="GG38" s="1"/>
+      <c r="GH38" s="1"/>
+      <c r="GI38" s="1"/>
+      <c r="GJ38" s="1"/>
+      <c r="GK38" s="1"/>
+      <c r="GL38" s="1"/>
+      <c r="GM38" s="1"/>
+      <c r="GN38" s="1"/>
+      <c r="GO38" s="1"/>
+      <c r="GP38" s="1"/>
+      <c r="GQ38" s="1"/>
+      <c r="GR38" s="1"/>
+      <c r="GS38" s="1"/>
+      <c r="GT38" s="1"/>
+      <c r="GU38" s="1"/>
+      <c r="GV38" s="1"/>
+      <c r="GW38" s="1"/>
+      <c r="GX38" s="1"/>
+      <c r="GY38" s="1"/>
+      <c r="GZ38" s="1"/>
+      <c r="HA38" s="1"/>
+      <c r="HB38" s="1"/>
+      <c r="HC38" s="1"/>
+      <c r="HD38" s="1"/>
+      <c r="HE38" s="1"/>
+      <c r="HF38" s="1"/>
+      <c r="HG38" s="1"/>
+      <c r="HH38" s="1"/>
+      <c r="HI38" s="1"/>
+      <c r="HJ38" s="1"/>
+      <c r="HK38" s="1"/>
+      <c r="HL38" s="1"/>
+      <c r="HM38" s="1"/>
+      <c r="HN38" s="1"/>
+      <c r="HO38" s="1"/>
+      <c r="HP38" s="1"/>
+      <c r="HQ38" s="1"/>
+      <c r="HR38" s="1"/>
+      <c r="HS38" s="1"/>
+      <c r="HT38" s="1"/>
+      <c r="HU38" s="1"/>
+      <c r="HV38" s="1"/>
+      <c r="HW38" s="1"/>
+      <c r="HX38" s="1"/>
+      <c r="HY38" s="1"/>
+      <c r="HZ38" s="1"/>
+      <c r="IA38" s="1"/>
+      <c r="IB38" s="1"/>
+      <c r="IC38" s="1"/>
+      <c r="ID38" s="1"/>
+      <c r="IE38" s="1"/>
+      <c r="IF38" s="1"/>
+      <c r="IG38" s="1"/>
+      <c r="IH38" s="1"/>
+      <c r="II38" s="1"/>
+      <c r="IJ38" s="1"/>
+      <c r="IK38" s="1"/>
+      <c r="IL38" s="1"/>
+      <c r="IM38" s="1"/>
+      <c r="IN38" s="1"/>
+      <c r="IO38" s="1"/>
+      <c r="IP38" s="1"/>
+      <c r="IQ38" s="1"/>
+      <c r="IR38" s="1"/>
+      <c r="IS38" s="1"/>
+      <c r="IT38" s="1"/>
+      <c r="IU38" s="1"/>
+      <c r="IV38" s="1"/>
+      <c r="IW38" s="1"/>
+      <c r="IX38" s="1"/>
+      <c r="IY38" s="1"/>
+      <c r="IZ38" s="1"/>
+      <c r="JA38" s="1"/>
+      <c r="JB38" s="1"/>
+      <c r="JC38" s="1"/>
+      <c r="JD38" s="1"/>
+      <c r="JE38" s="1"/>
+      <c r="JF38" s="1"/>
+      <c r="JG38" s="1"/>
+      <c r="JH38" s="1"/>
+      <c r="JI38" s="1"/>
+      <c r="JJ38" s="1"/>
+      <c r="JK38" s="1"/>
+      <c r="JL38" s="1"/>
+      <c r="JM38" s="1"/>
+      <c r="JN38" s="1"/>
+      <c r="JO38" s="1"/>
+    </row>
+    <row r="39" ht="31" hidden="1" spans="1:275">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
+      <c r="CW39" s="1"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="1"/>
+      <c r="CZ39" s="1"/>
+      <c r="DA39" s="1"/>
+      <c r="DB39" s="1"/>
+      <c r="DC39" s="1"/>
+      <c r="DD39" s="1"/>
+      <c r="DE39" s="1"/>
+      <c r="DF39" s="1"/>
+      <c r="DG39" s="1"/>
+      <c r="DH39" s="1"/>
+      <c r="DI39" s="1"/>
+      <c r="DJ39" s="1"/>
+      <c r="DK39" s="1"/>
+      <c r="DL39" s="1"/>
+      <c r="DM39" s="1"/>
+      <c r="DN39" s="1"/>
+      <c r="DO39" s="1"/>
+      <c r="DP39" s="1"/>
+      <c r="DQ39" s="1"/>
+      <c r="DR39" s="1"/>
+      <c r="DS39" s="1"/>
+      <c r="DT39" s="1"/>
+      <c r="DU39" s="1"/>
+      <c r="DV39" s="1"/>
+      <c r="DW39" s="1"/>
+      <c r="DX39" s="1"/>
+      <c r="DY39" s="1"/>
+      <c r="DZ39" s="1"/>
+      <c r="EA39" s="1"/>
+      <c r="EB39" s="1"/>
+      <c r="EC39" s="1"/>
+      <c r="ED39" s="1"/>
+      <c r="EE39" s="1"/>
+      <c r="EF39" s="1"/>
+      <c r="EG39" s="1"/>
+      <c r="EH39" s="1"/>
+      <c r="EI39" s="1"/>
+      <c r="EJ39" s="1"/>
+      <c r="EK39" s="1"/>
+      <c r="EL39" s="1"/>
+      <c r="EM39" s="1"/>
+      <c r="EN39" s="1"/>
+      <c r="EO39" s="1"/>
+      <c r="EP39" s="1"/>
+      <c r="EQ39" s="1"/>
+      <c r="ER39" s="1"/>
+      <c r="ES39" s="1"/>
+      <c r="ET39" s="1"/>
+      <c r="EU39" s="1"/>
+      <c r="EV39" s="1"/>
+      <c r="EW39" s="1"/>
+      <c r="EX39" s="1"/>
+      <c r="EY39" s="1"/>
+      <c r="EZ39" s="1"/>
+      <c r="FA39" s="1"/>
+      <c r="FB39" s="1"/>
+      <c r="FC39" s="1"/>
+      <c r="FD39" s="1"/>
+      <c r="FE39" s="1"/>
+      <c r="FF39" s="1"/>
+      <c r="FG39" s="1"/>
+      <c r="FH39" s="1"/>
+      <c r="FI39" s="1"/>
+      <c r="FJ39" s="1"/>
+      <c r="FK39" s="1"/>
+      <c r="FL39" s="1"/>
+      <c r="FM39" s="1"/>
+      <c r="FN39" s="1"/>
+      <c r="FO39" s="1"/>
+      <c r="FP39" s="1"/>
+      <c r="FQ39" s="1"/>
+      <c r="FR39" s="1"/>
+      <c r="FS39" s="1"/>
+      <c r="FT39" s="1"/>
+      <c r="FU39" s="1"/>
+      <c r="FV39" s="1"/>
+      <c r="FW39" s="1"/>
+      <c r="FX39" s="1"/>
+      <c r="FY39" s="1"/>
+      <c r="FZ39" s="1"/>
+      <c r="GA39" s="1"/>
+      <c r="GB39" s="1"/>
+      <c r="GC39" s="1"/>
+      <c r="GD39" s="1"/>
+      <c r="GE39" s="1"/>
+      <c r="GF39" s="1"/>
+      <c r="GG39" s="1"/>
+      <c r="GH39" s="1"/>
+      <c r="GI39" s="1"/>
+      <c r="GJ39" s="1"/>
+      <c r="GK39" s="1"/>
+      <c r="GL39" s="1"/>
+      <c r="GM39" s="1"/>
+      <c r="GN39" s="1"/>
+      <c r="GO39" s="1"/>
+      <c r="GP39" s="1"/>
+      <c r="GQ39" s="1"/>
+      <c r="GR39" s="1"/>
+      <c r="GS39" s="1"/>
+      <c r="GT39" s="1"/>
+      <c r="GU39" s="1"/>
+      <c r="GV39" s="1"/>
+      <c r="GW39" s="1"/>
+      <c r="GX39" s="1"/>
+      <c r="GY39" s="1"/>
+      <c r="GZ39" s="1"/>
+      <c r="HA39" s="1"/>
+      <c r="HB39" s="1"/>
+      <c r="HC39" s="1"/>
+      <c r="HD39" s="1"/>
+      <c r="HE39" s="1"/>
+      <c r="HF39" s="1"/>
+      <c r="HG39" s="1"/>
+      <c r="HH39" s="1"/>
+      <c r="HI39" s="1"/>
+      <c r="HJ39" s="1"/>
+      <c r="HK39" s="1"/>
+      <c r="HL39" s="1"/>
+      <c r="HM39" s="1"/>
+      <c r="HN39" s="1"/>
+      <c r="HO39" s="1"/>
+      <c r="HP39" s="1"/>
+      <c r="HQ39" s="1"/>
+      <c r="HR39" s="1"/>
+      <c r="HS39" s="1"/>
+      <c r="HT39" s="1"/>
+      <c r="HU39" s="1"/>
+      <c r="HV39" s="1"/>
+      <c r="HW39" s="1"/>
+      <c r="HX39" s="1"/>
+      <c r="HY39" s="1"/>
+      <c r="HZ39" s="1"/>
+      <c r="IA39" s="1"/>
+      <c r="IB39" s="1"/>
+      <c r="IC39" s="1"/>
+      <c r="ID39" s="1"/>
+      <c r="IE39" s="1"/>
+      <c r="IF39" s="1"/>
+      <c r="IG39" s="1"/>
+      <c r="IH39" s="1"/>
+      <c r="II39" s="1"/>
+      <c r="IJ39" s="1"/>
+      <c r="IK39" s="1"/>
+      <c r="IL39" s="1"/>
+      <c r="IM39" s="1"/>
+      <c r="IN39" s="1"/>
+      <c r="IO39" s="1"/>
+      <c r="IP39" s="1"/>
+      <c r="IQ39" s="1"/>
+      <c r="IR39" s="1"/>
+      <c r="IS39" s="1"/>
+      <c r="IT39" s="1"/>
+      <c r="IU39" s="1"/>
+      <c r="IV39" s="1"/>
+      <c r="IW39" s="1"/>
+      <c r="IX39" s="1"/>
+      <c r="IY39" s="1"/>
+      <c r="IZ39" s="1"/>
+      <c r="JA39" s="1"/>
+      <c r="JB39" s="1"/>
+      <c r="JC39" s="1"/>
+      <c r="JD39" s="1"/>
+      <c r="JE39" s="1"/>
+      <c r="JF39" s="1"/>
+      <c r="JG39" s="1"/>
+      <c r="JH39" s="1"/>
+      <c r="JI39" s="1"/>
+      <c r="JJ39" s="1"/>
+      <c r="JK39" s="1"/>
+      <c r="JL39" s="1"/>
+      <c r="JM39" s="1"/>
+      <c r="JN39" s="1"/>
+      <c r="JO39" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S37" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S39" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="△"/>
+        <filter val="×"/>
+        <filter val="√"/>
+        <filter val="ok"/>
+        <filter val="○"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:S39">
+      <sortCondition ref="M1"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="L23" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
-    <hyperlink ref="H31" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
-    <hyperlink ref="H30" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="H4" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
-    <hyperlink ref="H5" r:id="rId4" display="gaoxp@shnu.edu.cn" tooltip="mailto:gaoxp@shnu.edu.cn"/>
-    <hyperlink ref="H6" r:id="rId5" display="schaefer@psychologie-forum-muenster.de" tooltip="mailto:schaefer@psychologie-forum-muenster.de"/>
-    <hyperlink ref="H7" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
-    <hyperlink ref="H29" r:id="rId7" display="skumar@brookes.ac.uk"/>
-    <hyperlink ref="H24" r:id="rId8" display="marius.golubickis@abdn.ac.uk" tooltip="mailto:marius.golubickis@abdn.ac.uk"/>
-    <hyperlink ref="H8" r:id="rId9" display="mayanna@post.bgu.ac.il" tooltip="mailto:mayanna@post.bgu.ac.il"/>
-    <hyperlink ref="H37" r:id="rId10" display="gabyorellanac@gmail.com" tooltip="mailto:gabyorellanac@gmail.com"/>
+    <hyperlink ref="L2" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="H4" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="H5" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
+    <hyperlink ref="H35" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="H6" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
+    <hyperlink ref="H20" r:id="rId4" display="gaoxp@shnu.edu.cn" tooltip="mailto:gaoxp@shnu.edu.cn"/>
+    <hyperlink ref="H21" r:id="rId5" display="schaefer@psychologie-forum-muenster.de" tooltip="mailto:schaefer@psychologie-forum-muenster.de"/>
+    <hyperlink ref="H27" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
+    <hyperlink ref="H34" r:id="rId7" display="skumar@brookes.ac.uk"/>
+    <hyperlink ref="H9" r:id="rId8" display="marius.golubickis@abdn.ac.uk" tooltip="mailto:marius.golubickis@abdn.ac.uk"/>
+    <hyperlink ref="H17" r:id="rId9" display="mayanna@post.bgu.ac.il" tooltip="mailto:mayanna@post.bgu.ac.il"/>
+    <hyperlink ref="H18" r:id="rId10" display="gabyorellanac@gmail.com" tooltip="mailto:gabyorellanac@gmail.com"/>
     <hyperlink ref="H12" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="H19" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
-    <hyperlink ref="H21" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
-    <hyperlink ref="H22" r:id="rId13" display="lfuentes@um.es" tooltip="mailto:lfuentes@um.es"/>
-    <hyperlink ref="H34" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
-    <hyperlink ref="H33" r:id="rId15" display="wentura@mx.uni-saarland.de" tooltip="mailto:wentura@mx.uni-saarland.de"/>
-    <hyperlink ref="H35" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
-    <hyperlink ref="H32" r:id="rId17" display="mario.dalmaso@unipd.it"/>
-    <hyperlink ref="H36" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
-    <hyperlink ref="I31" r:id="rId19" display="https://osf.io/sejw7/"/>
-    <hyperlink ref="I2" r:id="rId20" display="https://osf.io/5zaej/"/>
-    <hyperlink ref="I30" r:id="rId21" display="https://osf.io/4zvkm/"/>
-    <hyperlink ref="I29" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
-    <hyperlink ref="I4" r:id="rId23" display="https://osf.io/khyjq/"/>
-    <hyperlink ref="I5" r:id="rId24" display="https://osf.io/bw27c"/>
-    <hyperlink ref="I6" r:id="rId25" display="http://dx.doi.org/10.23668/psycharchives.2642"/>
-    <hyperlink ref="I7" r:id="rId26" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
-    <hyperlink ref="I24" r:id="rId27" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
-    <hyperlink ref="I8" r:id="rId28" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="I37" r:id="rId29" display="https://osf.io/3ke4f/" tooltip="https://osf.io/3ke4f/"/>
-    <hyperlink ref="I9" r:id="rId30" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="I11" r:id="rId31" display="https://osf.io/4n6j7/"/>
+    <hyperlink ref="H31" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
+    <hyperlink ref="H22" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
+    <hyperlink ref="H16" r:id="rId13" display="lfuentes@um.es" tooltip="mailto:lfuentes@um.es"/>
+    <hyperlink ref="H37" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
+    <hyperlink ref="H36" r:id="rId15" display="wentura@mx.uni-saarland.de" tooltip="mailto:wentura@mx.uni-saarland.de"/>
+    <hyperlink ref="H38" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
+    <hyperlink ref="H7" r:id="rId17" display="mario.dalmaso@unipd.it"/>
+    <hyperlink ref="H39" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
+    <hyperlink ref="I4" r:id="rId19" display="https://osf.io/sejw7/"/>
+    <hyperlink ref="I5" r:id="rId20" display="https://osf.io/5zaej/"/>
+    <hyperlink ref="I35" r:id="rId21" display="https://osf.io/4zvkm/"/>
+    <hyperlink ref="I34" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
+    <hyperlink ref="I6" r:id="rId23" display="https://osf.io/khyjq/"/>
+    <hyperlink ref="I20" r:id="rId24" display="https://osf.io/bw27c"/>
+    <hyperlink ref="I21" r:id="rId25" display="http://dx.doi.org/10.23668/psycharchives.2642"/>
+    <hyperlink ref="I27" r:id="rId26" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
+    <hyperlink ref="I9" r:id="rId27" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
+    <hyperlink ref="I17" r:id="rId28" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="I18" r:id="rId29" display="https://osf.io/3ke4f/" tooltip="https://osf.io/3ke4f/"/>
+    <hyperlink ref="I25" r:id="rId30" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="I15" r:id="rId31" display="https://osf.io/4n6j7/"/>
     <hyperlink ref="I12" r:id="rId32" display="https://zenodo.org/records/8031086"/>
-    <hyperlink ref="I13" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
-    <hyperlink ref="I14" r:id="rId34" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
-    <hyperlink ref="I15" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
-    <hyperlink ref="I16" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
-    <hyperlink ref="I17" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
-    <hyperlink ref="I18" r:id="rId38" display="https://osf.io/35wp9"/>
-    <hyperlink ref="I19" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
-    <hyperlink ref="I22" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a" tooltip="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
-    <hyperlink ref="H3" r:id="rId41" display="i.r.kolvoort@uva.nl" tooltip="mailto:i.r.kolvoort@uva.nl"/>
-    <hyperlink ref="H9" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
-    <hyperlink ref="H13" r:id="rId43" display="pastoetter@uni-trier.de" tooltip="mailto:pastoetter@uni-trier.de"/>
-    <hyperlink ref="H14" r:id="rId44" display="c.hobbs@bristol.ac.uk;" tooltip="mailto:c.hobbs@bristol.ac.uk;"/>
-    <hyperlink ref="H16" r:id="rId45" display="michele.vicovaro@unipd.it"/>
-    <hyperlink ref="H17" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
-    <hyperlink ref="H18" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
-    <hyperlink ref="H23" r:id="rId47" display="letizia.amodeo@ugent.be"/>
-    <hyperlink ref="H26" r:id="rId48" display="victor.martinez5@um.es" tooltip="mailto:victor.martinez5@um.es"/>
-    <hyperlink ref="H25" r:id="rId49" display="hbbukowski@gmail.com"/>
-    <hyperlink ref="H20" r:id="rId50" display="hongjl18@mails.tsinghua.edu.cn" tooltip="mailto:hongjl18@mails.tsinghua.edu.cn"/>
-    <hyperlink ref="H10" r:id="rId51" display="guanll353@nenu.edu.cn"/>
-    <hyperlink ref="I27" r:id="rId52" display="https://osf.io/2q9w7/" tooltip="https://osf.io/2q9w7/"/>
-    <hyperlink ref="I26" r:id="rId53" display="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full" tooltip="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full"/>
-    <hyperlink ref="I25" r:id="rId54" display="https://osf.io/pcv3u/"/>
+    <hyperlink ref="I10" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
+    <hyperlink ref="I11" r:id="rId34" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
+    <hyperlink ref="I14" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
+    <hyperlink ref="I26" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="I19" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
+    <hyperlink ref="I29" r:id="rId38" display="https://osf.io/35wp9"/>
+    <hyperlink ref="I31" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
+    <hyperlink ref="I16" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a" tooltip="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
+    <hyperlink ref="H13" r:id="rId41" display="i.r.kolvoort@uva.nl" tooltip="mailto:i.r.kolvoort@uva.nl"/>
+    <hyperlink ref="H25" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
+    <hyperlink ref="H10" r:id="rId43" display="pastoetter@uni-trier.de" tooltip="mailto:pastoetter@uni-trier.de"/>
+    <hyperlink ref="H11" r:id="rId44" display="c.hobbs@bristol.ac.uk;" tooltip="mailto:c.hobbs@bristol.ac.uk;"/>
+    <hyperlink ref="H26" r:id="rId45" display="michele.vicovaro@unipd.it"/>
+    <hyperlink ref="H19" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
+    <hyperlink ref="H29" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId47" display="letizia.amodeo@ugent.be"/>
+    <hyperlink ref="H32" r:id="rId48" display="victor.martinez5@um.es" tooltip="mailto:victor.martinez5@um.es"/>
+    <hyperlink ref="H3" r:id="rId49" display="hbbukowski@gmail.com"/>
+    <hyperlink ref="H8" r:id="rId50" display="hongjl18@mails.tsinghua.edu.cn" tooltip="mailto:hongjl18@mails.tsinghua.edu.cn"/>
+    <hyperlink ref="H30" r:id="rId51" display="guanll353@nenu.edu.cn"/>
+    <hyperlink ref="I28" r:id="rId52" display="https://osf.io/2q9w7/" tooltip="https://osf.io/2q9w7/"/>
+    <hyperlink ref="I32" r:id="rId53" display="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full" tooltip="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full"/>
+    <hyperlink ref="I3" r:id="rId54" display="https://osf.io/pcv3u/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$S$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="283">
   <si>
     <t>ID</t>
   </si>
@@ -709,8 +709,7 @@
     <t>Schaefer_2019_CP</t>
   </si>
   <si>
-    <t>Sarah Schäfer
-Marel Pauly
+    <t>Marel Pauly
 Dirk Wentura</t>
   </si>
   <si>
@@ -1724,9 +1723,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1743,6 +1739,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2068,15 +2067,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:JO39"/>
+  <sheetPr/>
+  <dimension ref="A1:JO40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2137,10 +2136,10 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -2473,7 +2472,7 @@
       <c r="JN2" s="1"/>
       <c r="JO2" s="1"/>
     </row>
-    <row r="3" ht="31" hidden="1" spans="1:275">
+    <row r="3" ht="31" spans="1:275">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3746,7 +3745,7 @@
       <c r="P7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="15" t="s">
         <v>62</v>
       </c>
       <c r="R7" s="1"/>
@@ -4323,7 +4322,7 @@
       <c r="JN8" s="1"/>
       <c r="JO8" s="1"/>
     </row>
-    <row r="9" ht="15.5" hidden="1" spans="1:275">
+    <row r="9" ht="15.5" spans="1:275">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4348,7 +4347,7 @@
       <c r="H9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -4943,7 +4942,7 @@
       <c r="JN10" s="1"/>
       <c r="JO10" s="1"/>
     </row>
-    <row r="11" ht="31" hidden="1" spans="1:275">
+    <row r="11" ht="31" spans="1:275">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4966,7 +4965,7 @@
       <c r="H11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>100</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -6546,7 +6545,7 @@
         <v>142</v>
       </c>
       <c r="S16" s="1"/>
-      <c r="T16" s="17" t="s">
+      <c r="T16" s="16" t="s">
         <v>143</v>
       </c>
       <c r="U16" s="1"/>
@@ -7116,12 +7115,12 @@
       <c r="JN17" s="1"/>
       <c r="JO17" s="1"/>
     </row>
-    <row r="18" ht="31" hidden="1" spans="1:275">
+    <row r="18" ht="31" spans="1:275">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -7440,7 +7439,7 @@
       <c r="F19" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>163</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -7753,7 +7752,7 @@
       <c r="H20" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>173</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -8041,7 +8040,7 @@
       <c r="JN20" s="1"/>
       <c r="JO20" s="1"/>
     </row>
-    <row r="21" ht="46.5" spans="1:275">
+    <row r="21" ht="31" spans="1:275">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8066,7 +8065,7 @@
       <c r="H21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="14" t="s">
         <v>183</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -8094,9 +8093,11 @@
         <v>20</v>
       </c>
       <c r="R21" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="S21" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -8674,31 +8675,21 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
-        <v>2014</v>
-      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -8972,11 +8963,11 @@
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>195</v>
@@ -9249,52 +9240,38 @@
       <c r="JN24" s="1"/>
       <c r="JO24" s="1"/>
     </row>
-    <row r="25" ht="46.5" hidden="1" spans="1:275">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
+    <row r="25" ht="15.5" spans="1:275">
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2022</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -9556,11 +9533,9 @@
     </row>
     <row r="26" ht="46.5" spans="1:275">
       <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
@@ -9568,50 +9543,42 @@
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K26" s="1">
         <v>2022</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>214</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -9869,9 +9836,9 @@
       <c r="JN26" s="1"/>
       <c r="JO26" s="1"/>
     </row>
-    <row r="27" ht="15.5" spans="1:275">
+    <row r="27" ht="46.5" spans="1:275">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>70</v>
@@ -9883,31 +9850,31 @@
         <v>20</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K27" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>39</v>
@@ -9918,13 +9885,15 @@
       <c r="P27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S27" s="1"/>
+      <c r="R27" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -10182,22 +10151,24 @@
       <c r="JN27" s="1"/>
       <c r="JO27" s="1"/>
     </row>
-    <row r="28" ht="31" spans="1:275">
+    <row r="28" ht="15.5" spans="1:275">
       <c r="A28" s="1">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>217</v>
@@ -10206,33 +10177,35 @@
         <v>218</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>220</v>
       </c>
       <c r="K28" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="R28" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -10493,22 +10466,20 @@
     </row>
     <row r="29" ht="31" spans="1:275">
       <c r="A29" s="1">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>217</v>
@@ -10517,35 +10488,33 @@
         <v>218</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>220</v>
       </c>
       <c r="K29" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>217</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -10806,9 +10775,11 @@
     </row>
     <row r="30" ht="31" spans="1:275">
       <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
       </c>
@@ -10816,34 +10787,34 @@
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>25</v>
+        <v>218</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="K30" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>20</v>
@@ -10855,7 +10826,7 @@
         <v>20</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -11117,58 +11088,56 @@
     </row>
     <row r="31" ht="31" spans="1:275">
       <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>122</v>
+      <c r="E31" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K31" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -11428,48 +11397,60 @@
       <c r="JN31" s="1"/>
       <c r="JO31" s="1"/>
     </row>
-    <row r="32" ht="62" spans="1:275">
+    <row r="32" ht="31" spans="1:275">
       <c r="A32" s="1">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1" t="s">
-        <v>247</v>
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K32" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M32" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="N32" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="5" t="s">
-        <v>252</v>
+      <c r="R32" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -11729,43 +11710,49 @@
       <c r="JN32" s="1"/>
       <c r="JO32" s="1"/>
     </row>
-    <row r="33" ht="15.5" spans="1:275">
+    <row r="33" ht="62" spans="1:275">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>254</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="1" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="9" t="s">
-        <v>256</v>
+      <c r="N33" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="R33" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -12024,45 +12011,41 @@
       <c r="JN33" s="1"/>
       <c r="JO33" s="1"/>
     </row>
-    <row r="34" ht="31" hidden="1" spans="1:275">
+    <row r="34" ht="15.5" spans="1:275">
       <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="1" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K34" s="1">
-        <v>2021</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
+      <c r="N34" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -12325,45 +12308,43 @@
     </row>
     <row r="35" ht="31" spans="1:275">
       <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F35" s="8"/>
+      <c r="E35" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="5"/>
       <c r="G35" s="1" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="K35" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -12626,44 +12607,44 @@
     </row>
     <row r="36" ht="31" spans="1:275">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="13" t="s">
-        <v>266</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="1" t="s">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9" t="s">
-        <v>270</v>
+        <v>107</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="K36" s="1">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="9" t="s">
-        <v>256</v>
+      <c r="N36" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -12925,35 +12906,47 @@
       <c r="JN36" s="1"/>
       <c r="JO36" s="1"/>
     </row>
-    <row r="37" ht="31" hidden="1" spans="1:275">
+    <row r="37" ht="31" spans="1:275">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="12" t="s">
         <v>266</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="H37" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2023</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="N37" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -13214,36 +13207,32 @@
       <c r="JN37" s="1"/>
       <c r="JO37" s="1"/>
     </row>
-    <row r="38" ht="31" hidden="1" spans="1:275">
+    <row r="38" ht="31" spans="1:275">
       <c r="A38" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E38" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K38" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>278</v>
-      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1" t="s">
-        <v>48</v>
+      <c r="N38" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -13507,32 +13496,32 @@
       <c r="JN38" s="1"/>
       <c r="JO38" s="1"/>
     </row>
-    <row r="39" ht="31" hidden="1" spans="1:275">
+    <row r="39" ht="31" spans="1:275">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="10" t="s">
-        <v>190</v>
+      <c r="G39" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K39" s="1">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
@@ -13800,18 +13789,302 @@
       <c r="JN39" s="1"/>
       <c r="JO39" s="1"/>
     </row>
+    <row r="40" ht="31" spans="1:275">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1"/>
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
+      <c r="CW40" s="1"/>
+      <c r="CX40" s="1"/>
+      <c r="CY40" s="1"/>
+      <c r="CZ40" s="1"/>
+      <c r="DA40" s="1"/>
+      <c r="DB40" s="1"/>
+      <c r="DC40" s="1"/>
+      <c r="DD40" s="1"/>
+      <c r="DE40" s="1"/>
+      <c r="DF40" s="1"/>
+      <c r="DG40" s="1"/>
+      <c r="DH40" s="1"/>
+      <c r="DI40" s="1"/>
+      <c r="DJ40" s="1"/>
+      <c r="DK40" s="1"/>
+      <c r="DL40" s="1"/>
+      <c r="DM40" s="1"/>
+      <c r="DN40" s="1"/>
+      <c r="DO40" s="1"/>
+      <c r="DP40" s="1"/>
+      <c r="DQ40" s="1"/>
+      <c r="DR40" s="1"/>
+      <c r="DS40" s="1"/>
+      <c r="DT40" s="1"/>
+      <c r="DU40" s="1"/>
+      <c r="DV40" s="1"/>
+      <c r="DW40" s="1"/>
+      <c r="DX40" s="1"/>
+      <c r="DY40" s="1"/>
+      <c r="DZ40" s="1"/>
+      <c r="EA40" s="1"/>
+      <c r="EB40" s="1"/>
+      <c r="EC40" s="1"/>
+      <c r="ED40" s="1"/>
+      <c r="EE40" s="1"/>
+      <c r="EF40" s="1"/>
+      <c r="EG40" s="1"/>
+      <c r="EH40" s="1"/>
+      <c r="EI40" s="1"/>
+      <c r="EJ40" s="1"/>
+      <c r="EK40" s="1"/>
+      <c r="EL40" s="1"/>
+      <c r="EM40" s="1"/>
+      <c r="EN40" s="1"/>
+      <c r="EO40" s="1"/>
+      <c r="EP40" s="1"/>
+      <c r="EQ40" s="1"/>
+      <c r="ER40" s="1"/>
+      <c r="ES40" s="1"/>
+      <c r="ET40" s="1"/>
+      <c r="EU40" s="1"/>
+      <c r="EV40" s="1"/>
+      <c r="EW40" s="1"/>
+      <c r="EX40" s="1"/>
+      <c r="EY40" s="1"/>
+      <c r="EZ40" s="1"/>
+      <c r="FA40" s="1"/>
+      <c r="FB40" s="1"/>
+      <c r="FC40" s="1"/>
+      <c r="FD40" s="1"/>
+      <c r="FE40" s="1"/>
+      <c r="FF40" s="1"/>
+      <c r="FG40" s="1"/>
+      <c r="FH40" s="1"/>
+      <c r="FI40" s="1"/>
+      <c r="FJ40" s="1"/>
+      <c r="FK40" s="1"/>
+      <c r="FL40" s="1"/>
+      <c r="FM40" s="1"/>
+      <c r="FN40" s="1"/>
+      <c r="FO40" s="1"/>
+      <c r="FP40" s="1"/>
+      <c r="FQ40" s="1"/>
+      <c r="FR40" s="1"/>
+      <c r="FS40" s="1"/>
+      <c r="FT40" s="1"/>
+      <c r="FU40" s="1"/>
+      <c r="FV40" s="1"/>
+      <c r="FW40" s="1"/>
+      <c r="FX40" s="1"/>
+      <c r="FY40" s="1"/>
+      <c r="FZ40" s="1"/>
+      <c r="GA40" s="1"/>
+      <c r="GB40" s="1"/>
+      <c r="GC40" s="1"/>
+      <c r="GD40" s="1"/>
+      <c r="GE40" s="1"/>
+      <c r="GF40" s="1"/>
+      <c r="GG40" s="1"/>
+      <c r="GH40" s="1"/>
+      <c r="GI40" s="1"/>
+      <c r="GJ40" s="1"/>
+      <c r="GK40" s="1"/>
+      <c r="GL40" s="1"/>
+      <c r="GM40" s="1"/>
+      <c r="GN40" s="1"/>
+      <c r="GO40" s="1"/>
+      <c r="GP40" s="1"/>
+      <c r="GQ40" s="1"/>
+      <c r="GR40" s="1"/>
+      <c r="GS40" s="1"/>
+      <c r="GT40" s="1"/>
+      <c r="GU40" s="1"/>
+      <c r="GV40" s="1"/>
+      <c r="GW40" s="1"/>
+      <c r="GX40" s="1"/>
+      <c r="GY40" s="1"/>
+      <c r="GZ40" s="1"/>
+      <c r="HA40" s="1"/>
+      <c r="HB40" s="1"/>
+      <c r="HC40" s="1"/>
+      <c r="HD40" s="1"/>
+      <c r="HE40" s="1"/>
+      <c r="HF40" s="1"/>
+      <c r="HG40" s="1"/>
+      <c r="HH40" s="1"/>
+      <c r="HI40" s="1"/>
+      <c r="HJ40" s="1"/>
+      <c r="HK40" s="1"/>
+      <c r="HL40" s="1"/>
+      <c r="HM40" s="1"/>
+      <c r="HN40" s="1"/>
+      <c r="HO40" s="1"/>
+      <c r="HP40" s="1"/>
+      <c r="HQ40" s="1"/>
+      <c r="HR40" s="1"/>
+      <c r="HS40" s="1"/>
+      <c r="HT40" s="1"/>
+      <c r="HU40" s="1"/>
+      <c r="HV40" s="1"/>
+      <c r="HW40" s="1"/>
+      <c r="HX40" s="1"/>
+      <c r="HY40" s="1"/>
+      <c r="HZ40" s="1"/>
+      <c r="IA40" s="1"/>
+      <c r="IB40" s="1"/>
+      <c r="IC40" s="1"/>
+      <c r="ID40" s="1"/>
+      <c r="IE40" s="1"/>
+      <c r="IF40" s="1"/>
+      <c r="IG40" s="1"/>
+      <c r="IH40" s="1"/>
+      <c r="II40" s="1"/>
+      <c r="IJ40" s="1"/>
+      <c r="IK40" s="1"/>
+      <c r="IL40" s="1"/>
+      <c r="IM40" s="1"/>
+      <c r="IN40" s="1"/>
+      <c r="IO40" s="1"/>
+      <c r="IP40" s="1"/>
+      <c r="IQ40" s="1"/>
+      <c r="IR40" s="1"/>
+      <c r="IS40" s="1"/>
+      <c r="IT40" s="1"/>
+      <c r="IU40" s="1"/>
+      <c r="IV40" s="1"/>
+      <c r="IW40" s="1"/>
+      <c r="IX40" s="1"/>
+      <c r="IY40" s="1"/>
+      <c r="IZ40" s="1"/>
+      <c r="JA40" s="1"/>
+      <c r="JB40" s="1"/>
+      <c r="JC40" s="1"/>
+      <c r="JD40" s="1"/>
+      <c r="JE40" s="1"/>
+      <c r="JF40" s="1"/>
+      <c r="JG40" s="1"/>
+      <c r="JH40" s="1"/>
+      <c r="JI40" s="1"/>
+      <c r="JJ40" s="1"/>
+      <c r="JK40" s="1"/>
+      <c r="JL40" s="1"/>
+      <c r="JM40" s="1"/>
+      <c r="JN40" s="1"/>
+      <c r="JO40" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S39" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="△"/>
-        <filter val="×"/>
-        <filter val="√"/>
-        <filter val="ok"/>
-        <filter val="○"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:S39">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S40" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:S40">
       <sortCondition ref="M1"/>
     </sortState>
     <extLst/>
@@ -13820,60 +14093,60 @@
     <hyperlink ref="L2" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
     <hyperlink ref="H4" r:id="rId2" display="merryndconstable@gmail.com"/>
     <hyperlink ref="H5" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
-    <hyperlink ref="H35" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="H36" r:id="rId3" display="hcp4715@gmail.com"/>
     <hyperlink ref="H6" r:id="rId2" display="merryndconstable@gmail.com" tooltip="mailto:merryndconstable@gmail.com"/>
     <hyperlink ref="H20" r:id="rId4" display="gaoxp@shnu.edu.cn" tooltip="mailto:gaoxp@shnu.edu.cn"/>
     <hyperlink ref="H21" r:id="rId5" display="schaefer@psychologie-forum-muenster.de" tooltip="mailto:schaefer@psychologie-forum-muenster.de"/>
-    <hyperlink ref="H27" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
-    <hyperlink ref="H34" r:id="rId7" display="skumar@brookes.ac.uk"/>
+    <hyperlink ref="H28" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
+    <hyperlink ref="H35" r:id="rId7" display="skumar@brookes.ac.uk"/>
     <hyperlink ref="H9" r:id="rId8" display="marius.golubickis@abdn.ac.uk" tooltip="mailto:marius.golubickis@abdn.ac.uk"/>
     <hyperlink ref="H17" r:id="rId9" display="mayanna@post.bgu.ac.il" tooltip="mailto:mayanna@post.bgu.ac.il"/>
     <hyperlink ref="H18" r:id="rId10" display="gabyorellanac@gmail.com" tooltip="mailto:gabyorellanac@gmail.com"/>
     <hyperlink ref="H12" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="H31" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
+    <hyperlink ref="H32" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
     <hyperlink ref="H22" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
     <hyperlink ref="H16" r:id="rId13" display="lfuentes@um.es" tooltip="mailto:lfuentes@um.es"/>
-    <hyperlink ref="H37" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
-    <hyperlink ref="H36" r:id="rId15" display="wentura@mx.uni-saarland.de" tooltip="mailto:wentura@mx.uni-saarland.de"/>
-    <hyperlink ref="H38" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
+    <hyperlink ref="H38" r:id="rId14" display="tseng@riec.tohoku.ac.jp"/>
+    <hyperlink ref="H37" r:id="rId15" display="wentura@mx.uni-saarland.de" tooltip="mailto:wentura@mx.uni-saarland.de"/>
+    <hyperlink ref="H39" r:id="rId16" display="marcel.pauly@uni-saarlande.de"/>
     <hyperlink ref="H7" r:id="rId17" display="mario.dalmaso@unipd.it"/>
-    <hyperlink ref="H39" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
+    <hyperlink ref="H40" r:id="rId18" display="jie.sui@psy.ox.ac.uk"/>
     <hyperlink ref="I4" r:id="rId19" display="https://osf.io/sejw7/"/>
     <hyperlink ref="I5" r:id="rId20" display="https://osf.io/5zaej/"/>
-    <hyperlink ref="I35" r:id="rId21" display="https://osf.io/4zvkm/"/>
-    <hyperlink ref="I34" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
+    <hyperlink ref="I36" r:id="rId21" display="https://osf.io/4zvkm/"/>
+    <hyperlink ref="I35" r:id="rId22" display="https://figshare.com/s/e1391ebe3f11e8d70d9f" tooltip="https://figshare.com/s/e1391ebe3f11e8d70d9f"/>
     <hyperlink ref="I6" r:id="rId23" display="https://osf.io/khyjq/"/>
     <hyperlink ref="I20" r:id="rId24" display="https://osf.io/bw27c"/>
     <hyperlink ref="I21" r:id="rId25" display="http://dx.doi.org/10.23668/psycharchives.2642"/>
-    <hyperlink ref="I27" r:id="rId26" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
+    <hyperlink ref="I28" r:id="rId26" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
     <hyperlink ref="I9" r:id="rId27" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
     <hyperlink ref="I17" r:id="rId28" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
     <hyperlink ref="I18" r:id="rId29" display="https://osf.io/3ke4f/" tooltip="https://osf.io/3ke4f/"/>
-    <hyperlink ref="I25" r:id="rId30" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="I26" r:id="rId30" display="https://osf.io/cj7fp/"/>
     <hyperlink ref="I15" r:id="rId31" display="https://osf.io/4n6j7/"/>
     <hyperlink ref="I12" r:id="rId32" display="https://zenodo.org/records/8031086"/>
     <hyperlink ref="I10" r:id="rId33" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
     <hyperlink ref="I11" r:id="rId34" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
     <hyperlink ref="I14" r:id="rId35" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
-    <hyperlink ref="I26" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="I27" r:id="rId36" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
     <hyperlink ref="I19" r:id="rId37" display="https://doi.org/10.26180/20011142"/>
-    <hyperlink ref="I29" r:id="rId38" display="https://osf.io/35wp9"/>
-    <hyperlink ref="I31" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
+    <hyperlink ref="I30" r:id="rId38" display="https://osf.io/35wp9"/>
+    <hyperlink ref="I32" r:id="rId39" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
     <hyperlink ref="I16" r:id="rId40" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a" tooltip="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
     <hyperlink ref="H13" r:id="rId41" display="i.r.kolvoort@uva.nl" tooltip="mailto:i.r.kolvoort@uva.nl"/>
-    <hyperlink ref="H25" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
+    <hyperlink ref="H26" r:id="rId42" display="s.svensson.19@abdn.ac.uk"/>
     <hyperlink ref="H10" r:id="rId43" display="pastoetter@uni-trier.de" tooltip="mailto:pastoetter@uni-trier.de"/>
     <hyperlink ref="H11" r:id="rId44" display="c.hobbs@bristol.ac.uk;" tooltip="mailto:c.hobbs@bristol.ac.uk;"/>
-    <hyperlink ref="H26" r:id="rId45" display="michele.vicovaro@unipd.it"/>
+    <hyperlink ref="H27" r:id="rId45" display="michele.vicovaro@unipd.it"/>
     <hyperlink ref="H19" r:id="rId46" display="kelsey.perrykkad@monash.edu"/>
-    <hyperlink ref="H29" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
+    <hyperlink ref="H30" r:id="rId6" display="mgwozniak@gmail.com" tooltip="mailto:mgwozniak@gmail.com"/>
     <hyperlink ref="H2" r:id="rId47" display="letizia.amodeo@ugent.be"/>
-    <hyperlink ref="H32" r:id="rId48" display="victor.martinez5@um.es" tooltip="mailto:victor.martinez5@um.es"/>
+    <hyperlink ref="H33" r:id="rId48" display="victor.martinez5@um.es" tooltip="mailto:victor.martinez5@um.es"/>
     <hyperlink ref="H3" r:id="rId49" display="hbbukowski@gmail.com"/>
     <hyperlink ref="H8" r:id="rId50" display="hongjl18@mails.tsinghua.edu.cn" tooltip="mailto:hongjl18@mails.tsinghua.edu.cn"/>
-    <hyperlink ref="H30" r:id="rId51" display="guanll353@nenu.edu.cn"/>
-    <hyperlink ref="I28" r:id="rId52" display="https://osf.io/2q9w7/" tooltip="https://osf.io/2q9w7/"/>
-    <hyperlink ref="I32" r:id="rId53" display="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full" tooltip="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full"/>
+    <hyperlink ref="H31" r:id="rId51" display="guanll353@nenu.edu.cn"/>
+    <hyperlink ref="I29" r:id="rId52" display="https://osf.io/2q9w7/" tooltip="https://osf.io/2q9w7/"/>
+    <hyperlink ref="I33" r:id="rId53" display="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full" tooltip="https://www.frontiersin.org/journals/neuroscience/articles/10.3389/fnins.2020.00683/full"/>
     <hyperlink ref="I3" r:id="rId54" display="https://osf.io/pcv3u/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="284">
   <si>
     <t>ID</t>
   </si>
@@ -821,6 +821,9 @@
     <t>Wozniak_2018_PLOS</t>
   </si>
   <si>
+    <t>△/×</t>
+  </si>
+  <si>
     <t>Stranger to my face: Top-down and bottom-up effects underlying prioritization of images of one’s face</t>
   </si>
   <si>
@@ -834,6 +837,9 @@
   </si>
   <si>
     <t>Wozniak_2020_PLOS</t>
+  </si>
+  <si>
+    <t>To Be Processed</t>
   </si>
   <si>
     <t>Self‑prioritization depends on assumed task‑relevance of self‑association</t>
@@ -927,9 +933,6 @@
   <si>
     <t>Lucía B. Palmero
 Víctor Martínez-Pérez</t>
-  </si>
-  <si>
-    <t>△/×</t>
   </si>
   <si>
     <t>×</t>
@@ -1689,7 +1692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1739,9 +1742,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2071,11 +2071,11 @@
   <dimension ref="A1:JO40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -8095,7 +8095,7 @@
       <c r="R21" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S21" s="5" t="s">
         <v>187</v>
       </c>
       <c r="T21" s="1"/>
@@ -10470,16 +10470,16 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="7" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>217</v>
@@ -10488,7 +10488,7 @@
         <v>218</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>220</v>
@@ -10497,13 +10497,13 @@
         <v>2020</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>62</v>
@@ -10787,10 +10787,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>217</v>
@@ -10799,7 +10799,7 @@
         <v>218</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>220</v>
@@ -10811,7 +10811,7 @@
         <v>203</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>39</v>
@@ -11098,34 +11098,34 @@
         <v>20</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K31" s="1">
         <v>2021</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>20</v>
@@ -11137,7 +11137,7 @@
         <v>20</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -11411,10 +11411,10 @@
         <v>20</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>122</v>
@@ -11423,19 +11423,19 @@
         <v>123</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K32" s="1">
         <v>2023</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>39</v>
@@ -11718,26 +11718,26 @@
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K33" s="1">
         <v>2020</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -12017,13 +12017,13 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="7" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="1" t="s">
@@ -12038,13 +12038,13 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>62</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -12318,26 +12318,26 @@
         <v>20</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K35" s="1">
         <v>2021</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
@@ -12615,7 +12615,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="1" t="s">
@@ -12625,7 +12625,7 @@
         <v>107</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>109</v>
@@ -12634,7 +12634,7 @@
         <v>2020</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
@@ -12912,24 +12912,24 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K37" s="1">
         <v>2023</v>
@@ -12939,13 +12939,13 @@
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>62</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -13213,18 +13213,18 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="1"/>
       <c r="H38" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -13232,7 +13232,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -13504,24 +13504,24 @@
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K39" s="1">
         <v>2024</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
@@ -13797,24 +13797,24 @@
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="10" t="s">
         <v>190</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K40" s="1">
         <v>2016</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -2071,7 +2071,7 @@
   <dimension ref="A1:JO40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/Contact information.xlsx
+++ b/Contact information.xlsx
@@ -346,11 +346,8 @@
   </si>
   <si>
     <t>Christian Frings
-Céline Haciahmet--
+Céline Haciahmet
 Bernhard Pastötter</t>
-  </si>
-  <si>
-    <t>√--</t>
   </si>
   <si>
     <t>Self-processing in relation to emotion and reward processing in depression.</t>
@@ -1030,6 +1027,11 @@
   </si>
   <si>
     <t>Journal of Experimental Psychology:Human Perception and Performance</t>
+  </si>
+  <si>
+    <t>Christian Frings
+Céline Haciahmet--
+Bernhard Pastötter</t>
   </si>
   <si>
     <t>Mario Dalmaso (Department of Social and Developmental Psychology, University of Padova)
@@ -2087,11 +2089,11 @@
   <dimension ref="A1:JO40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2181,7 +2183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="62" hidden="1" spans="1:275">
+    <row r="2" ht="62" spans="1:275">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2494,7 +2496,7 @@
       <c r="JN2" s="3"/>
       <c r="JO2" s="3"/>
     </row>
-    <row r="3" ht="31" hidden="1" spans="1:275">
+    <row r="3" ht="31" spans="1:275">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3102,7 +3104,7 @@
       <c r="JN4" s="3"/>
       <c r="JO4" s="3"/>
     </row>
-    <row r="5" ht="31" hidden="1" spans="1:275">
+    <row r="5" ht="31" spans="1:275">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3415,7 +3417,7 @@
       <c r="JN5" s="3"/>
       <c r="JO5" s="3"/>
     </row>
-    <row r="6" ht="31" hidden="1" spans="1:275">
+    <row r="6" ht="31" spans="1:275">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4350,7 +4352,7 @@
       <c r="JN8" s="3"/>
       <c r="JO8" s="3"/>
     </row>
-    <row r="9" ht="15.5" hidden="1" spans="1:275">
+    <row r="9" ht="15.5" spans="1:275">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4657,7 +4659,7 @@
       <c r="JN9" s="3"/>
       <c r="JO9" s="3"/>
     </row>
-    <row r="10" ht="46.5" hidden="1" spans="1:275">
+    <row r="10" ht="46.5" spans="1:275">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4715,7 +4717,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="5" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -4972,7 +4974,7 @@
       <c r="JN10" s="3"/>
       <c r="JO10" s="3"/>
     </row>
-    <row r="11" ht="31" hidden="1" spans="1:275">
+    <row r="11" ht="31" spans="1:275">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4984,31 +4986,31 @@
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="K11" s="3">
         <v>2023</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>30</v>
@@ -5289,32 +5291,32 @@
         <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="K12" s="3">
         <v>2023</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>21</v>
@@ -5588,7 +5590,7 @@
       <c r="JN12" s="3"/>
       <c r="JO12" s="3"/>
     </row>
-    <row r="13" ht="46.5" hidden="1" spans="1:275">
+    <row r="13" ht="46.5" spans="1:275">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5600,31 +5602,31 @@
         <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" s="3">
         <v>2020</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>30</v>
@@ -5639,7 +5641,7 @@
         <v>21</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -5913,31 +5915,31 @@
         <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="K14" s="3">
         <v>2021</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>30</v>
@@ -6226,34 +6228,34 @@
         <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="K15" s="3">
         <v>2023</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="N15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>21</v>
@@ -6527,7 +6529,7 @@
       <c r="JN15" s="3"/>
       <c r="JO15" s="3"/>
     </row>
-    <row r="16" ht="69" hidden="1" customHeight="1" spans="1:275">
+    <row r="16" ht="54" spans="1:275">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6541,22 +6543,22 @@
         <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="K16" s="3">
         <v>2024</v>
@@ -6565,7 +6567,7 @@
         <v>68</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>40</v>
@@ -6580,11 +6582,11 @@
         <v>21</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>21</v>
@@ -6844,43 +6846,43 @@
       <c r="JN16" s="3"/>
       <c r="JO16" s="3"/>
     </row>
-    <row r="17" ht="31" hidden="1" spans="1:275">
+    <row r="17" ht="31" spans="1:275">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="K17" s="3">
         <v>2021</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>30</v>
@@ -6895,7 +6897,7 @@
         <v>21</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -7169,31 +7171,31 @@
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="K18" s="3">
         <v>2020</v>
       </c>
       <c r="L18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>49</v>
@@ -7462,7 +7464,7 @@
       <c r="JN18" s="3"/>
       <c r="JO18" s="3"/>
     </row>
-    <row r="19" ht="31" hidden="1" spans="1:275">
+    <row r="19" ht="31" spans="1:275">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -7476,31 +7478,31 @@
         <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="K19" s="3">
         <v>2022</v>
       </c>
       <c r="L19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>40</v>
@@ -7773,7 +7775,7 @@
       <c r="JN19" s="3"/>
       <c r="JO19" s="3"/>
     </row>
-    <row r="20" ht="31" hidden="1" spans="1:275">
+    <row r="20" ht="31" spans="1:275">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -7785,31 +7787,31 @@
         <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="J20" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="K20" s="3">
         <v>2020</v>
       </c>
       <c r="L20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>30</v>
@@ -7824,7 +7826,7 @@
         <v>21</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -8086,45 +8088,45 @@
       <c r="JN20" s="3"/>
       <c r="JO20" s="3"/>
     </row>
-    <row r="21" ht="31" hidden="1" spans="1:275">
+    <row r="21" ht="31" spans="1:275">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="J21" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="K21" s="3">
         <v>2019</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>40</v>
@@ -8139,10 +8141,10 @@
         <v>21</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="5" t="s">
@@ -8417,22 +8419,22 @@
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K22" s="3">
         <v>2023</v>
@@ -8441,7 +8443,7 @@
         <v>68</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>40</v>
@@ -8736,7 +8738,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="8" t="s">
@@ -9031,10 +9033,10 @@
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>21</v>
@@ -9328,10 +9330,10 @@
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>21</v>
@@ -9605,7 +9607,7 @@
       <c r="JN25" s="3"/>
       <c r="JO25" s="3"/>
     </row>
-    <row r="26" ht="46.5" hidden="1" spans="1:275">
+    <row r="26" ht="46.5" spans="1:275">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -9617,31 +9619,31 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="K26" s="3">
         <v>2022</v>
       </c>
       <c r="L26" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>30</v>
@@ -9910,7 +9912,7 @@
       <c r="JN26" s="3"/>
       <c r="JO26" s="3"/>
     </row>
-    <row r="27" ht="62" hidden="1" spans="1:275">
+    <row r="27" ht="62" spans="1:275">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -9924,31 +9926,31 @@
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="K27" s="3">
         <v>2022</v>
       </c>
       <c r="L27" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>40</v>
@@ -9963,10 +9965,10 @@
         <v>21</v>
       </c>
       <c r="R27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="5" t="s">
@@ -10227,7 +10229,7 @@
       <c r="JN27" s="3"/>
       <c r="JO27" s="3"/>
     </row>
-    <row r="28" ht="15.5" hidden="1" spans="1:275">
+    <row r="28" ht="15.5" spans="1:275">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -10241,31 +10243,31 @@
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="K28" s="3">
         <v>2018</v>
       </c>
       <c r="L28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>40</v>
@@ -10280,7 +10282,7 @@
         <v>21</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -10548,40 +10550,40 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K29" s="3">
         <v>2020</v>
       </c>
       <c r="L29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>63</v>
@@ -10593,7 +10595,7 @@
         <v>63</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -10855,7 +10857,7 @@
       <c r="JN29" s="3"/>
       <c r="JO29" s="3"/>
     </row>
-    <row r="30" ht="31" hidden="1" spans="1:275">
+    <row r="30" ht="31" spans="1:275">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10869,31 +10871,31 @@
         <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K30" s="3">
         <v>2022</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>40</v>
@@ -10908,7 +10910,7 @@
         <v>21</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -11170,7 +11172,7 @@
       <c r="JN30" s="3"/>
       <c r="JO30" s="3"/>
     </row>
-    <row r="31" ht="31" hidden="1" spans="1:275">
+    <row r="31" ht="31" spans="1:275">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -11182,35 +11184,35 @@
         <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K31" s="3">
         <v>2021</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="O31" s="8" t="s">
         <v>21</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>21</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -11497,31 +11499,31 @@
         <v>21</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="K32" s="3">
         <v>2023</v>
       </c>
       <c r="L32" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>40</v>
@@ -11806,26 +11808,26 @@
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="K33" s="3">
         <v>2020</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -11839,7 +11841,7 @@
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -12105,20 +12107,20 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -12126,13 +12128,13 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -12406,26 +12408,26 @@
         <v>21</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="K35" s="3">
         <v>2021</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -12703,30 +12705,30 @@
         <v>21</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="I36" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K36" s="3">
         <v>2020</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>50</v>
@@ -13000,40 +13002,40 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K37" s="3">
         <v>2023</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -13301,18 +13303,18 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
       <c r="H38" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -13320,7 +13322,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -13592,24 +13594,24 @@
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K39" s="3">
         <v>2024</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
@@ -13885,24 +13887,24 @@
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K40" s="3">
         <v>2016</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
@@ -14184,11 +14186,6 @@
         <filter val="√√"/>
         <filter val="○"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <customFilters>
-        <customFilter operator="equal" val="ok"/>
-      </customFilters>
     </filterColumn>
     <sortState ref="A1:S40">
       <sortCondition ref="M1"/>
@@ -14562,7 +14559,7 @@
     </row>
     <row r="12" ht="46.5" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" ht="15.5" spans="1:1">
@@ -14572,7 +14569,7 @@
     </row>
     <row r="14" ht="31" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" ht="15.5" spans="1:1">
@@ -14587,12 +14584,12 @@
     </row>
     <row r="17" ht="46.5" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" ht="31" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:1">
@@ -14600,12 +14597,12 @@
     </row>
     <row r="20" ht="31" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:1">
@@ -14635,17 +14632,17 @@
     </row>
     <row r="27" ht="15.5" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:1">
